--- a/GoodAndBetter_Schema.xlsx
+++ b/GoodAndBetter_Schema.xlsx
@@ -1,33 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26009"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Wan/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Good And Better\git\Good-Better\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1000" windowWidth="25600" windowHeight="14500"/>
+    <workbookView xWindow="0" yWindow="1005" windowWidth="25605" windowHeight="14505"/>
   </bookViews>
   <sheets>
     <sheet name="Shema" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="96">
   <si>
     <t>version</t>
   </si>
@@ -62,10 +62,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MEM_Code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Contents</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -88,9 +84,6 @@
   <si>
     <t>varchar(20)</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>v 0.1.0</t>
   </si>
   <si>
     <t>KEY</t>
@@ -154,9 +147,6 @@
     <t>초기 문서 정리</t>
   </si>
   <si>
-    <t>v 0.10</t>
-  </si>
-  <si>
     <t>MEM_Id</t>
   </si>
   <si>
@@ -250,9 +240,6 @@
     <t>PK</t>
   </si>
   <si>
-    <t>BOOLEAN</t>
-  </si>
-  <si>
     <t>QUESTION</t>
   </si>
   <si>
@@ -295,10 +282,73 @@
     <t>MEM_Isadmin</t>
   </si>
   <si>
-    <t>Boolean</t>
-  </si>
-  <si>
     <t>관리자 여부</t>
+  </si>
+  <si>
+    <t>MEM_Code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자동증가값</t>
+  </si>
+  <si>
+    <t>자동증가값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v 0.1.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오류 수정(FK-&gt;PK), 컬럼설명추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v 0.1.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물주기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영양제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>병충해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분갈이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가지치기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>질문내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TINYINT(1)</t>
+  </si>
+  <si>
+    <t>TINYINT(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(30)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -309,14 +359,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -339,7 +389,7 @@
       <b/>
       <sz val="22"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -347,7 +397,7 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -356,7 +406,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -365,7 +415,7 @@
       <u/>
       <sz val="11"/>
       <color theme="11"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -929,6 +979,138 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -998,155 +1180,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1172,7 +1222,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>482599</xdr:colOff>
+      <xdr:colOff>311149</xdr:colOff>
       <xdr:row>59</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
@@ -1469,82 +1519,83 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.1640625" customWidth="1"/>
+    <col min="12" max="12" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.125" customWidth="1"/>
     <col min="16" max="16" width="8" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="G1" s="45" t="s">
-        <v>30</v>
-      </c>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="47"/>
-    </row>
-    <row r="2" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="G2" s="48"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="50"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="G3" s="51" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="G1" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="35"/>
+    </row>
+    <row r="2" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G2" s="36"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="38"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="G3" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="53"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="41"/>
       <c r="K3" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="G4" s="54" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="G4" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="56"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="44"/>
       <c r="K4" s="5">
-        <v>42175</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="G5" s="57" t="s">
+        <v>42177</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G5" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="58"/>
-      <c r="I5" s="58"/>
-      <c r="J5" s="59"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="47"/>
       <c r="K5" s="6">
         <v>42175</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:19" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:19" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -1563,7 +1614,7 @@
       <c r="P8" s="10"/>
       <c r="Q8" s="10"/>
     </row>
-    <row r="9" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -1578,92 +1629,92 @@
       <c r="H9" s="1"/>
       <c r="M9" s="10"/>
       <c r="N9" s="10"/>
-      <c r="O9" s="60" t="s">
+      <c r="O9" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="P9" s="61"/>
-      <c r="Q9" s="61"/>
-      <c r="R9" s="61"/>
-      <c r="S9" s="62"/>
-    </row>
-    <row r="10" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="P9" s="49"/>
+      <c r="Q9" s="49"/>
+      <c r="R9" s="49"/>
+      <c r="S9" s="50"/>
+    </row>
+    <row r="10" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>9</v>
+        <v>79</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="H10" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="M10" s="11"/>
       <c r="N10" s="11"/>
-      <c r="O10" s="63"/>
-      <c r="P10" s="64"/>
-      <c r="Q10" s="64"/>
-      <c r="R10" s="64"/>
-      <c r="S10" s="65"/>
-    </row>
-    <row r="11" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O10" s="51"/>
+      <c r="P10" s="52"/>
+      <c r="Q10" s="52"/>
+      <c r="R10" s="52"/>
+      <c r="S10" s="53"/>
+    </row>
+    <row r="11" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="D11" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="M11" s="11"/>
       <c r="N11" s="11"/>
-      <c r="O11" s="66" t="s">
+      <c r="O11" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="P11" s="55"/>
+      <c r="Q11" s="56"/>
+      <c r="R11" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="P11" s="67"/>
-      <c r="Q11" s="68"/>
-      <c r="R11" s="7" t="s">
+      <c r="S11" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="S11" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -1673,60 +1724,68 @@
       <c r="H12" s="1"/>
       <c r="M12" s="11"/>
       <c r="N12" s="11"/>
-      <c r="O12" s="69" t="s">
-        <v>34</v>
-      </c>
-      <c r="P12" s="40"/>
-      <c r="Q12" s="70"/>
+      <c r="O12" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="P12" s="58"/>
+      <c r="Q12" s="59"/>
       <c r="R12" s="14" t="s">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="S12" s="5">
         <v>42175</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="M13" s="11"/>
       <c r="N13" s="11"/>
-      <c r="O13" s="42"/>
-      <c r="P13" s="43"/>
-      <c r="Q13" s="44"/>
-      <c r="R13" s="14"/>
-      <c r="S13" s="15"/>
-    </row>
-    <row r="14" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O13" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="P13" s="31"/>
+      <c r="Q13" s="32"/>
+      <c r="R13" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="S13" s="15">
+        <v>42177</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M14" s="11"/>
       <c r="N14" s="11"/>
-      <c r="O14" s="42"/>
-      <c r="P14" s="43"/>
-      <c r="Q14" s="44"/>
+      <c r="O14" s="30"/>
+      <c r="P14" s="31"/>
+      <c r="Q14" s="32"/>
       <c r="R14" s="14"/>
       <c r="S14" s="5"/>
     </row>
-    <row r="15" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>3</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -1736,18 +1795,18 @@
       <c r="H15" s="1"/>
       <c r="M15" s="12"/>
       <c r="N15" s="12"/>
-      <c r="O15" s="42"/>
-      <c r="P15" s="43"/>
-      <c r="Q15" s="44"/>
+      <c r="O15" s="30"/>
+      <c r="P15" s="31"/>
+      <c r="Q15" s="32"/>
       <c r="R15" s="14"/>
       <c r="S15" s="5"/>
     </row>
-    <row r="16" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>6</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -1757,87 +1816,87 @@
       <c r="H16" s="1"/>
       <c r="M16" s="12"/>
       <c r="N16" s="12"/>
-      <c r="O16" s="77"/>
-      <c r="P16" s="78"/>
-      <c r="Q16" s="79"/>
+      <c r="O16" s="24"/>
+      <c r="P16" s="25"/>
+      <c r="Q16" s="26"/>
       <c r="R16" s="14"/>
       <c r="S16" s="15"/>
     </row>
-    <row r="17" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>8</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="G17" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="M17" s="13"/>
       <c r="N17" s="13"/>
-      <c r="O17" s="77"/>
-      <c r="P17" s="78"/>
-      <c r="Q17" s="79"/>
+      <c r="O17" s="24"/>
+      <c r="P17" s="25"/>
+      <c r="Q17" s="26"/>
       <c r="R17" s="14"/>
       <c r="S17" s="15"/>
     </row>
-    <row r="18" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="C18" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="M18" s="13"/>
       <c r="N18" s="13"/>
-      <c r="O18" s="71"/>
-      <c r="P18" s="72"/>
-      <c r="Q18" s="73"/>
+      <c r="O18" s="27"/>
+      <c r="P18" s="28"/>
+      <c r="Q18" s="29"/>
       <c r="R18" s="14"/>
       <c r="S18" s="15"/>
     </row>
-    <row r="19" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -1846,74 +1905,76 @@
       <c r="H19" s="1"/>
       <c r="M19" s="11"/>
       <c r="N19" s="11"/>
-      <c r="O19" s="71"/>
-      <c r="P19" s="72"/>
-      <c r="Q19" s="73"/>
+      <c r="O19" s="27"/>
+      <c r="P19" s="28"/>
+      <c r="Q19" s="29"/>
       <c r="R19" s="14"/>
       <c r="S19" s="15"/>
     </row>
-    <row r="20" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="M20" s="12"/>
       <c r="N20" s="12"/>
-      <c r="O20" s="74"/>
-      <c r="P20" s="75"/>
-      <c r="Q20" s="76"/>
+      <c r="O20" s="18"/>
+      <c r="P20" s="19"/>
+      <c r="Q20" s="20"/>
       <c r="R20" s="14"/>
       <c r="S20" s="5"/>
     </row>
-    <row r="21" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M21" s="12"/>
       <c r="N21" s="12"/>
-      <c r="O21" s="77"/>
-      <c r="P21" s="78"/>
-      <c r="Q21" s="79"/>
+      <c r="O21" s="24"/>
+      <c r="P21" s="25"/>
+      <c r="Q21" s="26"/>
       <c r="R21" s="14"/>
       <c r="S21" s="15"/>
     </row>
-    <row r="22" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M22" s="12"/>
       <c r="N22" s="12"/>
-      <c r="O22" s="77"/>
-      <c r="P22" s="78"/>
-      <c r="Q22" s="79"/>
+      <c r="O22" s="24"/>
+      <c r="P22" s="25"/>
+      <c r="Q22" s="26"/>
       <c r="R22" s="14"/>
       <c r="S22" s="15"/>
     </row>
-    <row r="23" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M23" s="12"/>
       <c r="N23" s="12"/>
-      <c r="O23" s="77"/>
-      <c r="P23" s="78"/>
-      <c r="Q23" s="79"/>
+      <c r="O23" s="24"/>
+      <c r="P23" s="25"/>
+      <c r="Q23" s="26"/>
       <c r="R23" s="14"/>
       <c r="S23" s="15"/>
     </row>
-    <row r="24" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>3</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1926,18 +1987,18 @@
       <c r="K24" s="1"/>
       <c r="M24" s="12"/>
       <c r="N24" s="12"/>
-      <c r="O24" s="77"/>
-      <c r="P24" s="78"/>
-      <c r="Q24" s="79"/>
+      <c r="O24" s="24"/>
+      <c r="P24" s="25"/>
+      <c r="Q24" s="26"/>
       <c r="R24" s="14"/>
       <c r="S24" s="15"/>
     </row>
-    <row r="25" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>6</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1950,98 +2011,98 @@
       <c r="K25" s="1"/>
       <c r="M25" s="12"/>
       <c r="N25" s="12"/>
-      <c r="O25" s="77"/>
-      <c r="P25" s="78"/>
-      <c r="Q25" s="79"/>
+      <c r="O25" s="24"/>
+      <c r="P25" s="25"/>
+      <c r="Q25" s="26"/>
       <c r="R25" s="14"/>
       <c r="S25" s="15"/>
     </row>
-    <row r="26" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>8</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E26" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="F26" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="G26" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E26" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>65</v>
-      </c>
       <c r="H26" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="K26" s="3"/>
       <c r="M26" s="11"/>
       <c r="N26" s="11"/>
-      <c r="O26" s="77"/>
-      <c r="P26" s="78"/>
-      <c r="Q26" s="79"/>
+      <c r="O26" s="24"/>
+      <c r="P26" s="25"/>
+      <c r="Q26" s="26"/>
       <c r="R26" s="14"/>
       <c r="S26" s="15"/>
     </row>
-    <row r="27" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K27" s="2"/>
       <c r="M27" s="11"/>
       <c r="N27" s="11"/>
-      <c r="O27" s="74"/>
-      <c r="P27" s="75"/>
-      <c r="Q27" s="76"/>
+      <c r="O27" s="18"/>
+      <c r="P27" s="19"/>
+      <c r="Q27" s="20"/>
       <c r="R27" s="14"/>
       <c r="S27" s="5"/>
     </row>
-    <row r="28" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -2049,78 +2110,90 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="M28" s="11"/>
       <c r="N28" s="11"/>
-      <c r="O28" s="74"/>
-      <c r="P28" s="75"/>
-      <c r="Q28" s="76"/>
+      <c r="O28" s="18"/>
+      <c r="P28" s="19"/>
+      <c r="Q28" s="20"/>
       <c r="R28" s="14"/>
       <c r="S28" s="5"/>
     </row>
-    <row r="29" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>10</v>
-      </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>90</v>
+      </c>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="K29" s="1"/>
       <c r="M29" s="11"/>
       <c r="N29" s="11"/>
-      <c r="O29" s="74"/>
-      <c r="P29" s="75"/>
-      <c r="Q29" s="76"/>
+      <c r="O29" s="18"/>
+      <c r="P29" s="19"/>
+      <c r="Q29" s="20"/>
       <c r="R29" s="14"/>
       <c r="S29" s="4"/>
     </row>
-    <row r="30" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M30" s="11"/>
       <c r="N30" s="11"/>
-      <c r="O30" s="74"/>
-      <c r="P30" s="75"/>
-      <c r="Q30" s="76"/>
+      <c r="O30" s="18"/>
+      <c r="P30" s="19"/>
+      <c r="Q30" s="20"/>
       <c r="R30" s="14"/>
       <c r="S30" s="4"/>
     </row>
-    <row r="31" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M31" s="11"/>
       <c r="N31" s="11"/>
-      <c r="O31" s="74"/>
-      <c r="P31" s="75"/>
-      <c r="Q31" s="76"/>
+      <c r="O31" s="18"/>
+      <c r="P31" s="19"/>
+      <c r="Q31" s="20"/>
       <c r="R31" s="14"/>
       <c r="S31" s="4"/>
     </row>
-    <row r="32" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M32" s="11"/>
       <c r="N32" s="11"/>
-      <c r="O32" s="74"/>
-      <c r="P32" s="75"/>
-      <c r="Q32" s="76"/>
+      <c r="O32" s="18"/>
+      <c r="P32" s="19"/>
+      <c r="Q32" s="20"/>
       <c r="R32" s="14"/>
       <c r="S32" s="4"/>
     </row>
-    <row r="33" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>3</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -2129,25 +2202,25 @@
         <v>3</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="M33" s="11"/>
       <c r="N33" s="11"/>
-      <c r="O33" s="74"/>
-      <c r="P33" s="75"/>
-      <c r="Q33" s="76"/>
+      <c r="O33" s="18"/>
+      <c r="P33" s="19"/>
+      <c r="Q33" s="20"/>
       <c r="R33" s="14"/>
       <c r="S33" s="4"/>
     </row>
-    <row r="34" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>6</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -2156,350 +2229,322 @@
         <v>6</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="M34" s="11"/>
       <c r="N34" s="11"/>
-      <c r="O34" s="74"/>
-      <c r="P34" s="75"/>
-      <c r="Q34" s="76"/>
+      <c r="O34" s="18"/>
+      <c r="P34" s="19"/>
+      <c r="Q34" s="20"/>
       <c r="R34" s="14"/>
       <c r="S34" s="4"/>
     </row>
-    <row r="35" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>8</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G35" t="s">
         <v>8</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="M35" s="11"/>
       <c r="N35" s="11"/>
-      <c r="O35" s="74"/>
-      <c r="P35" s="75"/>
-      <c r="Q35" s="76"/>
+      <c r="O35" s="18"/>
+      <c r="P35" s="19"/>
+      <c r="Q35" s="20"/>
       <c r="R35" s="14"/>
       <c r="S35" s="4"/>
     </row>
-    <row r="36" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="C36" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G36" t="s">
-        <v>13</v>
-      </c>
-      <c r="H36" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="I36" s="2"/>
       <c r="J36" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="M36" s="11"/>
       <c r="N36" s="11"/>
-      <c r="O36" s="74"/>
-      <c r="P36" s="75"/>
-      <c r="Q36" s="76"/>
+      <c r="O36" s="18"/>
+      <c r="P36" s="19"/>
+      <c r="Q36" s="20"/>
       <c r="R36" s="14"/>
       <c r="S36" s="4"/>
     </row>
-    <row r="37" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E37" s="1"/>
       <c r="G37" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="M37" s="11"/>
       <c r="N37" s="11"/>
-      <c r="O37" s="74"/>
-      <c r="P37" s="75"/>
-      <c r="Q37" s="76"/>
+      <c r="O37" s="18"/>
+      <c r="P37" s="19"/>
+      <c r="Q37" s="20"/>
       <c r="R37" s="14"/>
       <c r="S37" s="4"/>
     </row>
-    <row r="38" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>10</v>
-      </c>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="G38" t="s">
-        <v>10</v>
-      </c>
-      <c r="H38" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="M38" s="11"/>
       <c r="N38" s="11"/>
-      <c r="O38" s="74"/>
-      <c r="P38" s="75"/>
-      <c r="Q38" s="76"/>
+      <c r="O38" s="18"/>
+      <c r="P38" s="19"/>
+      <c r="Q38" s="20"/>
       <c r="R38" s="14"/>
       <c r="S38" s="4"/>
     </row>
-    <row r="39" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="M39" s="11"/>
       <c r="N39" s="11"/>
-      <c r="O39" s="74"/>
-      <c r="P39" s="75"/>
-      <c r="Q39" s="76"/>
+      <c r="O39" s="18"/>
+      <c r="P39" s="19"/>
+      <c r="Q39" s="20"/>
       <c r="R39" s="14"/>
       <c r="S39" s="4"/>
     </row>
-    <row r="40" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="M40" s="11"/>
       <c r="N40" s="11"/>
-      <c r="O40" s="74"/>
-      <c r="P40" s="75"/>
-      <c r="Q40" s="76"/>
+      <c r="O40" s="18"/>
+      <c r="P40" s="19"/>
+      <c r="Q40" s="20"/>
       <c r="R40" s="14"/>
       <c r="S40" s="4"/>
     </row>
-    <row r="41" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="O41" s="80"/>
-      <c r="P41" s="81"/>
-      <c r="Q41" s="82"/>
-      <c r="R41" s="83"/>
-      <c r="S41" s="84"/>
-    </row>
-    <row r="43" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B44" s="28" t="s">
+    <row r="41" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O41" s="21"/>
+      <c r="P41" s="22"/>
+      <c r="Q41" s="23"/>
+      <c r="R41" s="16"/>
+      <c r="S41" s="17"/>
+    </row>
+    <row r="43" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B44" s="72" t="s">
+        <v>19</v>
+      </c>
+      <c r="C44" s="73"/>
+      <c r="D44" s="73"/>
+      <c r="E44" s="73"/>
+      <c r="F44" s="73"/>
+      <c r="G44" s="73"/>
+      <c r="H44" s="73"/>
+      <c r="I44" s="73"/>
+      <c r="J44" s="73"/>
+      <c r="K44" s="73"/>
+      <c r="L44" s="74"/>
+    </row>
+    <row r="45" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B45" s="75"/>
+      <c r="C45" s="76"/>
+      <c r="D45" s="76"/>
+      <c r="E45" s="76"/>
+      <c r="F45" s="76"/>
+      <c r="G45" s="76"/>
+      <c r="H45" s="76"/>
+      <c r="I45" s="76"/>
+      <c r="J45" s="76"/>
+      <c r="K45" s="76"/>
+      <c r="L45" s="77"/>
+    </row>
+    <row r="46" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="C46" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="C44" s="29"/>
-      <c r="D44" s="29"/>
-      <c r="E44" s="29"/>
-      <c r="F44" s="29"/>
-      <c r="G44" s="29"/>
-      <c r="H44" s="29"/>
-      <c r="I44" s="29"/>
-      <c r="J44" s="29"/>
-      <c r="K44" s="29"/>
-      <c r="L44" s="30"/>
-    </row>
-    <row r="45" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="31"/>
-      <c r="C45" s="32"/>
-      <c r="D45" s="32"/>
-      <c r="E45" s="32"/>
-      <c r="F45" s="32"/>
-      <c r="G45" s="32"/>
-      <c r="H45" s="32"/>
-      <c r="I45" s="32"/>
-      <c r="J45" s="32"/>
-      <c r="K45" s="32"/>
-      <c r="L45" s="33"/>
-    </row>
-    <row r="46" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="34" t="s">
+      <c r="D46" s="80"/>
+      <c r="E46" s="80"/>
+      <c r="F46" s="80"/>
+      <c r="G46" s="80"/>
+      <c r="H46" s="80"/>
+      <c r="I46" s="80"/>
+      <c r="J46" s="80"/>
+      <c r="K46" s="80"/>
+      <c r="L46" s="81"/>
+    </row>
+    <row r="47" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="79"/>
+      <c r="C47" s="82" t="s">
+        <v>73</v>
+      </c>
+      <c r="D47" s="83"/>
+      <c r="E47" s="83"/>
+      <c r="F47" s="83"/>
+      <c r="G47" s="83"/>
+      <c r="H47" s="83"/>
+      <c r="I47" s="83"/>
+      <c r="J47" s="83"/>
+      <c r="K47" s="83"/>
+      <c r="L47" s="84"/>
+    </row>
+    <row r="48" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B48" s="79"/>
+      <c r="C48" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="C46" s="36" t="s">
+      <c r="D48" s="58"/>
+      <c r="E48" s="58"/>
+      <c r="F48" s="58"/>
+      <c r="G48" s="58"/>
+      <c r="H48" s="58"/>
+      <c r="I48" s="58"/>
+      <c r="J48" s="58"/>
+      <c r="K48" s="58"/>
+      <c r="L48" s="86"/>
+    </row>
+    <row r="49" spans="2:12" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="D46" s="36"/>
-      <c r="E46" s="36"/>
-      <c r="F46" s="36"/>
-      <c r="G46" s="36"/>
-      <c r="H46" s="36"/>
-      <c r="I46" s="36"/>
-      <c r="J46" s="36"/>
-      <c r="K46" s="36"/>
-      <c r="L46" s="37"/>
-    </row>
-    <row r="47" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="35"/>
-      <c r="C47" s="38" t="s">
-        <v>77</v>
-      </c>
-      <c r="D47" s="85"/>
-      <c r="E47" s="85"/>
-      <c r="F47" s="85"/>
-      <c r="G47" s="85"/>
-      <c r="H47" s="85"/>
-      <c r="I47" s="85"/>
-      <c r="J47" s="85"/>
-      <c r="K47" s="85"/>
-      <c r="L47" s="86"/>
-    </row>
-    <row r="48" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="35"/>
-      <c r="C48" s="39" t="s">
+      <c r="C49" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="D48" s="40"/>
-      <c r="E48" s="40"/>
-      <c r="F48" s="40"/>
-      <c r="G48" s="40"/>
-      <c r="H48" s="40"/>
-      <c r="I48" s="40"/>
-      <c r="J48" s="40"/>
-      <c r="K48" s="40"/>
-      <c r="L48" s="41"/>
-    </row>
-    <row r="49" spans="2:12" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="16" t="s">
+      <c r="D49" s="64"/>
+      <c r="E49" s="64"/>
+      <c r="F49" s="64"/>
+      <c r="G49" s="64"/>
+      <c r="H49" s="64"/>
+      <c r="I49" s="64"/>
+      <c r="J49" s="64"/>
+      <c r="K49" s="64"/>
+      <c r="L49" s="65"/>
+    </row>
+    <row r="50" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B50" s="61"/>
+      <c r="C50" s="66"/>
+      <c r="D50" s="66"/>
+      <c r="E50" s="66"/>
+      <c r="F50" s="66"/>
+      <c r="G50" s="66"/>
+      <c r="H50" s="66"/>
+      <c r="I50" s="66"/>
+      <c r="J50" s="66"/>
+      <c r="K50" s="66"/>
+      <c r="L50" s="67"/>
+    </row>
+    <row r="51" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B51" s="61"/>
+      <c r="C51" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="C49" s="19" t="s">
+      <c r="D51" s="68"/>
+      <c r="E51" s="68"/>
+      <c r="F51" s="68"/>
+      <c r="G51" s="68"/>
+      <c r="H51" s="68"/>
+      <c r="I51" s="68"/>
+      <c r="J51" s="68"/>
+      <c r="K51" s="68"/>
+      <c r="L51" s="69"/>
+    </row>
+    <row r="52" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B52" s="62"/>
+      <c r="C52" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="D49" s="20"/>
-      <c r="E49" s="20"/>
-      <c r="F49" s="20"/>
-      <c r="G49" s="20"/>
-      <c r="H49" s="20"/>
-      <c r="I49" s="20"/>
-      <c r="J49" s="20"/>
-      <c r="K49" s="20"/>
-      <c r="L49" s="21"/>
-    </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B50" s="17"/>
-      <c r="C50" s="22"/>
-      <c r="D50" s="22"/>
-      <c r="E50" s="22"/>
-      <c r="F50" s="22"/>
-      <c r="G50" s="22"/>
-      <c r="H50" s="22"/>
-      <c r="I50" s="22"/>
-      <c r="J50" s="22"/>
-      <c r="K50" s="22"/>
-      <c r="L50" s="23"/>
-    </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B51" s="17"/>
-      <c r="C51" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D51" s="24"/>
-      <c r="E51" s="24"/>
-      <c r="F51" s="24"/>
-      <c r="G51" s="24"/>
-      <c r="H51" s="24"/>
-      <c r="I51" s="24"/>
-      <c r="J51" s="24"/>
-      <c r="K51" s="24"/>
-      <c r="L51" s="25"/>
-    </row>
-    <row r="52" spans="2:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="18"/>
-      <c r="C52" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="D52" s="26"/>
-      <c r="E52" s="26"/>
-      <c r="F52" s="26"/>
-      <c r="G52" s="26"/>
-      <c r="H52" s="26"/>
-      <c r="I52" s="26"/>
-      <c r="J52" s="26"/>
-      <c r="K52" s="26"/>
-      <c r="L52" s="27"/>
+      <c r="D52" s="70"/>
+      <c r="E52" s="70"/>
+      <c r="F52" s="70"/>
+      <c r="G52" s="70"/>
+      <c r="H52" s="70"/>
+      <c r="I52" s="70"/>
+      <c r="J52" s="70"/>
+      <c r="K52" s="70"/>
+      <c r="L52" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="O37:Q37"/>
-    <mergeCell ref="O38:Q38"/>
-    <mergeCell ref="O39:Q39"/>
-    <mergeCell ref="O40:Q40"/>
-    <mergeCell ref="O41:Q41"/>
-    <mergeCell ref="O32:Q32"/>
-    <mergeCell ref="O33:Q33"/>
-    <mergeCell ref="O34:Q34"/>
-    <mergeCell ref="O35:Q35"/>
-    <mergeCell ref="O36:Q36"/>
-    <mergeCell ref="O27:Q27"/>
-    <mergeCell ref="O28:Q28"/>
-    <mergeCell ref="O29:Q29"/>
-    <mergeCell ref="O30:Q30"/>
-    <mergeCell ref="O31:Q31"/>
-    <mergeCell ref="O23:Q23"/>
-    <mergeCell ref="O24:Q24"/>
-    <mergeCell ref="O25:Q25"/>
-    <mergeCell ref="O26:Q26"/>
-    <mergeCell ref="O20:Q20"/>
-    <mergeCell ref="O18:Q18"/>
-    <mergeCell ref="O19:Q19"/>
-    <mergeCell ref="O21:Q21"/>
-    <mergeCell ref="O22:Q22"/>
-    <mergeCell ref="O15:Q15"/>
-    <mergeCell ref="G1:K2"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="O9:S10"/>
-    <mergeCell ref="O11:Q11"/>
-    <mergeCell ref="O12:Q12"/>
-    <mergeCell ref="O13:Q13"/>
-    <mergeCell ref="O14:Q14"/>
-    <mergeCell ref="O16:Q16"/>
-    <mergeCell ref="O17:Q17"/>
     <mergeCell ref="B49:B52"/>
     <mergeCell ref="C49:L50"/>
     <mergeCell ref="C51:L51"/>
@@ -2509,6 +2554,42 @@
     <mergeCell ref="C46:L46"/>
     <mergeCell ref="C47:L47"/>
     <mergeCell ref="C48:L48"/>
+    <mergeCell ref="O11:Q11"/>
+    <mergeCell ref="O12:Q12"/>
+    <mergeCell ref="O13:Q13"/>
+    <mergeCell ref="O14:Q14"/>
+    <mergeCell ref="O16:Q16"/>
+    <mergeCell ref="G1:K2"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="O9:S10"/>
+    <mergeCell ref="O18:Q18"/>
+    <mergeCell ref="O19:Q19"/>
+    <mergeCell ref="O21:Q21"/>
+    <mergeCell ref="O22:Q22"/>
+    <mergeCell ref="O15:Q15"/>
+    <mergeCell ref="O17:Q17"/>
+    <mergeCell ref="O23:Q23"/>
+    <mergeCell ref="O24:Q24"/>
+    <mergeCell ref="O25:Q25"/>
+    <mergeCell ref="O26:Q26"/>
+    <mergeCell ref="O20:Q20"/>
+    <mergeCell ref="O27:Q27"/>
+    <mergeCell ref="O28:Q28"/>
+    <mergeCell ref="O29:Q29"/>
+    <mergeCell ref="O30:Q30"/>
+    <mergeCell ref="O31:Q31"/>
+    <mergeCell ref="O32:Q32"/>
+    <mergeCell ref="O33:Q33"/>
+    <mergeCell ref="O34:Q34"/>
+    <mergeCell ref="O35:Q35"/>
+    <mergeCell ref="O36:Q36"/>
+    <mergeCell ref="O37:Q37"/>
+    <mergeCell ref="O38:Q38"/>
+    <mergeCell ref="O39:Q39"/>
+    <mergeCell ref="O40:Q40"/>
+    <mergeCell ref="O41:Q41"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/GoodAndBetter_Schema.xlsx
+++ b/GoodAndBetter_Schema.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="102">
   <si>
     <t>version</t>
   </si>
@@ -348,6 +348,30 @@
   </si>
   <si>
     <t>varchar(30)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLA_Content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상세설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLA_Image</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대표이미지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1519,8 +1543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1793,6 +1817,8 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
       <c r="M15" s="12"/>
       <c r="N15" s="12"/>
       <c r="O15" s="30"/>
@@ -1814,6 +1840,8 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
       <c r="M16" s="12"/>
       <c r="N16" s="12"/>
       <c r="O16" s="24"/>
@@ -1842,9 +1870,15 @@
         <v>47</v>
       </c>
       <c r="G17" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I17" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="J17" s="1" t="s">
         <v>55</v>
       </c>
       <c r="M17" s="13"/>
@@ -1875,9 +1909,15 @@
         <v>27</v>
       </c>
       <c r="G18" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I18" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="J18" s="2" t="s">
         <v>38</v>
       </c>
       <c r="M18" s="13"/>
@@ -1903,6 +1943,8 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
       <c r="M19" s="11"/>
       <c r="N19" s="11"/>
       <c r="O19" s="27"/>
@@ -1929,9 +1971,15 @@
         <v>49</v>
       </c>
       <c r="G20" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I20" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="J20" s="1" t="s">
         <v>40</v>
       </c>
       <c r="M20" s="12"/>

--- a/GoodAndBetter_Schema.xlsx
+++ b/GoodAndBetter_Schema.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="102">
   <si>
     <t>version</t>
   </si>
@@ -192,162 +192,159 @@
     <t>PLA_Qrimage</t>
   </si>
   <si>
+    <t>qr코드 경로</t>
+  </si>
+  <si>
+    <t>MEM_Code</t>
+  </si>
+  <si>
+    <t>FK</t>
+  </si>
+  <si>
+    <t>식물위치</t>
+  </si>
+  <si>
+    <t>식물이름</t>
+  </si>
+  <si>
+    <t>PLA_Indate</t>
+  </si>
+  <si>
+    <t>PLA_Outdate</t>
+  </si>
+  <si>
+    <t>CHECKLIST</t>
+  </si>
+  <si>
+    <t>CHE_Code</t>
+  </si>
+  <si>
+    <t>CHE_Water</t>
+  </si>
+  <si>
+    <t>CHE_Supplements</t>
+  </si>
+  <si>
+    <t>CHE_Damage</t>
+  </si>
+  <si>
+    <t>CHE_Pruning</t>
+  </si>
+  <si>
+    <t>CHE_Repotting</t>
+  </si>
+  <si>
+    <t>PK</t>
+  </si>
+  <si>
+    <t>QUESTION</t>
+  </si>
+  <si>
+    <t>QUE_Code</t>
+  </si>
+  <si>
+    <t>QUE_Content</t>
+  </si>
+  <si>
+    <t>varchar</t>
+  </si>
+  <si>
+    <t>답변</t>
+  </si>
+  <si>
+    <t>REPLY</t>
+  </si>
+  <si>
+    <t>REP_Code</t>
+  </si>
+  <si>
+    <t>REP_Content</t>
+  </si>
+  <si>
+    <t>REP_InDate</t>
+  </si>
+  <si>
+    <t>가능한한 줄임말을 쓰지 않는다. (ex: FAVT (x) -&gt; FAVORITE (o) )            - 단, ID나 NFC 등 약어가 이미 대표말로 쓰일 경우나 테이블 명이 너무 길어질 때는 제외한다.</t>
+  </si>
+  <si>
+    <t>CHE_Indate</t>
+  </si>
+  <si>
+    <t>년월일까지</t>
+  </si>
+  <si>
+    <t>QUE_Indate</t>
+  </si>
+  <si>
+    <t>MEM_Isadmin</t>
+  </si>
+  <si>
+    <t>관리자 여부</t>
+  </si>
+  <si>
+    <t>MEM_Code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자동증가값</t>
+  </si>
+  <si>
+    <t>자동증가값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v 0.1.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오류 수정(FK-&gt;PK), 컬럼설명추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v 0.1.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물주기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영양제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>병충해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분갈이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가지치기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>질문내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TINYINT(1)</t>
+  </si>
+  <si>
+    <t>TINYINT(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>varchar(30)</t>
-  </si>
-  <si>
-    <t>qr코드 경로</t>
-  </si>
-  <si>
-    <t>MEM_Code</t>
-  </si>
-  <si>
-    <t>FK</t>
-  </si>
-  <si>
-    <t>식물위치</t>
-  </si>
-  <si>
-    <t>식물이름</t>
-  </si>
-  <si>
-    <t>PLA_Indate</t>
-  </si>
-  <si>
-    <t>PLA_Outdate</t>
-  </si>
-  <si>
-    <t>CHECKLIST</t>
-  </si>
-  <si>
-    <t>CHE_Code</t>
-  </si>
-  <si>
-    <t>CHE_Water</t>
-  </si>
-  <si>
-    <t>CHE_Supplements</t>
-  </si>
-  <si>
-    <t>CHE_Damage</t>
-  </si>
-  <si>
-    <t>CHE_Pruning</t>
-  </si>
-  <si>
-    <t>CHE_Repotting</t>
-  </si>
-  <si>
-    <t>PK</t>
-  </si>
-  <si>
-    <t>QUESTION</t>
-  </si>
-  <si>
-    <t>QUE_Code</t>
-  </si>
-  <si>
-    <t>QUE_Content</t>
-  </si>
-  <si>
-    <t>varchar</t>
-  </si>
-  <si>
-    <t>답변</t>
-  </si>
-  <si>
-    <t>REPLY</t>
-  </si>
-  <si>
-    <t>REP_Code</t>
-  </si>
-  <si>
-    <t>REP_Content</t>
-  </si>
-  <si>
-    <t>REP_InDate</t>
-  </si>
-  <si>
-    <t>가능한한 줄임말을 쓰지 않는다. (ex: FAVT (x) -&gt; FAVORITE (o) )            - 단, ID나 NFC 등 약어가 이미 대표말로 쓰일 경우나 테이블 명이 너무 길어질 때는 제외한다.</t>
-  </si>
-  <si>
-    <t>CHE_Indate</t>
-  </si>
-  <si>
-    <t>년월일까지</t>
-  </si>
-  <si>
-    <t>QUE_Indate</t>
-  </si>
-  <si>
-    <t>MEM_Isadmin</t>
-  </si>
-  <si>
-    <t>관리자 여부</t>
-  </si>
-  <si>
-    <t>MEM_Code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자동증가값</t>
-  </si>
-  <si>
-    <t>자동증가값</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>v 0.1.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오류 수정(FK-&gt;PK), 컬럼설명추가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>v 0.1.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>물주기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>영양제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>병충해</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>분갈이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가지치기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>질문내용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TINYINT(1)</t>
-  </si>
-  <si>
-    <t>TINYINT(1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(30)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -355,10 +352,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>varchar()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>상세설명</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -372,6 +365,14 @@
   </si>
   <si>
     <t>대표이미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(1000)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1543,8 +1544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1593,7 +1594,7 @@
       <c r="I3" s="40"/>
       <c r="J3" s="41"/>
       <c r="K3" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
@@ -1666,7 +1667,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>33</v>
@@ -1684,7 +1685,7 @@
         <v>37</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M10" s="11"/>
       <c r="N10" s="11"/>
@@ -1708,7 +1709,7 @@
         <v>42</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>38</v>
@@ -1717,7 +1718,7 @@
         <v>38</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M11" s="11"/>
       <c r="N11" s="11"/>
@@ -1754,7 +1755,7 @@
       <c r="P12" s="58"/>
       <c r="Q12" s="59"/>
       <c r="R12" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="S12" s="5">
         <v>42175</v>
@@ -1765,7 +1766,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -1779,17 +1780,17 @@
         <v>40</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M13" s="11"/>
       <c r="N13" s="11"/>
       <c r="O13" s="30" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P13" s="31"/>
       <c r="Q13" s="32"/>
       <c r="R13" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S13" s="15">
         <v>42177</v>
@@ -1858,7 +1859,7 @@
         <v>44</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>45</v>
@@ -1870,16 +1871,16 @@
         <v>47</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I17" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J17" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="M17" s="13"/>
       <c r="N17" s="13"/>
@@ -1900,7 +1901,7 @@
         <v>18</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>48</v>
+        <v>100</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>42</v>
@@ -1909,10 +1910,10 @@
         <v>27</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>38</v>
@@ -1936,7 +1937,7 @@
         <v>16</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -1958,23 +1959,23 @@
         <v>9</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>39</v>
@@ -2031,8 +2032,6 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
       <c r="M24" s="12"/>
       <c r="N24" s="12"/>
       <c r="O24" s="24"/>
@@ -2046,7 +2045,7 @@
         <v>6</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -2055,8 +2054,6 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
       <c r="M25" s="12"/>
       <c r="N25" s="12"/>
       <c r="O25" s="24"/>
@@ -2070,33 +2067,29 @@
         <v>8</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="E26" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="F26" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="G26" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G26" s="3" t="s">
-        <v>62</v>
-      </c>
       <c r="H26" s="3" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="K26" s="3"/>
       <c r="M26" s="11"/>
       <c r="N26" s="11"/>
       <c r="O26" s="24"/>
@@ -2113,30 +2106,26 @@
         <v>18</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J27" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="K27" s="2"/>
       <c r="M27" s="11"/>
       <c r="N27" s="11"/>
       <c r="O27" s="18"/>
@@ -2150,21 +2139,17 @@
         <v>15</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
-      <c r="H28" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="H28" s="1"/>
       <c r="I28" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
+        <v>50</v>
+      </c>
       <c r="M28" s="11"/>
       <c r="N28" s="11"/>
       <c r="O28" s="18"/>
@@ -2178,29 +2163,27 @@
         <v>9</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C29" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="E29" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="F29" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G29" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="F29" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="H29" s="1"/>
+      <c r="H29" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="I29" s="1"/>
-      <c r="J29" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="K29" s="1"/>
       <c r="M29" s="11"/>
       <c r="N29" s="11"/>
       <c r="O29" s="18"/>
@@ -2250,7 +2233,7 @@
         <v>3</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
@@ -2268,7 +2251,7 @@
         <v>6</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -2277,7 +2260,7 @@
         <v>6</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
@@ -2295,31 +2278,31 @@
         <v>8</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="D35" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G35" t="s">
         <v>8</v>
       </c>
       <c r="H35" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J35" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="I35" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J35" s="1" t="s">
+      <c r="K35" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="K35" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="M35" s="11"/>
       <c r="N35" s="11"/>
@@ -2337,7 +2320,7 @@
         <v>13</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>13</v>
@@ -2349,11 +2332,11 @@
         <v>12</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I36" s="2"/>
       <c r="J36" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K36" s="2" t="s">
         <v>38</v>
@@ -2382,10 +2365,10 @@
         <v>15</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
@@ -2402,10 +2385,10 @@
         <v>9</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -2413,7 +2396,7 @@
         <v>9</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
@@ -2504,7 +2487,7 @@
     <row r="47" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B47" s="79"/>
       <c r="C47" s="82" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D47" s="83"/>
       <c r="E47" s="83"/>

--- a/GoodAndBetter_Schema.xlsx
+++ b/GoodAndBetter_Schema.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="108">
   <si>
     <t>version</t>
   </si>
@@ -373,6 +373,30 @@
   </si>
   <si>
     <t>varchar(1000)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEM_Ismaster</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>웹페이지사용가능여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>굿앤배러 직원.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v 0.1.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v 0.1.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEMBER 테이블에 ismaster 컬럼추가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1010,6 +1034,195 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1027,195 +1240,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1544,8 +1568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15:Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1558,7 +1582,7 @@
     <col min="6" max="6" width="15.875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15.625" bestFit="1" customWidth="1"/>
@@ -1571,50 +1595,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="G1" s="33" t="s">
+      <c r="G1" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="35"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="59"/>
     </row>
     <row r="2" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G2" s="36"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="38"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="62"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="G3" s="39" t="s">
+      <c r="G3" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="41"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="65"/>
       <c r="K3" s="4" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="G4" s="42" t="s">
+      <c r="G4" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="44"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="68"/>
       <c r="K4" s="5">
-        <v>42177</v>
+        <v>42181</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G5" s="45" t="s">
+      <c r="G5" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="47"/>
+      <c r="H5" s="70"/>
+      <c r="I5" s="70"/>
+      <c r="J5" s="71"/>
       <c r="K5" s="6">
         <v>42175</v>
       </c>
@@ -1633,6 +1657,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
       <c r="M8" s="10"/>
       <c r="N8" s="10"/>
       <c r="O8" s="10"/>
@@ -1652,15 +1677,16 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
       <c r="M9" s="10"/>
       <c r="N9" s="10"/>
-      <c r="O9" s="48" t="s">
+      <c r="O9" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="P9" s="49"/>
-      <c r="Q9" s="49"/>
-      <c r="R9" s="49"/>
-      <c r="S9" s="50"/>
+      <c r="P9" s="73"/>
+      <c r="Q9" s="73"/>
+      <c r="R9" s="73"/>
+      <c r="S9" s="74"/>
     </row>
     <row r="10" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
@@ -1687,13 +1713,16 @@
       <c r="H10" s="1" t="s">
         <v>76</v>
       </c>
+      <c r="I10" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="M10" s="11"/>
       <c r="N10" s="11"/>
-      <c r="O10" s="51"/>
-      <c r="P10" s="52"/>
-      <c r="Q10" s="52"/>
-      <c r="R10" s="52"/>
-      <c r="S10" s="53"/>
+      <c r="O10" s="75"/>
+      <c r="P10" s="76"/>
+      <c r="Q10" s="76"/>
+      <c r="R10" s="76"/>
+      <c r="S10" s="77"/>
     </row>
     <row r="11" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -1720,13 +1749,16 @@
       <c r="H11" s="2" t="s">
         <v>93</v>
       </c>
+      <c r="I11" s="2" t="s">
+        <v>93</v>
+      </c>
       <c r="M11" s="11"/>
       <c r="N11" s="11"/>
-      <c r="O11" s="54" t="s">
+      <c r="O11" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="P11" s="55"/>
-      <c r="Q11" s="56"/>
+      <c r="P11" s="47"/>
+      <c r="Q11" s="48"/>
       <c r="R11" s="7" t="s">
         <v>10</v>
       </c>
@@ -1747,13 +1779,16 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
+      <c r="I12" s="1" t="s">
+        <v>104</v>
+      </c>
       <c r="M12" s="11"/>
       <c r="N12" s="11"/>
-      <c r="O12" s="57" t="s">
+      <c r="O12" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="P12" s="58"/>
-      <c r="Q12" s="59"/>
+      <c r="P12" s="44"/>
+      <c r="Q12" s="50"/>
       <c r="R12" s="14" t="s">
         <v>83</v>
       </c>
@@ -1782,13 +1817,16 @@
       <c r="H13" s="1" t="s">
         <v>77</v>
       </c>
+      <c r="I13" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="M13" s="11"/>
       <c r="N13" s="11"/>
-      <c r="O13" s="30" t="s">
+      <c r="O13" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="P13" s="31"/>
-      <c r="Q13" s="32"/>
+      <c r="P13" s="52"/>
+      <c r="Q13" s="53"/>
       <c r="R13" s="14" t="s">
         <v>85</v>
       </c>
@@ -1799,11 +1837,17 @@
     <row r="14" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M14" s="11"/>
       <c r="N14" s="11"/>
-      <c r="O14" s="30"/>
-      <c r="P14" s="31"/>
-      <c r="Q14" s="32"/>
-      <c r="R14" s="14"/>
-      <c r="S14" s="5"/>
+      <c r="O14" s="51" t="s">
+        <v>107</v>
+      </c>
+      <c r="P14" s="52"/>
+      <c r="Q14" s="53"/>
+      <c r="R14" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="S14" s="5">
+        <v>42181</v>
+      </c>
     </row>
     <row r="15" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -1822,9 +1866,9 @@
       <c r="J15" s="1"/>
       <c r="M15" s="12"/>
       <c r="N15" s="12"/>
-      <c r="O15" s="30"/>
-      <c r="P15" s="31"/>
-      <c r="Q15" s="32"/>
+      <c r="O15" s="51"/>
+      <c r="P15" s="52"/>
+      <c r="Q15" s="53"/>
       <c r="R15" s="14"/>
       <c r="S15" s="5"/>
     </row>
@@ -1845,9 +1889,9 @@
       <c r="J16" s="1"/>
       <c r="M16" s="12"/>
       <c r="N16" s="12"/>
-      <c r="O16" s="24"/>
-      <c r="P16" s="25"/>
-      <c r="Q16" s="26"/>
+      <c r="O16" s="54"/>
+      <c r="P16" s="55"/>
+      <c r="Q16" s="56"/>
       <c r="R16" s="14"/>
       <c r="S16" s="15"/>
     </row>
@@ -1884,9 +1928,9 @@
       </c>
       <c r="M17" s="13"/>
       <c r="N17" s="13"/>
-      <c r="O17" s="24"/>
-      <c r="P17" s="25"/>
-      <c r="Q17" s="26"/>
+      <c r="O17" s="54"/>
+      <c r="P17" s="55"/>
+      <c r="Q17" s="56"/>
       <c r="R17" s="14"/>
       <c r="S17" s="15"/>
     </row>
@@ -1923,9 +1967,9 @@
       </c>
       <c r="M18" s="13"/>
       <c r="N18" s="13"/>
-      <c r="O18" s="27"/>
-      <c r="P18" s="28"/>
-      <c r="Q18" s="29"/>
+      <c r="O18" s="78"/>
+      <c r="P18" s="79"/>
+      <c r="Q18" s="80"/>
       <c r="R18" s="14"/>
       <c r="S18" s="15"/>
     </row>
@@ -1948,9 +1992,9 @@
       <c r="J19" s="1"/>
       <c r="M19" s="11"/>
       <c r="N19" s="11"/>
-      <c r="O19" s="27"/>
-      <c r="P19" s="28"/>
-      <c r="Q19" s="29"/>
+      <c r="O19" s="78"/>
+      <c r="P19" s="79"/>
+      <c r="Q19" s="80"/>
       <c r="R19" s="14"/>
       <c r="S19" s="15"/>
     </row>
@@ -1985,36 +2029,36 @@
       </c>
       <c r="M20" s="12"/>
       <c r="N20" s="12"/>
-      <c r="O20" s="18"/>
-      <c r="P20" s="19"/>
-      <c r="Q20" s="20"/>
+      <c r="O20" s="81"/>
+      <c r="P20" s="82"/>
+      <c r="Q20" s="83"/>
       <c r="R20" s="14"/>
       <c r="S20" s="5"/>
     </row>
     <row r="21" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M21" s="12"/>
       <c r="N21" s="12"/>
-      <c r="O21" s="24"/>
-      <c r="P21" s="25"/>
-      <c r="Q21" s="26"/>
+      <c r="O21" s="54"/>
+      <c r="P21" s="55"/>
+      <c r="Q21" s="56"/>
       <c r="R21" s="14"/>
       <c r="S21" s="15"/>
     </row>
     <row r="22" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M22" s="12"/>
       <c r="N22" s="12"/>
-      <c r="O22" s="24"/>
-      <c r="P22" s="25"/>
-      <c r="Q22" s="26"/>
+      <c r="O22" s="54"/>
+      <c r="P22" s="55"/>
+      <c r="Q22" s="56"/>
       <c r="R22" s="14"/>
       <c r="S22" s="15"/>
     </row>
     <row r="23" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M23" s="12"/>
       <c r="N23" s="12"/>
-      <c r="O23" s="24"/>
-      <c r="P23" s="25"/>
-      <c r="Q23" s="26"/>
+      <c r="O23" s="54"/>
+      <c r="P23" s="55"/>
+      <c r="Q23" s="56"/>
       <c r="R23" s="14"/>
       <c r="S23" s="15"/>
     </row>
@@ -2034,9 +2078,9 @@
       <c r="I24" s="1"/>
       <c r="M24" s="12"/>
       <c r="N24" s="12"/>
-      <c r="O24" s="24"/>
-      <c r="P24" s="25"/>
-      <c r="Q24" s="26"/>
+      <c r="O24" s="54"/>
+      <c r="P24" s="55"/>
+      <c r="Q24" s="56"/>
       <c r="R24" s="14"/>
       <c r="S24" s="15"/>
     </row>
@@ -2056,9 +2100,9 @@
       <c r="I25" s="1"/>
       <c r="M25" s="12"/>
       <c r="N25" s="12"/>
-      <c r="O25" s="24"/>
-      <c r="P25" s="25"/>
-      <c r="Q25" s="26"/>
+      <c r="O25" s="54"/>
+      <c r="P25" s="55"/>
+      <c r="Q25" s="56"/>
       <c r="R25" s="14"/>
       <c r="S25" s="15"/>
     </row>
@@ -2092,9 +2136,9 @@
       </c>
       <c r="M26" s="11"/>
       <c r="N26" s="11"/>
-      <c r="O26" s="24"/>
-      <c r="P26" s="25"/>
-      <c r="Q26" s="26"/>
+      <c r="O26" s="54"/>
+      <c r="P26" s="55"/>
+      <c r="Q26" s="56"/>
       <c r="R26" s="14"/>
       <c r="S26" s="15"/>
     </row>
@@ -2128,9 +2172,9 @@
       </c>
       <c r="M27" s="11"/>
       <c r="N27" s="11"/>
-      <c r="O27" s="18"/>
-      <c r="P27" s="19"/>
-      <c r="Q27" s="20"/>
+      <c r="O27" s="81"/>
+      <c r="P27" s="82"/>
+      <c r="Q27" s="83"/>
       <c r="R27" s="14"/>
       <c r="S27" s="5"/>
     </row>
@@ -2152,9 +2196,9 @@
       </c>
       <c r="M28" s="11"/>
       <c r="N28" s="11"/>
-      <c r="O28" s="18"/>
-      <c r="P28" s="19"/>
-      <c r="Q28" s="20"/>
+      <c r="O28" s="81"/>
+      <c r="P28" s="82"/>
+      <c r="Q28" s="83"/>
       <c r="R28" s="14"/>
       <c r="S28" s="5"/>
     </row>
@@ -2186,36 +2230,36 @@
       <c r="I29" s="1"/>
       <c r="M29" s="11"/>
       <c r="N29" s="11"/>
-      <c r="O29" s="18"/>
-      <c r="P29" s="19"/>
-      <c r="Q29" s="20"/>
+      <c r="O29" s="81"/>
+      <c r="P29" s="82"/>
+      <c r="Q29" s="83"/>
       <c r="R29" s="14"/>
       <c r="S29" s="4"/>
     </row>
     <row r="30" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M30" s="11"/>
       <c r="N30" s="11"/>
-      <c r="O30" s="18"/>
-      <c r="P30" s="19"/>
-      <c r="Q30" s="20"/>
+      <c r="O30" s="81"/>
+      <c r="P30" s="82"/>
+      <c r="Q30" s="83"/>
       <c r="R30" s="14"/>
       <c r="S30" s="4"/>
     </row>
     <row r="31" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M31" s="11"/>
       <c r="N31" s="11"/>
-      <c r="O31" s="18"/>
-      <c r="P31" s="19"/>
-      <c r="Q31" s="20"/>
+      <c r="O31" s="81"/>
+      <c r="P31" s="82"/>
+      <c r="Q31" s="83"/>
       <c r="R31" s="14"/>
       <c r="S31" s="4"/>
     </row>
     <row r="32" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M32" s="11"/>
       <c r="N32" s="11"/>
-      <c r="O32" s="18"/>
-      <c r="P32" s="19"/>
-      <c r="Q32" s="20"/>
+      <c r="O32" s="81"/>
+      <c r="P32" s="82"/>
+      <c r="Q32" s="83"/>
       <c r="R32" s="14"/>
       <c r="S32" s="4"/>
     </row>
@@ -2240,9 +2284,9 @@
       <c r="K33" s="1"/>
       <c r="M33" s="11"/>
       <c r="N33" s="11"/>
-      <c r="O33" s="18"/>
-      <c r="P33" s="19"/>
-      <c r="Q33" s="20"/>
+      <c r="O33" s="81"/>
+      <c r="P33" s="82"/>
+      <c r="Q33" s="83"/>
       <c r="R33" s="14"/>
       <c r="S33" s="4"/>
     </row>
@@ -2267,9 +2311,9 @@
       <c r="K34" s="1"/>
       <c r="M34" s="11"/>
       <c r="N34" s="11"/>
-      <c r="O34" s="18"/>
-      <c r="P34" s="19"/>
-      <c r="Q34" s="20"/>
+      <c r="O34" s="81"/>
+      <c r="P34" s="82"/>
+      <c r="Q34" s="83"/>
       <c r="R34" s="14"/>
       <c r="S34" s="4"/>
     </row>
@@ -2306,9 +2350,9 @@
       </c>
       <c r="M35" s="11"/>
       <c r="N35" s="11"/>
-      <c r="O35" s="18"/>
-      <c r="P35" s="19"/>
-      <c r="Q35" s="20"/>
+      <c r="O35" s="81"/>
+      <c r="P35" s="82"/>
+      <c r="Q35" s="83"/>
       <c r="R35" s="14"/>
       <c r="S35" s="4"/>
     </row>
@@ -2343,9 +2387,9 @@
       </c>
       <c r="M36" s="11"/>
       <c r="N36" s="11"/>
-      <c r="O36" s="18"/>
-      <c r="P36" s="19"/>
-      <c r="Q36" s="20"/>
+      <c r="O36" s="81"/>
+      <c r="P36" s="82"/>
+      <c r="Q36" s="83"/>
       <c r="R36" s="14"/>
       <c r="S36" s="4"/>
     </row>
@@ -2374,9 +2418,9 @@
       <c r="K37" s="1"/>
       <c r="M37" s="11"/>
       <c r="N37" s="11"/>
-      <c r="O37" s="18"/>
-      <c r="P37" s="19"/>
-      <c r="Q37" s="20"/>
+      <c r="O37" s="81"/>
+      <c r="P37" s="82"/>
+      <c r="Q37" s="83"/>
       <c r="R37" s="14"/>
       <c r="S37" s="4"/>
     </row>
@@ -2403,9 +2447,9 @@
       <c r="K38" s="1"/>
       <c r="M38" s="11"/>
       <c r="N38" s="11"/>
-      <c r="O38" s="18"/>
-      <c r="P38" s="19"/>
-      <c r="Q38" s="20"/>
+      <c r="O38" s="81"/>
+      <c r="P38" s="82"/>
+      <c r="Q38" s="83"/>
       <c r="R38" s="14"/>
       <c r="S38" s="4"/>
     </row>
@@ -2414,9 +2458,9 @@
       <c r="J39" s="9"/>
       <c r="M39" s="11"/>
       <c r="N39" s="11"/>
-      <c r="O39" s="18"/>
-      <c r="P39" s="19"/>
-      <c r="Q39" s="20"/>
+      <c r="O39" s="81"/>
+      <c r="P39" s="82"/>
+      <c r="Q39" s="83"/>
       <c r="R39" s="14"/>
       <c r="S39" s="4"/>
     </row>
@@ -2425,157 +2469,193 @@
       <c r="J40" s="9"/>
       <c r="M40" s="11"/>
       <c r="N40" s="11"/>
-      <c r="O40" s="18"/>
-      <c r="P40" s="19"/>
-      <c r="Q40" s="20"/>
+      <c r="O40" s="81"/>
+      <c r="P40" s="82"/>
+      <c r="Q40" s="83"/>
       <c r="R40" s="14"/>
       <c r="S40" s="4"/>
     </row>
     <row r="41" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="O41" s="21"/>
-      <c r="P41" s="22"/>
-      <c r="Q41" s="23"/>
+      <c r="O41" s="84"/>
+      <c r="P41" s="85"/>
+      <c r="Q41" s="86"/>
       <c r="R41" s="16"/>
       <c r="S41" s="17"/>
     </row>
     <row r="43" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="44" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B44" s="72" t="s">
+      <c r="B44" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="C44" s="73"/>
-      <c r="D44" s="73"/>
-      <c r="E44" s="73"/>
-      <c r="F44" s="73"/>
-      <c r="G44" s="73"/>
-      <c r="H44" s="73"/>
-      <c r="I44" s="73"/>
-      <c r="J44" s="73"/>
-      <c r="K44" s="73"/>
-      <c r="L44" s="74"/>
+      <c r="C44" s="31"/>
+      <c r="D44" s="31"/>
+      <c r="E44" s="31"/>
+      <c r="F44" s="31"/>
+      <c r="G44" s="31"/>
+      <c r="H44" s="31"/>
+      <c r="I44" s="31"/>
+      <c r="J44" s="31"/>
+      <c r="K44" s="31"/>
+      <c r="L44" s="32"/>
     </row>
     <row r="45" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="75"/>
-      <c r="C45" s="76"/>
-      <c r="D45" s="76"/>
-      <c r="E45" s="76"/>
-      <c r="F45" s="76"/>
-      <c r="G45" s="76"/>
-      <c r="H45" s="76"/>
-      <c r="I45" s="76"/>
-      <c r="J45" s="76"/>
-      <c r="K45" s="76"/>
-      <c r="L45" s="77"/>
+      <c r="B45" s="33"/>
+      <c r="C45" s="34"/>
+      <c r="D45" s="34"/>
+      <c r="E45" s="34"/>
+      <c r="F45" s="34"/>
+      <c r="G45" s="34"/>
+      <c r="H45" s="34"/>
+      <c r="I45" s="34"/>
+      <c r="J45" s="34"/>
+      <c r="K45" s="34"/>
+      <c r="L45" s="35"/>
     </row>
     <row r="46" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="78" t="s">
+      <c r="B46" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="C46" s="80" t="s">
+      <c r="C46" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="D46" s="80"/>
-      <c r="E46" s="80"/>
-      <c r="F46" s="80"/>
-      <c r="G46" s="80"/>
-      <c r="H46" s="80"/>
-      <c r="I46" s="80"/>
-      <c r="J46" s="80"/>
-      <c r="K46" s="80"/>
-      <c r="L46" s="81"/>
+      <c r="D46" s="38"/>
+      <c r="E46" s="38"/>
+      <c r="F46" s="38"/>
+      <c r="G46" s="38"/>
+      <c r="H46" s="38"/>
+      <c r="I46" s="38"/>
+      <c r="J46" s="38"/>
+      <c r="K46" s="38"/>
+      <c r="L46" s="39"/>
     </row>
     <row r="47" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="79"/>
-      <c r="C47" s="82" t="s">
+      <c r="B47" s="37"/>
+      <c r="C47" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="D47" s="83"/>
-      <c r="E47" s="83"/>
-      <c r="F47" s="83"/>
-      <c r="G47" s="83"/>
-      <c r="H47" s="83"/>
-      <c r="I47" s="83"/>
-      <c r="J47" s="83"/>
-      <c r="K47" s="83"/>
-      <c r="L47" s="84"/>
+      <c r="D47" s="41"/>
+      <c r="E47" s="41"/>
+      <c r="F47" s="41"/>
+      <c r="G47" s="41"/>
+      <c r="H47" s="41"/>
+      <c r="I47" s="41"/>
+      <c r="J47" s="41"/>
+      <c r="K47" s="41"/>
+      <c r="L47" s="42"/>
     </row>
     <row r="48" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="79"/>
-      <c r="C48" s="85" t="s">
+      <c r="B48" s="37"/>
+      <c r="C48" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="D48" s="58"/>
-      <c r="E48" s="58"/>
-      <c r="F48" s="58"/>
-      <c r="G48" s="58"/>
-      <c r="H48" s="58"/>
-      <c r="I48" s="58"/>
-      <c r="J48" s="58"/>
-      <c r="K48" s="58"/>
-      <c r="L48" s="86"/>
+      <c r="D48" s="44"/>
+      <c r="E48" s="44"/>
+      <c r="F48" s="44"/>
+      <c r="G48" s="44"/>
+      <c r="H48" s="44"/>
+      <c r="I48" s="44"/>
+      <c r="J48" s="44"/>
+      <c r="K48" s="44"/>
+      <c r="L48" s="45"/>
     </row>
     <row r="49" spans="2:12" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="60" t="s">
+      <c r="B49" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C49" s="63" t="s">
+      <c r="C49" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="D49" s="64"/>
-      <c r="E49" s="64"/>
-      <c r="F49" s="64"/>
-      <c r="G49" s="64"/>
-      <c r="H49" s="64"/>
-      <c r="I49" s="64"/>
-      <c r="J49" s="64"/>
-      <c r="K49" s="64"/>
-      <c r="L49" s="65"/>
+      <c r="D49" s="22"/>
+      <c r="E49" s="22"/>
+      <c r="F49" s="22"/>
+      <c r="G49" s="22"/>
+      <c r="H49" s="22"/>
+      <c r="I49" s="22"/>
+      <c r="J49" s="22"/>
+      <c r="K49" s="22"/>
+      <c r="L49" s="23"/>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B50" s="61"/>
-      <c r="C50" s="66"/>
-      <c r="D50" s="66"/>
-      <c r="E50" s="66"/>
-      <c r="F50" s="66"/>
-      <c r="G50" s="66"/>
-      <c r="H50" s="66"/>
-      <c r="I50" s="66"/>
-      <c r="J50" s="66"/>
-      <c r="K50" s="66"/>
-      <c r="L50" s="67"/>
+      <c r="B50" s="19"/>
+      <c r="C50" s="24"/>
+      <c r="D50" s="24"/>
+      <c r="E50" s="24"/>
+      <c r="F50" s="24"/>
+      <c r="G50" s="24"/>
+      <c r="H50" s="24"/>
+      <c r="I50" s="24"/>
+      <c r="J50" s="24"/>
+      <c r="K50" s="24"/>
+      <c r="L50" s="25"/>
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B51" s="61"/>
-      <c r="C51" s="68" t="s">
+      <c r="B51" s="19"/>
+      <c r="C51" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="D51" s="68"/>
-      <c r="E51" s="68"/>
-      <c r="F51" s="68"/>
-      <c r="G51" s="68"/>
-      <c r="H51" s="68"/>
-      <c r="I51" s="68"/>
-      <c r="J51" s="68"/>
-      <c r="K51" s="68"/>
-      <c r="L51" s="69"/>
+      <c r="D51" s="26"/>
+      <c r="E51" s="26"/>
+      <c r="F51" s="26"/>
+      <c r="G51" s="26"/>
+      <c r="H51" s="26"/>
+      <c r="I51" s="26"/>
+      <c r="J51" s="26"/>
+      <c r="K51" s="26"/>
+      <c r="L51" s="27"/>
     </row>
     <row r="52" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="62"/>
-      <c r="C52" s="70" t="s">
+      <c r="B52" s="20"/>
+      <c r="C52" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="D52" s="70"/>
-      <c r="E52" s="70"/>
-      <c r="F52" s="70"/>
-      <c r="G52" s="70"/>
-      <c r="H52" s="70"/>
-      <c r="I52" s="70"/>
-      <c r="J52" s="70"/>
-      <c r="K52" s="70"/>
-      <c r="L52" s="71"/>
+      <c r="D52" s="28"/>
+      <c r="E52" s="28"/>
+      <c r="F52" s="28"/>
+      <c r="G52" s="28"/>
+      <c r="H52" s="28"/>
+      <c r="I52" s="28"/>
+      <c r="J52" s="28"/>
+      <c r="K52" s="28"/>
+      <c r="L52" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="45">
+    <mergeCell ref="O37:Q37"/>
+    <mergeCell ref="O38:Q38"/>
+    <mergeCell ref="O39:Q39"/>
+    <mergeCell ref="O40:Q40"/>
+    <mergeCell ref="O41:Q41"/>
+    <mergeCell ref="O32:Q32"/>
+    <mergeCell ref="O33:Q33"/>
+    <mergeCell ref="O34:Q34"/>
+    <mergeCell ref="O35:Q35"/>
+    <mergeCell ref="O36:Q36"/>
+    <mergeCell ref="O27:Q27"/>
+    <mergeCell ref="O28:Q28"/>
+    <mergeCell ref="O29:Q29"/>
+    <mergeCell ref="O30:Q30"/>
+    <mergeCell ref="O31:Q31"/>
+    <mergeCell ref="O23:Q23"/>
+    <mergeCell ref="O24:Q24"/>
+    <mergeCell ref="O25:Q25"/>
+    <mergeCell ref="O26:Q26"/>
+    <mergeCell ref="O20:Q20"/>
+    <mergeCell ref="O18:Q18"/>
+    <mergeCell ref="O19:Q19"/>
+    <mergeCell ref="O21:Q21"/>
+    <mergeCell ref="O22:Q22"/>
+    <mergeCell ref="O15:Q15"/>
+    <mergeCell ref="O17:Q17"/>
+    <mergeCell ref="G1:K2"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="O9:S10"/>
+    <mergeCell ref="O11:Q11"/>
+    <mergeCell ref="O12:Q12"/>
+    <mergeCell ref="O13:Q13"/>
+    <mergeCell ref="O14:Q14"/>
+    <mergeCell ref="O16:Q16"/>
     <mergeCell ref="B49:B52"/>
     <mergeCell ref="C49:L50"/>
     <mergeCell ref="C51:L51"/>
@@ -2585,42 +2665,6 @@
     <mergeCell ref="C46:L46"/>
     <mergeCell ref="C47:L47"/>
     <mergeCell ref="C48:L48"/>
-    <mergeCell ref="O11:Q11"/>
-    <mergeCell ref="O12:Q12"/>
-    <mergeCell ref="O13:Q13"/>
-    <mergeCell ref="O14:Q14"/>
-    <mergeCell ref="O16:Q16"/>
-    <mergeCell ref="G1:K2"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="O9:S10"/>
-    <mergeCell ref="O18:Q18"/>
-    <mergeCell ref="O19:Q19"/>
-    <mergeCell ref="O21:Q21"/>
-    <mergeCell ref="O22:Q22"/>
-    <mergeCell ref="O15:Q15"/>
-    <mergeCell ref="O17:Q17"/>
-    <mergeCell ref="O23:Q23"/>
-    <mergeCell ref="O24:Q24"/>
-    <mergeCell ref="O25:Q25"/>
-    <mergeCell ref="O26:Q26"/>
-    <mergeCell ref="O20:Q20"/>
-    <mergeCell ref="O27:Q27"/>
-    <mergeCell ref="O28:Q28"/>
-    <mergeCell ref="O29:Q29"/>
-    <mergeCell ref="O30:Q30"/>
-    <mergeCell ref="O31:Q31"/>
-    <mergeCell ref="O32:Q32"/>
-    <mergeCell ref="O33:Q33"/>
-    <mergeCell ref="O34:Q34"/>
-    <mergeCell ref="O35:Q35"/>
-    <mergeCell ref="O36:Q36"/>
-    <mergeCell ref="O37:Q37"/>
-    <mergeCell ref="O38:Q38"/>
-    <mergeCell ref="O39:Q39"/>
-    <mergeCell ref="O40:Q40"/>
-    <mergeCell ref="O41:Q41"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/GoodAndBetter_Schema.xlsx
+++ b/GoodAndBetter_Schema.xlsx
@@ -1,33 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26018"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Good And Better\git\Good-Better\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Wan/Desktop/GoodAndBetter/git/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1005" windowWidth="25605" windowHeight="14505"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14580" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Shema" sheetId="3" r:id="rId1"/>
+    <sheet name="interface" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="133">
   <si>
     <t>version</t>
   </si>
@@ -398,24 +399,107 @@
   <si>
     <t>MEMBER 테이블에 ismaster 컬럼추가</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QUESTION 테이블 수정.
+(CHE_Code -&gt; PLA_Code)</t>
+  </si>
+  <si>
+    <t>v 0.2.0</t>
+  </si>
+  <si>
+    <t>app 과 통신 인터페이스 정의</t>
+  </si>
+  <si>
+    <t>Interface</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  {</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>result - 로그인 성공했을 경우만 보여짐</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     isAdmin = 관리자여부</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     clientCode = 회원 코드</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     clientName = 회원 이름</t>
+  </si>
+  <si>
+    <t>error = 에러여부 (0,1)</t>
+  </si>
+  <si>
+    <t>errorMSG = 에러가 있을 경우 메세지 보여줌</t>
+  </si>
+  <si>
+    <t>{"error":0,"errMSG":"","result":{"isAdmin":0,"clientCode":2,"clientName":"테스트임대자"}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  정상적으로 로그인이 되었을 경우.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 에러가 있을 경우</t>
+  </si>
+  <si>
+    <t>{"error":1,"errMSG":"check your password"}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LogIn Interface</t>
+  </si>
+  <si>
+    <t>방식 : http://wan.iptime.org:5001/appLogin 에 id 는 inputId , pw 는 inputPw로 post</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> GetPlant Interface</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          PLANT 정보</t>
+  </si>
+  <si>
+    <t>{"error":1,"errMSG":"~~~"}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 에러가 있을 경우(로그인과동일)</t>
+  </si>
+  <si>
+    <t>{
+"error":0,
+"errMSG":"",
+"result":{
+"PLA_Code":1,"MEM_Code":2,"PLA_Name":"test","PLA_Location":"testlocation","PLA_Qrimage":"/home/wan/gb/plants/cli2/pla1/qrimage.png","PLA_Content":"","PLA_Image":"/home/wan/gb/plants/cli2/pla1/titleImage.png","PLA_Indate":"2015-07-04T15:50:44.000Z","PLA_Outdate":"1989-12-31T15:00:00.000Z"}
+}</t>
+  </si>
+  <si>
+    <t>get 방식 : http://wan.iptime.org:5001/appAboutPlant?clientCode=2&amp;plantCode=1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -438,7 +522,7 @@
       <b/>
       <sz val="22"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -446,7 +530,7 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -455,7 +539,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -464,7 +548,32 @@
       <u/>
       <sz val="11"/>
       <color theme="11"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="26"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -484,7 +593,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="40">
+  <borders count="44">
     <border>
       <left/>
       <right/>
@@ -967,8 +1076,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -978,8 +1127,14 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1241,11 +1396,127 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="열어 본 하이퍼링크" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="하이퍼링크" xfId="1" builtinId="8" hidden="1"/>
+  <cellStyles count="5">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1568,33 +1839,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15:Q15"/>
+    <sheetView topLeftCell="K8" workbookViewId="0">
+      <selection activeCell="O18" sqref="O18:Q18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.125" customWidth="1"/>
+    <col min="12" max="12" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.1640625" customWidth="1"/>
     <col min="16" max="16" width="8" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="G1" s="57" t="s">
         <v>28</v>
       </c>
@@ -1603,14 +1874,14 @@
       <c r="J1" s="58"/>
       <c r="K1" s="59"/>
     </row>
-    <row r="2" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G2" s="60"/>
       <c r="H2" s="61"/>
       <c r="I2" s="61"/>
       <c r="J2" s="61"/>
       <c r="K2" s="62"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="G3" s="63" t="s">
         <v>0</v>
       </c>
@@ -1621,7 +1892,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="G4" s="66" t="s">
         <v>1</v>
       </c>
@@ -1632,7 +1903,7 @@
         <v>42181</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G5" s="69" t="s">
         <v>2</v>
       </c>
@@ -1643,8 +1914,8 @@
         <v>42175</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:19" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:19" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -1664,7 +1935,7 @@
       <c r="P8" s="10"/>
       <c r="Q8" s="10"/>
     </row>
-    <row r="9" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -1688,7 +1959,7 @@
       <c r="R9" s="73"/>
       <c r="S9" s="74"/>
     </row>
-    <row r="10" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1724,7 +1995,7 @@
       <c r="R10" s="76"/>
       <c r="S10" s="77"/>
     </row>
-    <row r="11" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1766,7 +2037,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -1796,7 +2067,7 @@
         <v>42175</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -1834,7 +2105,7 @@
         <v>42177</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M14" s="11"/>
       <c r="N14" s="11"/>
       <c r="O14" s="51" t="s">
@@ -1849,7 +2120,7 @@
         <v>42181</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -1866,13 +2137,19 @@
       <c r="J15" s="1"/>
       <c r="M15" s="12"/>
       <c r="N15" s="12"/>
-      <c r="O15" s="51"/>
+      <c r="O15" s="89" t="s">
+        <v>108</v>
+      </c>
       <c r="P15" s="52"/>
       <c r="Q15" s="53"/>
-      <c r="R15" s="14"/>
-      <c r="S15" s="5"/>
-    </row>
-    <row r="16" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R15" s="87" t="s">
+        <v>109</v>
+      </c>
+      <c r="S15" s="88">
+        <v>42192</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -1889,13 +2166,13 @@
       <c r="J16" s="1"/>
       <c r="M16" s="12"/>
       <c r="N16" s="12"/>
-      <c r="O16" s="54"/>
-      <c r="P16" s="55"/>
-      <c r="Q16" s="56"/>
-      <c r="R16" s="14"/>
-      <c r="S16" s="15"/>
-    </row>
-    <row r="17" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O16" s="51"/>
+      <c r="P16" s="52"/>
+      <c r="Q16" s="53"/>
+      <c r="R16" s="87"/>
+      <c r="S16" s="88"/>
+    </row>
+    <row r="17" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -1928,13 +2205,15 @@
       </c>
       <c r="M17" s="13"/>
       <c r="N17" s="13"/>
-      <c r="O17" s="54"/>
+      <c r="O17" s="54" t="s">
+        <v>110</v>
+      </c>
       <c r="P17" s="55"/>
       <c r="Q17" s="56"/>
-      <c r="R17" s="14"/>
-      <c r="S17" s="15"/>
-    </row>
-    <row r="18" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R17" s="87"/>
+      <c r="S17" s="88"/>
+    </row>
+    <row r="18" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -1973,7 +2252,7 @@
       <c r="R18" s="14"/>
       <c r="S18" s="15"/>
     </row>
-    <row r="19" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -1998,7 +2277,7 @@
       <c r="R19" s="14"/>
       <c r="S19" s="15"/>
     </row>
-    <row r="20" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -2035,7 +2314,7 @@
       <c r="R20" s="14"/>
       <c r="S20" s="5"/>
     </row>
-    <row r="21" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M21" s="12"/>
       <c r="N21" s="12"/>
       <c r="O21" s="54"/>
@@ -2044,7 +2323,7 @@
       <c r="R21" s="14"/>
       <c r="S21" s="15"/>
     </row>
-    <row r="22" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M22" s="12"/>
       <c r="N22" s="12"/>
       <c r="O22" s="54"/>
@@ -2053,7 +2332,7 @@
       <c r="R22" s="14"/>
       <c r="S22" s="15"/>
     </row>
-    <row r="23" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M23" s="12"/>
       <c r="N23" s="12"/>
       <c r="O23" s="54"/>
@@ -2062,7 +2341,7 @@
       <c r="R23" s="14"/>
       <c r="S23" s="15"/>
     </row>
-    <row r="24" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>3</v>
       </c>
@@ -2084,7 +2363,7 @@
       <c r="R24" s="14"/>
       <c r="S24" s="15"/>
     </row>
-    <row r="25" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -2106,7 +2385,7 @@
       <c r="R25" s="14"/>
       <c r="S25" s="15"/>
     </row>
-    <row r="26" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>8</v>
       </c>
@@ -2142,7 +2421,7 @@
       <c r="R26" s="14"/>
       <c r="S26" s="15"/>
     </row>
-    <row r="27" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>12</v>
       </c>
@@ -2178,7 +2457,7 @@
       <c r="R27" s="14"/>
       <c r="S27" s="5"/>
     </row>
-    <row r="28" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>15</v>
       </c>
@@ -2202,7 +2481,7 @@
       <c r="R28" s="14"/>
       <c r="S28" s="5"/>
     </row>
-    <row r="29" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>9</v>
       </c>
@@ -2236,7 +2515,7 @@
       <c r="R29" s="14"/>
       <c r="S29" s="4"/>
     </row>
-    <row r="30" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M30" s="11"/>
       <c r="N30" s="11"/>
       <c r="O30" s="81"/>
@@ -2245,7 +2524,7 @@
       <c r="R30" s="14"/>
       <c r="S30" s="4"/>
     </row>
-    <row r="31" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M31" s="11"/>
       <c r="N31" s="11"/>
       <c r="O31" s="81"/>
@@ -2254,7 +2533,7 @@
       <c r="R31" s="14"/>
       <c r="S31" s="4"/>
     </row>
-    <row r="32" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M32" s="11"/>
       <c r="N32" s="11"/>
       <c r="O32" s="81"/>
@@ -2263,7 +2542,7 @@
       <c r="R32" s="14"/>
       <c r="S32" s="4"/>
     </row>
-    <row r="33" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>3</v>
       </c>
@@ -2290,7 +2569,7 @@
       <c r="R33" s="14"/>
       <c r="S33" s="4"/>
     </row>
-    <row r="34" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>6</v>
       </c>
@@ -2317,7 +2596,7 @@
       <c r="R34" s="14"/>
       <c r="S34" s="4"/>
     </row>
-    <row r="35" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>8</v>
       </c>
@@ -2328,7 +2607,7 @@
         <v>65</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>75</v>
@@ -2356,7 +2635,7 @@
       <c r="R35" s="14"/>
       <c r="S35" s="4"/>
     </row>
-    <row r="36" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>12</v>
       </c>
@@ -2393,7 +2672,7 @@
       <c r="R36" s="14"/>
       <c r="S36" s="4"/>
     </row>
-    <row r="37" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>15</v>
       </c>
@@ -2424,7 +2703,7 @@
       <c r="R37" s="14"/>
       <c r="S37" s="4"/>
     </row>
-    <row r="38" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>9</v>
       </c>
@@ -2453,7 +2732,7 @@
       <c r="R38" s="14"/>
       <c r="S38" s="4"/>
     </row>
-    <row r="39" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="M39" s="11"/>
@@ -2464,7 +2743,7 @@
       <c r="R39" s="14"/>
       <c r="S39" s="4"/>
     </row>
-    <row r="40" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="M40" s="11"/>
@@ -2475,15 +2754,15 @@
       <c r="R40" s="14"/>
       <c r="S40" s="4"/>
     </row>
-    <row r="41" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="O41" s="84"/>
       <c r="P41" s="85"/>
       <c r="Q41" s="86"/>
       <c r="R41" s="16"/>
       <c r="S41" s="17"/>
     </row>
-    <row r="43" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B44" s="30" t="s">
         <v>19</v>
       </c>
@@ -2498,7 +2777,7 @@
       <c r="K44" s="31"/>
       <c r="L44" s="32"/>
     </row>
-    <row r="45" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B45" s="33"/>
       <c r="C45" s="34"/>
       <c r="D45" s="34"/>
@@ -2511,7 +2790,7 @@
       <c r="K45" s="34"/>
       <c r="L45" s="35"/>
     </row>
-    <row r="46" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="36" t="s">
         <v>20</v>
       </c>
@@ -2528,7 +2807,7 @@
       <c r="K46" s="38"/>
       <c r="L46" s="39"/>
     </row>
-    <row r="47" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="37"/>
       <c r="C47" s="40" t="s">
         <v>72</v>
@@ -2543,7 +2822,7 @@
       <c r="K47" s="41"/>
       <c r="L47" s="42"/>
     </row>
-    <row r="48" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B48" s="37"/>
       <c r="C48" s="43" t="s">
         <v>22</v>
@@ -2558,7 +2837,7 @@
       <c r="K48" s="44"/>
       <c r="L48" s="45"/>
     </row>
-    <row r="49" spans="2:12" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:12" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B49" s="18" t="s">
         <v>23</v>
       </c>
@@ -2575,7 +2854,7 @@
       <c r="K49" s="22"/>
       <c r="L49" s="23"/>
     </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B50" s="19"/>
       <c r="C50" s="24"/>
       <c r="D50" s="24"/>
@@ -2588,7 +2867,7 @@
       <c r="K50" s="24"/>
       <c r="L50" s="25"/>
     </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B51" s="19"/>
       <c r="C51" s="26" t="s">
         <v>25</v>
@@ -2603,7 +2882,7 @@
       <c r="K51" s="26"/>
       <c r="L51" s="27"/>
     </row>
-    <row r="52" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B52" s="20"/>
       <c r="C52" s="28" t="s">
         <v>26</v>
@@ -2619,7 +2898,7 @@
       <c r="L52" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="45">
+  <mergeCells count="46">
     <mergeCell ref="O37:Q37"/>
     <mergeCell ref="O38:Q38"/>
     <mergeCell ref="O39:Q39"/>
@@ -2644,8 +2923,10 @@
     <mergeCell ref="O19:Q19"/>
     <mergeCell ref="O21:Q21"/>
     <mergeCell ref="O22:Q22"/>
-    <mergeCell ref="O15:Q15"/>
     <mergeCell ref="O17:Q17"/>
+    <mergeCell ref="O15:Q16"/>
+    <mergeCell ref="S15:S17"/>
+    <mergeCell ref="R15:R17"/>
     <mergeCell ref="G1:K2"/>
     <mergeCell ref="G3:J3"/>
     <mergeCell ref="G4:J4"/>
@@ -2655,7 +2936,6 @@
     <mergeCell ref="O12:Q12"/>
     <mergeCell ref="O13:Q13"/>
     <mergeCell ref="O14:Q14"/>
-    <mergeCell ref="O16:Q16"/>
     <mergeCell ref="B49:B52"/>
     <mergeCell ref="C49:L50"/>
     <mergeCell ref="C51:L51"/>
@@ -2671,4 +2951,620 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:S35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="L33" sqref="L33:R33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K3" s="119"/>
+      <c r="L3" s="119"/>
+    </row>
+    <row r="4" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="119"/>
+      <c r="C4" s="119"/>
+      <c r="D4" s="119"/>
+      <c r="E4" s="119"/>
+      <c r="F4" s="119"/>
+      <c r="G4" s="119"/>
+      <c r="H4" s="119"/>
+      <c r="I4" s="119"/>
+      <c r="J4" s="119"/>
+    </row>
+    <row r="5" spans="2:19" ht="17" x14ac:dyDescent="0.2">
+      <c r="B5" s="120" t="s">
+        <v>126</v>
+      </c>
+      <c r="C5" s="120"/>
+      <c r="D5" s="120"/>
+      <c r="E5" s="120"/>
+      <c r="F5" s="120"/>
+      <c r="G5" s="120"/>
+      <c r="H5" s="120"/>
+      <c r="L5" s="124" t="s">
+        <v>132</v>
+      </c>
+      <c r="M5" s="124"/>
+      <c r="N5" s="124"/>
+      <c r="O5" s="124"/>
+      <c r="P5" s="124"/>
+      <c r="Q5" s="124"/>
+      <c r="R5" s="124"/>
+    </row>
+    <row r="7" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B7" s="90" t="s">
+        <v>125</v>
+      </c>
+      <c r="C7" s="91"/>
+      <c r="D7" s="91"/>
+      <c r="E7" s="91"/>
+      <c r="F7" s="91"/>
+      <c r="G7" s="91"/>
+      <c r="H7" s="92"/>
+      <c r="L7" s="90" t="s">
+        <v>127</v>
+      </c>
+      <c r="M7" s="91"/>
+      <c r="N7" s="91"/>
+      <c r="O7" s="91"/>
+      <c r="P7" s="91"/>
+      <c r="Q7" s="91"/>
+      <c r="R7" s="92"/>
+    </row>
+    <row r="8" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B8" s="93"/>
+      <c r="C8" s="94"/>
+      <c r="D8" s="94"/>
+      <c r="E8" s="94"/>
+      <c r="F8" s="94"/>
+      <c r="G8" s="94"/>
+      <c r="H8" s="95"/>
+      <c r="L8" s="93"/>
+      <c r="M8" s="94"/>
+      <c r="N8" s="94"/>
+      <c r="O8" s="94"/>
+      <c r="P8" s="94"/>
+      <c r="Q8" s="94"/>
+      <c r="R8" s="95"/>
+    </row>
+    <row r="9" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B9" s="96" t="s">
+        <v>119</v>
+      </c>
+      <c r="C9" s="97"/>
+      <c r="D9" s="97"/>
+      <c r="E9" s="97"/>
+      <c r="F9" s="97"/>
+      <c r="G9" s="97"/>
+      <c r="H9" s="98"/>
+      <c r="L9" s="96" t="s">
+        <v>119</v>
+      </c>
+      <c r="M9" s="97"/>
+      <c r="N9" s="97"/>
+      <c r="O9" s="97"/>
+      <c r="P9" s="97"/>
+      <c r="Q9" s="97"/>
+      <c r="R9" s="98"/>
+    </row>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B10" s="99" t="s">
+        <v>120</v>
+      </c>
+      <c r="C10" s="82"/>
+      <c r="D10" s="82"/>
+      <c r="E10" s="82"/>
+      <c r="F10" s="82"/>
+      <c r="G10" s="82"/>
+      <c r="H10" s="83"/>
+      <c r="L10" s="99" t="s">
+        <v>120</v>
+      </c>
+      <c r="M10" s="82"/>
+      <c r="N10" s="82"/>
+      <c r="O10" s="82"/>
+      <c r="P10" s="82"/>
+      <c r="Q10" s="82"/>
+      <c r="R10" s="83"/>
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B11" s="99" t="s">
+        <v>115</v>
+      </c>
+      <c r="C11" s="82"/>
+      <c r="D11" s="82"/>
+      <c r="E11" s="82"/>
+      <c r="F11" s="82"/>
+      <c r="G11" s="82"/>
+      <c r="H11" s="83"/>
+      <c r="L11" s="99" t="s">
+        <v>115</v>
+      </c>
+      <c r="M11" s="82"/>
+      <c r="N11" s="82"/>
+      <c r="O11" s="82"/>
+      <c r="P11" s="82"/>
+      <c r="Q11" s="82"/>
+      <c r="R11" s="83"/>
+    </row>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B12" s="99" t="s">
+        <v>112</v>
+      </c>
+      <c r="C12" s="82"/>
+      <c r="D12" s="82"/>
+      <c r="E12" s="82"/>
+      <c r="F12" s="82"/>
+      <c r="G12" s="82"/>
+      <c r="H12" s="83"/>
+      <c r="L12" s="99" t="s">
+        <v>113</v>
+      </c>
+      <c r="M12" s="82"/>
+      <c r="N12" s="82"/>
+      <c r="O12" s="82"/>
+      <c r="P12" s="82"/>
+      <c r="Q12" s="82"/>
+      <c r="R12" s="83"/>
+    </row>
+    <row r="13" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B13" s="100" t="s">
+        <v>116</v>
+      </c>
+      <c r="C13" s="52"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="53"/>
+      <c r="L13" s="100"/>
+      <c r="M13" s="52"/>
+      <c r="N13" s="52"/>
+      <c r="O13" s="52"/>
+      <c r="P13" s="52"/>
+      <c r="Q13" s="52"/>
+      <c r="R13" s="53"/>
+    </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B14" s="99" t="s">
+        <v>117</v>
+      </c>
+      <c r="C14" s="82"/>
+      <c r="D14" s="82"/>
+      <c r="E14" s="82"/>
+      <c r="F14" s="82"/>
+      <c r="G14" s="82"/>
+      <c r="H14" s="83"/>
+      <c r="L14" s="99" t="s">
+        <v>128</v>
+      </c>
+      <c r="M14" s="82"/>
+      <c r="N14" s="82"/>
+      <c r="O14" s="82"/>
+      <c r="P14" s="82"/>
+      <c r="Q14" s="82"/>
+      <c r="R14" s="83"/>
+    </row>
+    <row r="15" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B15" s="99" t="s">
+        <v>118</v>
+      </c>
+      <c r="C15" s="82"/>
+      <c r="D15" s="82"/>
+      <c r="E15" s="82"/>
+      <c r="F15" s="82"/>
+      <c r="G15" s="82"/>
+      <c r="H15" s="83"/>
+      <c r="L15" s="99"/>
+      <c r="M15" s="82"/>
+      <c r="N15" s="82"/>
+      <c r="O15" s="82"/>
+      <c r="P15" s="82"/>
+      <c r="Q15" s="82"/>
+      <c r="R15" s="83"/>
+    </row>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B16" s="101" t="s">
+        <v>114</v>
+      </c>
+      <c r="C16" s="102"/>
+      <c r="D16" s="102"/>
+      <c r="E16" s="102"/>
+      <c r="F16" s="102"/>
+      <c r="G16" s="102"/>
+      <c r="H16" s="103"/>
+      <c r="L16" s="101" t="s">
+        <v>114</v>
+      </c>
+      <c r="M16" s="102"/>
+      <c r="N16" s="102"/>
+      <c r="O16" s="102"/>
+      <c r="P16" s="102"/>
+      <c r="Q16" s="102"/>
+      <c r="R16" s="103"/>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B17" s="104" t="s">
+        <v>111</v>
+      </c>
+      <c r="C17" s="105"/>
+      <c r="D17" s="105"/>
+      <c r="E17" s="105"/>
+      <c r="F17" s="105"/>
+      <c r="G17" s="105"/>
+      <c r="H17" s="106"/>
+      <c r="L17" s="104" t="s">
+        <v>111</v>
+      </c>
+      <c r="M17" s="105"/>
+      <c r="N17" s="105"/>
+      <c r="O17" s="105"/>
+      <c r="P17" s="105"/>
+      <c r="Q17" s="105"/>
+      <c r="R17" s="106"/>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B18" s="107"/>
+      <c r="C18" s="108"/>
+      <c r="D18" s="108"/>
+      <c r="E18" s="108"/>
+      <c r="F18" s="108"/>
+      <c r="G18" s="108"/>
+      <c r="H18" s="109"/>
+      <c r="L18" s="107"/>
+      <c r="M18" s="108"/>
+      <c r="N18" s="108"/>
+      <c r="O18" s="108"/>
+      <c r="P18" s="108"/>
+      <c r="Q18" s="108"/>
+      <c r="R18" s="109"/>
+    </row>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B19" s="110" t="s">
+        <v>122</v>
+      </c>
+      <c r="C19" s="111"/>
+      <c r="D19" s="111"/>
+      <c r="E19" s="111"/>
+      <c r="F19" s="111"/>
+      <c r="G19" s="111"/>
+      <c r="H19" s="112"/>
+      <c r="L19" s="110" t="s">
+        <v>122</v>
+      </c>
+      <c r="M19" s="111"/>
+      <c r="N19" s="111"/>
+      <c r="O19" s="111"/>
+      <c r="P19" s="111"/>
+      <c r="Q19" s="111"/>
+      <c r="R19" s="112"/>
+    </row>
+    <row r="20" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="113" t="s">
+        <v>121</v>
+      </c>
+      <c r="C20" s="114"/>
+      <c r="D20" s="114"/>
+      <c r="E20" s="114"/>
+      <c r="F20" s="114"/>
+      <c r="G20" s="114"/>
+      <c r="H20" s="115"/>
+      <c r="L20" s="121" t="s">
+        <v>131</v>
+      </c>
+      <c r="M20" s="122"/>
+      <c r="N20" s="122"/>
+      <c r="O20" s="122"/>
+      <c r="P20" s="122"/>
+      <c r="Q20" s="122"/>
+      <c r="R20" s="123"/>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B21" s="113"/>
+      <c r="C21" s="114"/>
+      <c r="D21" s="114"/>
+      <c r="E21" s="114"/>
+      <c r="F21" s="114"/>
+      <c r="G21" s="114"/>
+      <c r="H21" s="115"/>
+      <c r="L21" s="121"/>
+      <c r="M21" s="122"/>
+      <c r="N21" s="122"/>
+      <c r="O21" s="122"/>
+      <c r="P21" s="122"/>
+      <c r="Q21" s="122"/>
+      <c r="R21" s="123"/>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B22" s="113" t="s">
+        <v>123</v>
+      </c>
+      <c r="C22" s="114"/>
+      <c r="D22" s="114"/>
+      <c r="E22" s="114"/>
+      <c r="F22" s="114"/>
+      <c r="G22" s="114"/>
+      <c r="H22" s="115"/>
+      <c r="L22" s="121"/>
+      <c r="M22" s="122"/>
+      <c r="N22" s="122"/>
+      <c r="O22" s="122"/>
+      <c r="P22" s="122"/>
+      <c r="Q22" s="122"/>
+      <c r="R22" s="123"/>
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B23" s="113" t="s">
+        <v>124</v>
+      </c>
+      <c r="C23" s="114"/>
+      <c r="D23" s="114"/>
+      <c r="E23" s="114"/>
+      <c r="F23" s="114"/>
+      <c r="G23" s="114"/>
+      <c r="H23" s="115"/>
+      <c r="L23" s="121"/>
+      <c r="M23" s="122"/>
+      <c r="N23" s="122"/>
+      <c r="O23" s="122"/>
+      <c r="P23" s="122"/>
+      <c r="Q23" s="122"/>
+      <c r="R23" s="123"/>
+    </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B24" s="113"/>
+      <c r="C24" s="114"/>
+      <c r="D24" s="114"/>
+      <c r="E24" s="114"/>
+      <c r="F24" s="114"/>
+      <c r="G24" s="114"/>
+      <c r="H24" s="115"/>
+      <c r="L24" s="121"/>
+      <c r="M24" s="122"/>
+      <c r="N24" s="122"/>
+      <c r="O24" s="122"/>
+      <c r="P24" s="122"/>
+      <c r="Q24" s="122"/>
+      <c r="R24" s="123"/>
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B25" s="113"/>
+      <c r="C25" s="114"/>
+      <c r="D25" s="114"/>
+      <c r="E25" s="114"/>
+      <c r="F25" s="114"/>
+      <c r="G25" s="114"/>
+      <c r="H25" s="115"/>
+      <c r="L25" s="121"/>
+      <c r="M25" s="122"/>
+      <c r="N25" s="122"/>
+      <c r="O25" s="122"/>
+      <c r="P25" s="122"/>
+      <c r="Q25" s="122"/>
+      <c r="R25" s="123"/>
+    </row>
+    <row r="26" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B26" s="113"/>
+      <c r="C26" s="114"/>
+      <c r="D26" s="114"/>
+      <c r="E26" s="114"/>
+      <c r="F26" s="114"/>
+      <c r="G26" s="114"/>
+      <c r="H26" s="115"/>
+      <c r="L26" s="121"/>
+      <c r="M26" s="122"/>
+      <c r="N26" s="122"/>
+      <c r="O26" s="122"/>
+      <c r="P26" s="122"/>
+      <c r="Q26" s="122"/>
+      <c r="R26" s="123"/>
+    </row>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B27" s="113"/>
+      <c r="C27" s="114"/>
+      <c r="D27" s="114"/>
+      <c r="E27" s="114"/>
+      <c r="F27" s="114"/>
+      <c r="G27" s="114"/>
+      <c r="H27" s="115"/>
+      <c r="L27" s="121"/>
+      <c r="M27" s="122"/>
+      <c r="N27" s="122"/>
+      <c r="O27" s="122"/>
+      <c r="P27" s="122"/>
+      <c r="Q27" s="122"/>
+      <c r="R27" s="123"/>
+    </row>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B28" s="113"/>
+      <c r="C28" s="114"/>
+      <c r="D28" s="114"/>
+      <c r="E28" s="114"/>
+      <c r="F28" s="114"/>
+      <c r="G28" s="114"/>
+      <c r="H28" s="115"/>
+      <c r="L28" s="121"/>
+      <c r="M28" s="122"/>
+      <c r="N28" s="122"/>
+      <c r="O28" s="122"/>
+      <c r="P28" s="122"/>
+      <c r="Q28" s="122"/>
+      <c r="R28" s="123"/>
+    </row>
+    <row r="29" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B29" s="113"/>
+      <c r="C29" s="114"/>
+      <c r="D29" s="114"/>
+      <c r="E29" s="114"/>
+      <c r="F29" s="114"/>
+      <c r="G29" s="114"/>
+      <c r="H29" s="115"/>
+      <c r="L29" s="113"/>
+      <c r="M29" s="114"/>
+      <c r="N29" s="114"/>
+      <c r="O29" s="114"/>
+      <c r="P29" s="114"/>
+      <c r="Q29" s="114"/>
+      <c r="R29" s="115"/>
+    </row>
+    <row r="30" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B30" s="113"/>
+      <c r="C30" s="114"/>
+      <c r="D30" s="114"/>
+      <c r="E30" s="114"/>
+      <c r="F30" s="114"/>
+      <c r="G30" s="114"/>
+      <c r="H30" s="115"/>
+      <c r="L30" s="113"/>
+      <c r="M30" s="114"/>
+      <c r="N30" s="114"/>
+      <c r="O30" s="114"/>
+      <c r="P30" s="114"/>
+      <c r="Q30" s="114"/>
+      <c r="R30" s="115"/>
+    </row>
+    <row r="31" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B31" s="113"/>
+      <c r="C31" s="114"/>
+      <c r="D31" s="114"/>
+      <c r="E31" s="114"/>
+      <c r="F31" s="114"/>
+      <c r="G31" s="114"/>
+      <c r="H31" s="115"/>
+      <c r="L31" s="113" t="s">
+        <v>130</v>
+      </c>
+      <c r="M31" s="114"/>
+      <c r="N31" s="114"/>
+      <c r="O31" s="114"/>
+      <c r="P31" s="114"/>
+      <c r="Q31" s="114"/>
+      <c r="R31" s="115"/>
+    </row>
+    <row r="32" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B32" s="113"/>
+      <c r="C32" s="114"/>
+      <c r="D32" s="114"/>
+      <c r="E32" s="114"/>
+      <c r="F32" s="114"/>
+      <c r="G32" s="114"/>
+      <c r="H32" s="115"/>
+      <c r="L32" s="113" t="s">
+        <v>129</v>
+      </c>
+      <c r="M32" s="114"/>
+      <c r="N32" s="114"/>
+      <c r="O32" s="114"/>
+      <c r="P32" s="114"/>
+      <c r="Q32" s="114"/>
+      <c r="R32" s="115"/>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B33" s="113"/>
+      <c r="C33" s="114"/>
+      <c r="D33" s="114"/>
+      <c r="E33" s="114"/>
+      <c r="F33" s="114"/>
+      <c r="G33" s="114"/>
+      <c r="H33" s="115"/>
+      <c r="L33" s="113"/>
+      <c r="M33" s="114"/>
+      <c r="N33" s="114"/>
+      <c r="O33" s="114"/>
+      <c r="P33" s="114"/>
+      <c r="Q33" s="114"/>
+      <c r="R33" s="115"/>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B34" s="113"/>
+      <c r="C34" s="114"/>
+      <c r="D34" s="114"/>
+      <c r="E34" s="114"/>
+      <c r="F34" s="114"/>
+      <c r="G34" s="114"/>
+      <c r="H34" s="115"/>
+      <c r="L34" s="113"/>
+      <c r="M34" s="114"/>
+      <c r="N34" s="114"/>
+      <c r="O34" s="114"/>
+      <c r="P34" s="114"/>
+      <c r="Q34" s="114"/>
+      <c r="R34" s="115"/>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B35" s="116"/>
+      <c r="C35" s="117"/>
+      <c r="D35" s="117"/>
+      <c r="E35" s="117"/>
+      <c r="F35" s="117"/>
+      <c r="G35" s="117"/>
+      <c r="H35" s="118"/>
+      <c r="L35" s="116"/>
+      <c r="M35" s="117"/>
+      <c r="N35" s="117"/>
+      <c r="O35" s="117"/>
+      <c r="P35" s="117"/>
+      <c r="Q35" s="117"/>
+      <c r="R35" s="118"/>
+    </row>
+  </sheetData>
+  <mergeCells count="48">
+    <mergeCell ref="L33:R33"/>
+    <mergeCell ref="L34:R34"/>
+    <mergeCell ref="L35:R35"/>
+    <mergeCell ref="L5:R5"/>
+    <mergeCell ref="L20:R28"/>
+    <mergeCell ref="L29:R29"/>
+    <mergeCell ref="L30:R30"/>
+    <mergeCell ref="L31:R31"/>
+    <mergeCell ref="L32:R32"/>
+    <mergeCell ref="L13:R13"/>
+    <mergeCell ref="L14:R14"/>
+    <mergeCell ref="L15:R15"/>
+    <mergeCell ref="L16:R16"/>
+    <mergeCell ref="L17:R18"/>
+    <mergeCell ref="L19:R19"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="L7:R8"/>
+    <mergeCell ref="L9:R9"/>
+    <mergeCell ref="L10:R10"/>
+    <mergeCell ref="L11:R11"/>
+    <mergeCell ref="L12:R12"/>
+    <mergeCell ref="B34:H34"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="B28:H28"/>
+    <mergeCell ref="B29:H29"/>
+    <mergeCell ref="B30:H30"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="B33:H33"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="B24:H24"/>
+    <mergeCell ref="B25:H25"/>
+    <mergeCell ref="B26:H26"/>
+    <mergeCell ref="B27:H27"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="B17:H18"/>
+    <mergeCell ref="B19:H19"/>
+    <mergeCell ref="B20:H20"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B7:H8"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="B10:H10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/GoodAndBetter_Schema.xlsx
+++ b/GoodAndBetter_Schema.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14580" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14560"/>
   </bookViews>
   <sheets>
     <sheet name="Shema" sheetId="3" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="137">
   <si>
     <t>version</t>
   </si>
@@ -482,6 +482,18 @@
   </si>
   <si>
     <t>get 방식 : http://wan.iptime.org:5001/appAboutPlant?clientCode=2&amp;plantCode=1</t>
+  </si>
+  <si>
+    <t>CHE_Cleanleaf</t>
+  </si>
+  <si>
+    <t>입세정</t>
+  </si>
+  <si>
+    <t>CHE_Change</t>
+  </si>
+  <si>
+    <t>교체</t>
   </si>
 </sst>
 </file>
@@ -1189,6 +1201,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1273,6 +1288,87 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1288,14 +1384,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1306,78 +1402,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1396,14 +1420,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1432,11 +1453,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1474,15 +1498,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1492,12 +1507,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1506,9 +1521,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1839,8 +1851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S52"/>
   <sheetViews>
-    <sheetView topLeftCell="K8" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18:Q18"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1866,50 +1878,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="G1" s="57" t="s">
+      <c r="G1" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="59"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="55"/>
     </row>
     <row r="2" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="G2" s="60"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="62"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="58"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="G3" s="63" t="s">
+      <c r="G3" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="65"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="61"/>
       <c r="K3" s="4" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="G4" s="66" t="s">
+      <c r="G4" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="68"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="64"/>
       <c r="K4" s="5">
         <v>42181</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="G5" s="69" t="s">
+      <c r="G5" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="70"/>
-      <c r="I5" s="70"/>
-      <c r="J5" s="71"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="67"/>
       <c r="K5" s="6">
         <v>42175</v>
       </c>
@@ -1951,13 +1963,13 @@
       <c r="I9" s="1"/>
       <c r="M9" s="10"/>
       <c r="N9" s="10"/>
-      <c r="O9" s="72" t="s">
+      <c r="O9" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="P9" s="73"/>
-      <c r="Q9" s="73"/>
-      <c r="R9" s="73"/>
-      <c r="S9" s="74"/>
+      <c r="P9" s="69"/>
+      <c r="Q9" s="69"/>
+      <c r="R9" s="69"/>
+      <c r="S9" s="70"/>
     </row>
     <row r="10" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -1989,11 +2001,11 @@
       </c>
       <c r="M10" s="11"/>
       <c r="N10" s="11"/>
-      <c r="O10" s="75"/>
-      <c r="P10" s="76"/>
-      <c r="Q10" s="76"/>
-      <c r="R10" s="76"/>
-      <c r="S10" s="77"/>
+      <c r="O10" s="71"/>
+      <c r="P10" s="72"/>
+      <c r="Q10" s="72"/>
+      <c r="R10" s="72"/>
+      <c r="S10" s="73"/>
     </row>
     <row r="11" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -2025,11 +2037,11 @@
       </c>
       <c r="M11" s="11"/>
       <c r="N11" s="11"/>
-      <c r="O11" s="46" t="s">
+      <c r="O11" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="P11" s="47"/>
-      <c r="Q11" s="48"/>
+      <c r="P11" s="75"/>
+      <c r="Q11" s="76"/>
       <c r="R11" s="7" t="s">
         <v>10</v>
       </c>
@@ -2055,11 +2067,11 @@
       </c>
       <c r="M12" s="11"/>
       <c r="N12" s="11"/>
-      <c r="O12" s="49" t="s">
+      <c r="O12" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="P12" s="44"/>
-      <c r="Q12" s="50"/>
+      <c r="P12" s="45"/>
+      <c r="Q12" s="78"/>
       <c r="R12" s="14" t="s">
         <v>83</v>
       </c>
@@ -2093,11 +2105,11 @@
       </c>
       <c r="M13" s="11"/>
       <c r="N13" s="11"/>
-      <c r="O13" s="51" t="s">
+      <c r="O13" s="50" t="s">
         <v>84</v>
       </c>
-      <c r="P13" s="52"/>
-      <c r="Q13" s="53"/>
+      <c r="P13" s="48"/>
+      <c r="Q13" s="49"/>
       <c r="R13" s="14" t="s">
         <v>85</v>
       </c>
@@ -2108,11 +2120,11 @@
     <row r="14" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M14" s="11"/>
       <c r="N14" s="11"/>
-      <c r="O14" s="51" t="s">
+      <c r="O14" s="50" t="s">
         <v>107</v>
       </c>
-      <c r="P14" s="52"/>
-      <c r="Q14" s="53"/>
+      <c r="P14" s="48"/>
+      <c r="Q14" s="49"/>
       <c r="R14" s="14" t="s">
         <v>106</v>
       </c>
@@ -2137,15 +2149,15 @@
       <c r="J15" s="1"/>
       <c r="M15" s="12"/>
       <c r="N15" s="12"/>
-      <c r="O15" s="89" t="s">
+      <c r="O15" s="47" t="s">
         <v>108</v>
       </c>
-      <c r="P15" s="52"/>
-      <c r="Q15" s="53"/>
-      <c r="R15" s="87" t="s">
+      <c r="P15" s="48"/>
+      <c r="Q15" s="49"/>
+      <c r="R15" s="52" t="s">
         <v>109</v>
       </c>
-      <c r="S15" s="88">
+      <c r="S15" s="51">
         <v>42192</v>
       </c>
     </row>
@@ -2166,11 +2178,11 @@
       <c r="J16" s="1"/>
       <c r="M16" s="12"/>
       <c r="N16" s="12"/>
-      <c r="O16" s="51"/>
-      <c r="P16" s="52"/>
-      <c r="Q16" s="53"/>
-      <c r="R16" s="87"/>
-      <c r="S16" s="88"/>
+      <c r="O16" s="50"/>
+      <c r="P16" s="48"/>
+      <c r="Q16" s="49"/>
+      <c r="R16" s="52"/>
+      <c r="S16" s="51"/>
     </row>
     <row r="17" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
@@ -2205,13 +2217,13 @@
       </c>
       <c r="M17" s="13"/>
       <c r="N17" s="13"/>
-      <c r="O17" s="54" t="s">
+      <c r="O17" s="82" t="s">
         <v>110</v>
       </c>
-      <c r="P17" s="55"/>
-      <c r="Q17" s="56"/>
-      <c r="R17" s="87"/>
-      <c r="S17" s="88"/>
+      <c r="P17" s="83"/>
+      <c r="Q17" s="84"/>
+      <c r="R17" s="52"/>
+      <c r="S17" s="51"/>
     </row>
     <row r="18" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
@@ -2246,9 +2258,9 @@
       </c>
       <c r="M18" s="13"/>
       <c r="N18" s="13"/>
-      <c r="O18" s="78"/>
-      <c r="P18" s="79"/>
-      <c r="Q18" s="80"/>
+      <c r="O18" s="79"/>
+      <c r="P18" s="80"/>
+      <c r="Q18" s="81"/>
       <c r="R18" s="14"/>
       <c r="S18" s="15"/>
     </row>
@@ -2271,9 +2283,9 @@
       <c r="J19" s="1"/>
       <c r="M19" s="11"/>
       <c r="N19" s="11"/>
-      <c r="O19" s="78"/>
-      <c r="P19" s="79"/>
-      <c r="Q19" s="80"/>
+      <c r="O19" s="79"/>
+      <c r="P19" s="80"/>
+      <c r="Q19" s="81"/>
       <c r="R19" s="14"/>
       <c r="S19" s="15"/>
     </row>
@@ -2308,36 +2320,36 @@
       </c>
       <c r="M20" s="12"/>
       <c r="N20" s="12"/>
-      <c r="O20" s="81"/>
-      <c r="P20" s="82"/>
-      <c r="Q20" s="83"/>
+      <c r="O20" s="85"/>
+      <c r="P20" s="86"/>
+      <c r="Q20" s="87"/>
       <c r="R20" s="14"/>
       <c r="S20" s="5"/>
     </row>
     <row r="21" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M21" s="12"/>
       <c r="N21" s="12"/>
-      <c r="O21" s="54"/>
-      <c r="P21" s="55"/>
-      <c r="Q21" s="56"/>
+      <c r="O21" s="82"/>
+      <c r="P21" s="83"/>
+      <c r="Q21" s="84"/>
       <c r="R21" s="14"/>
       <c r="S21" s="15"/>
     </row>
     <row r="22" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M22" s="12"/>
       <c r="N22" s="12"/>
-      <c r="O22" s="54"/>
-      <c r="P22" s="55"/>
-      <c r="Q22" s="56"/>
+      <c r="O22" s="82"/>
+      <c r="P22" s="83"/>
+      <c r="Q22" s="84"/>
       <c r="R22" s="14"/>
       <c r="S22" s="15"/>
     </row>
     <row r="23" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M23" s="12"/>
       <c r="N23" s="12"/>
-      <c r="O23" s="54"/>
-      <c r="P23" s="55"/>
-      <c r="Q23" s="56"/>
+      <c r="O23" s="82"/>
+      <c r="P23" s="83"/>
+      <c r="Q23" s="84"/>
       <c r="R23" s="14"/>
       <c r="S23" s="15"/>
     </row>
@@ -2355,11 +2367,12 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-      <c r="M24" s="12"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
       <c r="N24" s="12"/>
-      <c r="O24" s="54"/>
-      <c r="P24" s="55"/>
-      <c r="Q24" s="56"/>
+      <c r="O24" s="82"/>
+      <c r="P24" s="83"/>
+      <c r="Q24" s="84"/>
       <c r="R24" s="14"/>
       <c r="S24" s="15"/>
     </row>
@@ -2377,11 +2390,12 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-      <c r="M25" s="12"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
       <c r="N25" s="12"/>
-      <c r="O25" s="54"/>
-      <c r="P25" s="55"/>
-      <c r="Q25" s="56"/>
+      <c r="O25" s="82"/>
+      <c r="P25" s="83"/>
+      <c r="Q25" s="84"/>
       <c r="R25" s="14"/>
       <c r="S25" s="15"/>
     </row>
@@ -2405,19 +2419,24 @@
         <v>60</v>
       </c>
       <c r="G26" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="H26" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="H26" s="3" t="s">
+      <c r="I26" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="J26" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="I26" s="3" t="s">
+      <c r="K26" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="M26" s="11"/>
       <c r="N26" s="11"/>
-      <c r="O26" s="54"/>
-      <c r="P26" s="55"/>
-      <c r="Q26" s="56"/>
+      <c r="O26" s="82"/>
+      <c r="P26" s="83"/>
+      <c r="Q26" s="84"/>
       <c r="R26" s="14"/>
       <c r="S26" s="15"/>
     </row>
@@ -2444,16 +2463,21 @@
         <v>92</v>
       </c>
       <c r="H27" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="J27" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I27" s="2" t="s">
+      <c r="K27" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="M27" s="11"/>
       <c r="N27" s="11"/>
-      <c r="O27" s="81"/>
-      <c r="P27" s="82"/>
-      <c r="Q27" s="83"/>
+      <c r="O27" s="85"/>
+      <c r="P27" s="86"/>
+      <c r="Q27" s="87"/>
       <c r="R27" s="14"/>
       <c r="S27" s="5"/>
     </row>
@@ -2470,14 +2494,15 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="1" t="s">
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="M28" s="11"/>
       <c r="N28" s="11"/>
-      <c r="O28" s="81"/>
-      <c r="P28" s="82"/>
-      <c r="Q28" s="83"/>
+      <c r="O28" s="85"/>
+      <c r="P28" s="86"/>
+      <c r="Q28" s="87"/>
       <c r="R28" s="14"/>
       <c r="S28" s="5"/>
     </row>
@@ -2501,44 +2526,49 @@
         <v>90</v>
       </c>
       <c r="G29" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="H29" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="H29" s="1" t="s">
+      <c r="I29" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="J29" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="I29" s="1"/>
-      <c r="M29" s="11"/>
+      <c r="K29" s="1"/>
       <c r="N29" s="11"/>
-      <c r="O29" s="81"/>
-      <c r="P29" s="82"/>
-      <c r="Q29" s="83"/>
+      <c r="O29" s="85"/>
+      <c r="P29" s="86"/>
+      <c r="Q29" s="87"/>
       <c r="R29" s="14"/>
       <c r="S29" s="4"/>
     </row>
     <row r="30" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M30" s="11"/>
       <c r="N30" s="11"/>
-      <c r="O30" s="81"/>
-      <c r="P30" s="82"/>
-      <c r="Q30" s="83"/>
+      <c r="O30" s="85"/>
+      <c r="P30" s="86"/>
+      <c r="Q30" s="87"/>
       <c r="R30" s="14"/>
       <c r="S30" s="4"/>
     </row>
     <row r="31" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M31" s="11"/>
       <c r="N31" s="11"/>
-      <c r="O31" s="81"/>
-      <c r="P31" s="82"/>
-      <c r="Q31" s="83"/>
+      <c r="O31" s="85"/>
+      <c r="P31" s="86"/>
+      <c r="Q31" s="87"/>
       <c r="R31" s="14"/>
       <c r="S31" s="4"/>
     </row>
     <row r="32" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M32" s="11"/>
       <c r="N32" s="11"/>
-      <c r="O32" s="81"/>
-      <c r="P32" s="82"/>
-      <c r="Q32" s="83"/>
+      <c r="O32" s="85"/>
+      <c r="P32" s="86"/>
+      <c r="Q32" s="87"/>
       <c r="R32" s="14"/>
       <c r="S32" s="4"/>
     </row>
@@ -2563,9 +2593,9 @@
       <c r="K33" s="1"/>
       <c r="M33" s="11"/>
       <c r="N33" s="11"/>
-      <c r="O33" s="81"/>
-      <c r="P33" s="82"/>
-      <c r="Q33" s="83"/>
+      <c r="O33" s="85"/>
+      <c r="P33" s="86"/>
+      <c r="Q33" s="87"/>
       <c r="R33" s="14"/>
       <c r="S33" s="4"/>
     </row>
@@ -2590,9 +2620,9 @@
       <c r="K34" s="1"/>
       <c r="M34" s="11"/>
       <c r="N34" s="11"/>
-      <c r="O34" s="81"/>
-      <c r="P34" s="82"/>
-      <c r="Q34" s="83"/>
+      <c r="O34" s="85"/>
+      <c r="P34" s="86"/>
+      <c r="Q34" s="87"/>
       <c r="R34" s="14"/>
       <c r="S34" s="4"/>
     </row>
@@ -2629,9 +2659,9 @@
       </c>
       <c r="M35" s="11"/>
       <c r="N35" s="11"/>
-      <c r="O35" s="81"/>
-      <c r="P35" s="82"/>
-      <c r="Q35" s="83"/>
+      <c r="O35" s="85"/>
+      <c r="P35" s="86"/>
+      <c r="Q35" s="87"/>
       <c r="R35" s="14"/>
       <c r="S35" s="4"/>
     </row>
@@ -2666,9 +2696,9 @@
       </c>
       <c r="M36" s="11"/>
       <c r="N36" s="11"/>
-      <c r="O36" s="81"/>
-      <c r="P36" s="82"/>
-      <c r="Q36" s="83"/>
+      <c r="O36" s="85"/>
+      <c r="P36" s="86"/>
+      <c r="Q36" s="87"/>
       <c r="R36" s="14"/>
       <c r="S36" s="4"/>
     </row>
@@ -2697,9 +2727,9 @@
       <c r="K37" s="1"/>
       <c r="M37" s="11"/>
       <c r="N37" s="11"/>
-      <c r="O37" s="81"/>
-      <c r="P37" s="82"/>
-      <c r="Q37" s="83"/>
+      <c r="O37" s="85"/>
+      <c r="P37" s="86"/>
+      <c r="Q37" s="87"/>
       <c r="R37" s="14"/>
       <c r="S37" s="4"/>
     </row>
@@ -2726,9 +2756,9 @@
       <c r="K38" s="1"/>
       <c r="M38" s="11"/>
       <c r="N38" s="11"/>
-      <c r="O38" s="81"/>
-      <c r="P38" s="82"/>
-      <c r="Q38" s="83"/>
+      <c r="O38" s="85"/>
+      <c r="P38" s="86"/>
+      <c r="Q38" s="87"/>
       <c r="R38" s="14"/>
       <c r="S38" s="4"/>
     </row>
@@ -2737,9 +2767,9 @@
       <c r="J39" s="9"/>
       <c r="M39" s="11"/>
       <c r="N39" s="11"/>
-      <c r="O39" s="81"/>
-      <c r="P39" s="82"/>
-      <c r="Q39" s="83"/>
+      <c r="O39" s="85"/>
+      <c r="P39" s="86"/>
+      <c r="Q39" s="87"/>
       <c r="R39" s="14"/>
       <c r="S39" s="4"/>
     </row>
@@ -2748,154 +2778,154 @@
       <c r="J40" s="9"/>
       <c r="M40" s="11"/>
       <c r="N40" s="11"/>
-      <c r="O40" s="81"/>
-      <c r="P40" s="82"/>
-      <c r="Q40" s="83"/>
+      <c r="O40" s="85"/>
+      <c r="P40" s="86"/>
+      <c r="Q40" s="87"/>
       <c r="R40" s="14"/>
       <c r="S40" s="4"/>
     </row>
     <row r="41" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="O41" s="84"/>
-      <c r="P41" s="85"/>
-      <c r="Q41" s="86"/>
+      <c r="O41" s="88"/>
+      <c r="P41" s="89"/>
+      <c r="Q41" s="90"/>
       <c r="R41" s="16"/>
       <c r="S41" s="17"/>
     </row>
     <row r="43" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="44" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B44" s="30" t="s">
+      <c r="B44" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="C44" s="31"/>
-      <c r="D44" s="31"/>
-      <c r="E44" s="31"/>
-      <c r="F44" s="31"/>
-      <c r="G44" s="31"/>
-      <c r="H44" s="31"/>
-      <c r="I44" s="31"/>
-      <c r="J44" s="31"/>
-      <c r="K44" s="31"/>
-      <c r="L44" s="32"/>
+      <c r="C44" s="32"/>
+      <c r="D44" s="32"/>
+      <c r="E44" s="32"/>
+      <c r="F44" s="32"/>
+      <c r="G44" s="32"/>
+      <c r="H44" s="32"/>
+      <c r="I44" s="32"/>
+      <c r="J44" s="32"/>
+      <c r="K44" s="32"/>
+      <c r="L44" s="33"/>
     </row>
     <row r="45" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="33"/>
-      <c r="C45" s="34"/>
-      <c r="D45" s="34"/>
-      <c r="E45" s="34"/>
-      <c r="F45" s="34"/>
-      <c r="G45" s="34"/>
-      <c r="H45" s="34"/>
-      <c r="I45" s="34"/>
-      <c r="J45" s="34"/>
-      <c r="K45" s="34"/>
-      <c r="L45" s="35"/>
+      <c r="B45" s="34"/>
+      <c r="C45" s="35"/>
+      <c r="D45" s="35"/>
+      <c r="E45" s="35"/>
+      <c r="F45" s="35"/>
+      <c r="G45" s="35"/>
+      <c r="H45" s="35"/>
+      <c r="I45" s="35"/>
+      <c r="J45" s="35"/>
+      <c r="K45" s="35"/>
+      <c r="L45" s="36"/>
     </row>
     <row r="46" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="36" t="s">
+      <c r="B46" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="C46" s="38" t="s">
+      <c r="C46" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="D46" s="38"/>
-      <c r="E46" s="38"/>
-      <c r="F46" s="38"/>
-      <c r="G46" s="38"/>
-      <c r="H46" s="38"/>
-      <c r="I46" s="38"/>
-      <c r="J46" s="38"/>
-      <c r="K46" s="38"/>
-      <c r="L46" s="39"/>
+      <c r="D46" s="39"/>
+      <c r="E46" s="39"/>
+      <c r="F46" s="39"/>
+      <c r="G46" s="39"/>
+      <c r="H46" s="39"/>
+      <c r="I46" s="39"/>
+      <c r="J46" s="39"/>
+      <c r="K46" s="39"/>
+      <c r="L46" s="40"/>
     </row>
     <row r="47" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="37"/>
-      <c r="C47" s="40" t="s">
+      <c r="B47" s="38"/>
+      <c r="C47" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="D47" s="41"/>
-      <c r="E47" s="41"/>
-      <c r="F47" s="41"/>
-      <c r="G47" s="41"/>
-      <c r="H47" s="41"/>
-      <c r="I47" s="41"/>
-      <c r="J47" s="41"/>
-      <c r="K47" s="41"/>
-      <c r="L47" s="42"/>
+      <c r="D47" s="42"/>
+      <c r="E47" s="42"/>
+      <c r="F47" s="42"/>
+      <c r="G47" s="42"/>
+      <c r="H47" s="42"/>
+      <c r="I47" s="42"/>
+      <c r="J47" s="42"/>
+      <c r="K47" s="42"/>
+      <c r="L47" s="43"/>
     </row>
     <row r="48" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="37"/>
-      <c r="C48" s="43" t="s">
+      <c r="B48" s="38"/>
+      <c r="C48" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="D48" s="44"/>
-      <c r="E48" s="44"/>
-      <c r="F48" s="44"/>
-      <c r="G48" s="44"/>
-      <c r="H48" s="44"/>
-      <c r="I48" s="44"/>
-      <c r="J48" s="44"/>
-      <c r="K48" s="44"/>
-      <c r="L48" s="45"/>
+      <c r="D48" s="45"/>
+      <c r="E48" s="45"/>
+      <c r="F48" s="45"/>
+      <c r="G48" s="45"/>
+      <c r="H48" s="45"/>
+      <c r="I48" s="45"/>
+      <c r="J48" s="45"/>
+      <c r="K48" s="45"/>
+      <c r="L48" s="46"/>
     </row>
     <row r="49" spans="2:12" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="18" t="s">
+      <c r="B49" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C49" s="21" t="s">
+      <c r="C49" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="D49" s="22"/>
-      <c r="E49" s="22"/>
-      <c r="F49" s="22"/>
-      <c r="G49" s="22"/>
-      <c r="H49" s="22"/>
-      <c r="I49" s="22"/>
-      <c r="J49" s="22"/>
-      <c r="K49" s="22"/>
-      <c r="L49" s="23"/>
+      <c r="D49" s="23"/>
+      <c r="E49" s="23"/>
+      <c r="F49" s="23"/>
+      <c r="G49" s="23"/>
+      <c r="H49" s="23"/>
+      <c r="I49" s="23"/>
+      <c r="J49" s="23"/>
+      <c r="K49" s="23"/>
+      <c r="L49" s="24"/>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B50" s="19"/>
-      <c r="C50" s="24"/>
-      <c r="D50" s="24"/>
-      <c r="E50" s="24"/>
-      <c r="F50" s="24"/>
-      <c r="G50" s="24"/>
-      <c r="H50" s="24"/>
-      <c r="I50" s="24"/>
-      <c r="J50" s="24"/>
-      <c r="K50" s="24"/>
-      <c r="L50" s="25"/>
+      <c r="B50" s="20"/>
+      <c r="C50" s="25"/>
+      <c r="D50" s="25"/>
+      <c r="E50" s="25"/>
+      <c r="F50" s="25"/>
+      <c r="G50" s="25"/>
+      <c r="H50" s="25"/>
+      <c r="I50" s="25"/>
+      <c r="J50" s="25"/>
+      <c r="K50" s="25"/>
+      <c r="L50" s="26"/>
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B51" s="19"/>
-      <c r="C51" s="26" t="s">
+      <c r="B51" s="20"/>
+      <c r="C51" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="D51" s="26"/>
-      <c r="E51" s="26"/>
-      <c r="F51" s="26"/>
-      <c r="G51" s="26"/>
-      <c r="H51" s="26"/>
-      <c r="I51" s="26"/>
-      <c r="J51" s="26"/>
-      <c r="K51" s="26"/>
-      <c r="L51" s="27"/>
+      <c r="D51" s="27"/>
+      <c r="E51" s="27"/>
+      <c r="F51" s="27"/>
+      <c r="G51" s="27"/>
+      <c r="H51" s="27"/>
+      <c r="I51" s="27"/>
+      <c r="J51" s="27"/>
+      <c r="K51" s="27"/>
+      <c r="L51" s="28"/>
     </row>
     <row r="52" spans="2:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="20"/>
-      <c r="C52" s="28" t="s">
+      <c r="B52" s="21"/>
+      <c r="C52" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="D52" s="28"/>
-      <c r="E52" s="28"/>
-      <c r="F52" s="28"/>
-      <c r="G52" s="28"/>
-      <c r="H52" s="28"/>
-      <c r="I52" s="28"/>
-      <c r="J52" s="28"/>
-      <c r="K52" s="28"/>
-      <c r="L52" s="29"/>
+      <c r="D52" s="29"/>
+      <c r="E52" s="29"/>
+      <c r="F52" s="29"/>
+      <c r="G52" s="29"/>
+      <c r="H52" s="29"/>
+      <c r="I52" s="29"/>
+      <c r="J52" s="29"/>
+      <c r="K52" s="29"/>
+      <c r="L52" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="46">
@@ -2955,30 +2985,30 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:S35"/>
+  <dimension ref="B3:R35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="L33" sqref="L33:R33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K3" s="119"/>
-      <c r="L3" s="119"/>
-    </row>
-    <row r="4" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="119"/>
-      <c r="C4" s="119"/>
-      <c r="D4" s="119"/>
-      <c r="E4" s="119"/>
-      <c r="F4" s="119"/>
-      <c r="G4" s="119"/>
-      <c r="H4" s="119"/>
-      <c r="I4" s="119"/>
-      <c r="J4" s="119"/>
-    </row>
-    <row r="5" spans="2:19" ht="17" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+    </row>
+    <row r="4" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+    </row>
+    <row r="5" spans="2:18" ht="17" x14ac:dyDescent="0.2">
       <c r="B5" s="120" t="s">
         <v>126</v>
       </c>
@@ -2988,531 +3018,531 @@
       <c r="F5" s="120"/>
       <c r="G5" s="120"/>
       <c r="H5" s="120"/>
-      <c r="L5" s="124" t="s">
+      <c r="L5" s="121" t="s">
         <v>132</v>
       </c>
-      <c r="M5" s="124"/>
-      <c r="N5" s="124"/>
-      <c r="O5" s="124"/>
-      <c r="P5" s="124"/>
-      <c r="Q5" s="124"/>
-      <c r="R5" s="124"/>
-    </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B7" s="90" t="s">
+      <c r="M5" s="121"/>
+      <c r="N5" s="121"/>
+      <c r="O5" s="121"/>
+      <c r="P5" s="121"/>
+      <c r="Q5" s="121"/>
+      <c r="R5" s="121"/>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B7" s="93" t="s">
         <v>125</v>
       </c>
-      <c r="C7" s="91"/>
-      <c r="D7" s="91"/>
-      <c r="E7" s="91"/>
-      <c r="F7" s="91"/>
-      <c r="G7" s="91"/>
-      <c r="H7" s="92"/>
-      <c r="L7" s="90" t="s">
+      <c r="C7" s="94"/>
+      <c r="D7" s="94"/>
+      <c r="E7" s="94"/>
+      <c r="F7" s="94"/>
+      <c r="G7" s="94"/>
+      <c r="H7" s="95"/>
+      <c r="L7" s="93" t="s">
         <v>127</v>
       </c>
-      <c r="M7" s="91"/>
-      <c r="N7" s="91"/>
-      <c r="O7" s="91"/>
-      <c r="P7" s="91"/>
-      <c r="Q7" s="91"/>
-      <c r="R7" s="92"/>
-    </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B8" s="93"/>
-      <c r="C8" s="94"/>
-      <c r="D8" s="94"/>
-      <c r="E8" s="94"/>
-      <c r="F8" s="94"/>
-      <c r="G8" s="94"/>
-      <c r="H8" s="95"/>
-      <c r="L8" s="93"/>
-      <c r="M8" s="94"/>
-      <c r="N8" s="94"/>
-      <c r="O8" s="94"/>
-      <c r="P8" s="94"/>
-      <c r="Q8" s="94"/>
-      <c r="R8" s="95"/>
-    </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B9" s="96" t="s">
+      <c r="M7" s="94"/>
+      <c r="N7" s="94"/>
+      <c r="O7" s="94"/>
+      <c r="P7" s="94"/>
+      <c r="Q7" s="94"/>
+      <c r="R7" s="95"/>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B8" s="96"/>
+      <c r="C8" s="97"/>
+      <c r="D8" s="97"/>
+      <c r="E8" s="97"/>
+      <c r="F8" s="97"/>
+      <c r="G8" s="97"/>
+      <c r="H8" s="98"/>
+      <c r="L8" s="96"/>
+      <c r="M8" s="97"/>
+      <c r="N8" s="97"/>
+      <c r="O8" s="97"/>
+      <c r="P8" s="97"/>
+      <c r="Q8" s="97"/>
+      <c r="R8" s="98"/>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B9" s="99" t="s">
         <v>119</v>
       </c>
-      <c r="C9" s="97"/>
-      <c r="D9" s="97"/>
-      <c r="E9" s="97"/>
-      <c r="F9" s="97"/>
-      <c r="G9" s="97"/>
-      <c r="H9" s="98"/>
-      <c r="L9" s="96" t="s">
+      <c r="C9" s="100"/>
+      <c r="D9" s="100"/>
+      <c r="E9" s="100"/>
+      <c r="F9" s="100"/>
+      <c r="G9" s="100"/>
+      <c r="H9" s="101"/>
+      <c r="L9" s="99" t="s">
         <v>119</v>
       </c>
-      <c r="M9" s="97"/>
-      <c r="N9" s="97"/>
-      <c r="O9" s="97"/>
-      <c r="P9" s="97"/>
-      <c r="Q9" s="97"/>
-      <c r="R9" s="98"/>
-    </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B10" s="99" t="s">
+      <c r="M9" s="100"/>
+      <c r="N9" s="100"/>
+      <c r="O9" s="100"/>
+      <c r="P9" s="100"/>
+      <c r="Q9" s="100"/>
+      <c r="R9" s="101"/>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B10" s="91" t="s">
         <v>120</v>
       </c>
-      <c r="C10" s="82"/>
-      <c r="D10" s="82"/>
-      <c r="E10" s="82"/>
-      <c r="F10" s="82"/>
-      <c r="G10" s="82"/>
-      <c r="H10" s="83"/>
-      <c r="L10" s="99" t="s">
+      <c r="C10" s="86"/>
+      <c r="D10" s="86"/>
+      <c r="E10" s="86"/>
+      <c r="F10" s="86"/>
+      <c r="G10" s="86"/>
+      <c r="H10" s="87"/>
+      <c r="L10" s="91" t="s">
         <v>120</v>
       </c>
-      <c r="M10" s="82"/>
-      <c r="N10" s="82"/>
-      <c r="O10" s="82"/>
-      <c r="P10" s="82"/>
-      <c r="Q10" s="82"/>
-      <c r="R10" s="83"/>
-    </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B11" s="99" t="s">
+      <c r="M10" s="86"/>
+      <c r="N10" s="86"/>
+      <c r="O10" s="86"/>
+      <c r="P10" s="86"/>
+      <c r="Q10" s="86"/>
+      <c r="R10" s="87"/>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B11" s="91" t="s">
         <v>115</v>
       </c>
-      <c r="C11" s="82"/>
-      <c r="D11" s="82"/>
-      <c r="E11" s="82"/>
-      <c r="F11" s="82"/>
-      <c r="G11" s="82"/>
-      <c r="H11" s="83"/>
-      <c r="L11" s="99" t="s">
+      <c r="C11" s="86"/>
+      <c r="D11" s="86"/>
+      <c r="E11" s="86"/>
+      <c r="F11" s="86"/>
+      <c r="G11" s="86"/>
+      <c r="H11" s="87"/>
+      <c r="L11" s="91" t="s">
         <v>115</v>
       </c>
-      <c r="M11" s="82"/>
-      <c r="N11" s="82"/>
-      <c r="O11" s="82"/>
-      <c r="P11" s="82"/>
-      <c r="Q11" s="82"/>
-      <c r="R11" s="83"/>
-    </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B12" s="99" t="s">
+      <c r="M11" s="86"/>
+      <c r="N11" s="86"/>
+      <c r="O11" s="86"/>
+      <c r="P11" s="86"/>
+      <c r="Q11" s="86"/>
+      <c r="R11" s="87"/>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B12" s="91" t="s">
         <v>112</v>
       </c>
-      <c r="C12" s="82"/>
-      <c r="D12" s="82"/>
-      <c r="E12" s="82"/>
-      <c r="F12" s="82"/>
-      <c r="G12" s="82"/>
-      <c r="H12" s="83"/>
-      <c r="L12" s="99" t="s">
+      <c r="C12" s="86"/>
+      <c r="D12" s="86"/>
+      <c r="E12" s="86"/>
+      <c r="F12" s="86"/>
+      <c r="G12" s="86"/>
+      <c r="H12" s="87"/>
+      <c r="L12" s="91" t="s">
         <v>113</v>
       </c>
-      <c r="M12" s="82"/>
-      <c r="N12" s="82"/>
-      <c r="O12" s="82"/>
-      <c r="P12" s="82"/>
-      <c r="Q12" s="82"/>
-      <c r="R12" s="83"/>
-    </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B13" s="100" t="s">
+      <c r="M12" s="86"/>
+      <c r="N12" s="86"/>
+      <c r="O12" s="86"/>
+      <c r="P12" s="86"/>
+      <c r="Q12" s="86"/>
+      <c r="R12" s="87"/>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B13" s="92" t="s">
         <v>116</v>
       </c>
-      <c r="C13" s="52"/>
-      <c r="D13" s="52"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="52"/>
-      <c r="H13" s="53"/>
-      <c r="L13" s="100"/>
-      <c r="M13" s="52"/>
-      <c r="N13" s="52"/>
-      <c r="O13" s="52"/>
-      <c r="P13" s="52"/>
-      <c r="Q13" s="52"/>
-      <c r="R13" s="53"/>
-    </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B14" s="99" t="s">
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="49"/>
+      <c r="L13" s="92"/>
+      <c r="M13" s="48"/>
+      <c r="N13" s="48"/>
+      <c r="O13" s="48"/>
+      <c r="P13" s="48"/>
+      <c r="Q13" s="48"/>
+      <c r="R13" s="49"/>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B14" s="91" t="s">
         <v>117</v>
       </c>
-      <c r="C14" s="82"/>
-      <c r="D14" s="82"/>
-      <c r="E14" s="82"/>
-      <c r="F14" s="82"/>
-      <c r="G14" s="82"/>
-      <c r="H14" s="83"/>
-      <c r="L14" s="99" t="s">
+      <c r="C14" s="86"/>
+      <c r="D14" s="86"/>
+      <c r="E14" s="86"/>
+      <c r="F14" s="86"/>
+      <c r="G14" s="86"/>
+      <c r="H14" s="87"/>
+      <c r="L14" s="91" t="s">
         <v>128</v>
       </c>
-      <c r="M14" s="82"/>
-      <c r="N14" s="82"/>
-      <c r="O14" s="82"/>
-      <c r="P14" s="82"/>
-      <c r="Q14" s="82"/>
-      <c r="R14" s="83"/>
-    </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B15" s="99" t="s">
+      <c r="M14" s="86"/>
+      <c r="N14" s="86"/>
+      <c r="O14" s="86"/>
+      <c r="P14" s="86"/>
+      <c r="Q14" s="86"/>
+      <c r="R14" s="87"/>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B15" s="91" t="s">
         <v>118</v>
       </c>
-      <c r="C15" s="82"/>
-      <c r="D15" s="82"/>
-      <c r="E15" s="82"/>
-      <c r="F15" s="82"/>
-      <c r="G15" s="82"/>
-      <c r="H15" s="83"/>
-      <c r="L15" s="99"/>
-      <c r="M15" s="82"/>
-      <c r="N15" s="82"/>
-      <c r="O15" s="82"/>
-      <c r="P15" s="82"/>
-      <c r="Q15" s="82"/>
-      <c r="R15" s="83"/>
-    </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B16" s="101" t="s">
+      <c r="C15" s="86"/>
+      <c r="D15" s="86"/>
+      <c r="E15" s="86"/>
+      <c r="F15" s="86"/>
+      <c r="G15" s="86"/>
+      <c r="H15" s="87"/>
+      <c r="L15" s="91"/>
+      <c r="M15" s="86"/>
+      <c r="N15" s="86"/>
+      <c r="O15" s="86"/>
+      <c r="P15" s="86"/>
+      <c r="Q15" s="86"/>
+      <c r="R15" s="87"/>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B16" s="105" t="s">
         <v>114</v>
       </c>
-      <c r="C16" s="102"/>
-      <c r="D16" s="102"/>
-      <c r="E16" s="102"/>
-      <c r="F16" s="102"/>
-      <c r="G16" s="102"/>
-      <c r="H16" s="103"/>
-      <c r="L16" s="101" t="s">
+      <c r="C16" s="106"/>
+      <c r="D16" s="106"/>
+      <c r="E16" s="106"/>
+      <c r="F16" s="106"/>
+      <c r="G16" s="106"/>
+      <c r="H16" s="107"/>
+      <c r="L16" s="105" t="s">
         <v>114</v>
       </c>
-      <c r="M16" s="102"/>
-      <c r="N16" s="102"/>
-      <c r="O16" s="102"/>
-      <c r="P16" s="102"/>
-      <c r="Q16" s="102"/>
-      <c r="R16" s="103"/>
+      <c r="M16" s="106"/>
+      <c r="N16" s="106"/>
+      <c r="O16" s="106"/>
+      <c r="P16" s="106"/>
+      <c r="Q16" s="106"/>
+      <c r="R16" s="107"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B17" s="104" t="s">
+      <c r="B17" s="108" t="s">
         <v>111</v>
       </c>
-      <c r="C17" s="105"/>
-      <c r="D17" s="105"/>
-      <c r="E17" s="105"/>
-      <c r="F17" s="105"/>
-      <c r="G17" s="105"/>
-      <c r="H17" s="106"/>
-      <c r="L17" s="104" t="s">
+      <c r="C17" s="109"/>
+      <c r="D17" s="109"/>
+      <c r="E17" s="109"/>
+      <c r="F17" s="109"/>
+      <c r="G17" s="109"/>
+      <c r="H17" s="110"/>
+      <c r="L17" s="108" t="s">
         <v>111</v>
       </c>
-      <c r="M17" s="105"/>
-      <c r="N17" s="105"/>
-      <c r="O17" s="105"/>
-      <c r="P17" s="105"/>
-      <c r="Q17" s="105"/>
-      <c r="R17" s="106"/>
+      <c r="M17" s="109"/>
+      <c r="N17" s="109"/>
+      <c r="O17" s="109"/>
+      <c r="P17" s="109"/>
+      <c r="Q17" s="109"/>
+      <c r="R17" s="110"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B18" s="107"/>
-      <c r="C18" s="108"/>
-      <c r="D18" s="108"/>
-      <c r="E18" s="108"/>
-      <c r="F18" s="108"/>
-      <c r="G18" s="108"/>
-      <c r="H18" s="109"/>
-      <c r="L18" s="107"/>
-      <c r="M18" s="108"/>
-      <c r="N18" s="108"/>
-      <c r="O18" s="108"/>
-      <c r="P18" s="108"/>
-      <c r="Q18" s="108"/>
-      <c r="R18" s="109"/>
+      <c r="B18" s="111"/>
+      <c r="C18" s="112"/>
+      <c r="D18" s="112"/>
+      <c r="E18" s="112"/>
+      <c r="F18" s="112"/>
+      <c r="G18" s="112"/>
+      <c r="H18" s="113"/>
+      <c r="L18" s="111"/>
+      <c r="M18" s="112"/>
+      <c r="N18" s="112"/>
+      <c r="O18" s="112"/>
+      <c r="P18" s="112"/>
+      <c r="Q18" s="112"/>
+      <c r="R18" s="113"/>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B19" s="110" t="s">
+      <c r="B19" s="114" t="s">
         <v>122</v>
       </c>
-      <c r="C19" s="111"/>
-      <c r="D19" s="111"/>
-      <c r="E19" s="111"/>
-      <c r="F19" s="111"/>
-      <c r="G19" s="111"/>
-      <c r="H19" s="112"/>
-      <c r="L19" s="110" t="s">
+      <c r="C19" s="115"/>
+      <c r="D19" s="115"/>
+      <c r="E19" s="115"/>
+      <c r="F19" s="115"/>
+      <c r="G19" s="115"/>
+      <c r="H19" s="116"/>
+      <c r="L19" s="114" t="s">
         <v>122</v>
       </c>
-      <c r="M19" s="111"/>
-      <c r="N19" s="111"/>
-      <c r="O19" s="111"/>
-      <c r="P19" s="111"/>
-      <c r="Q19" s="111"/>
-      <c r="R19" s="112"/>
+      <c r="M19" s="115"/>
+      <c r="N19" s="115"/>
+      <c r="O19" s="115"/>
+      <c r="P19" s="115"/>
+      <c r="Q19" s="115"/>
+      <c r="R19" s="116"/>
     </row>
     <row r="20" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="113" t="s">
+      <c r="B20" s="102" t="s">
         <v>121</v>
       </c>
-      <c r="C20" s="114"/>
-      <c r="D20" s="114"/>
-      <c r="E20" s="114"/>
-      <c r="F20" s="114"/>
-      <c r="G20" s="114"/>
-      <c r="H20" s="115"/>
-      <c r="L20" s="121" t="s">
+      <c r="C20" s="103"/>
+      <c r="D20" s="103"/>
+      <c r="E20" s="103"/>
+      <c r="F20" s="103"/>
+      <c r="G20" s="103"/>
+      <c r="H20" s="104"/>
+      <c r="L20" s="122" t="s">
         <v>131</v>
       </c>
-      <c r="M20" s="122"/>
-      <c r="N20" s="122"/>
-      <c r="O20" s="122"/>
-      <c r="P20" s="122"/>
-      <c r="Q20" s="122"/>
-      <c r="R20" s="123"/>
+      <c r="M20" s="123"/>
+      <c r="N20" s="123"/>
+      <c r="O20" s="123"/>
+      <c r="P20" s="123"/>
+      <c r="Q20" s="123"/>
+      <c r="R20" s="124"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B21" s="113"/>
-      <c r="C21" s="114"/>
-      <c r="D21" s="114"/>
-      <c r="E21" s="114"/>
-      <c r="F21" s="114"/>
-      <c r="G21" s="114"/>
-      <c r="H21" s="115"/>
-      <c r="L21" s="121"/>
-      <c r="M21" s="122"/>
-      <c r="N21" s="122"/>
-      <c r="O21" s="122"/>
-      <c r="P21" s="122"/>
-      <c r="Q21" s="122"/>
-      <c r="R21" s="123"/>
+      <c r="B21" s="102"/>
+      <c r="C21" s="103"/>
+      <c r="D21" s="103"/>
+      <c r="E21" s="103"/>
+      <c r="F21" s="103"/>
+      <c r="G21" s="103"/>
+      <c r="H21" s="104"/>
+      <c r="L21" s="122"/>
+      <c r="M21" s="123"/>
+      <c r="N21" s="123"/>
+      <c r="O21" s="123"/>
+      <c r="P21" s="123"/>
+      <c r="Q21" s="123"/>
+      <c r="R21" s="124"/>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B22" s="113" t="s">
+      <c r="B22" s="102" t="s">
         <v>123</v>
       </c>
-      <c r="C22" s="114"/>
-      <c r="D22" s="114"/>
-      <c r="E22" s="114"/>
-      <c r="F22" s="114"/>
-      <c r="G22" s="114"/>
-      <c r="H22" s="115"/>
-      <c r="L22" s="121"/>
-      <c r="M22" s="122"/>
-      <c r="N22" s="122"/>
-      <c r="O22" s="122"/>
-      <c r="P22" s="122"/>
-      <c r="Q22" s="122"/>
-      <c r="R22" s="123"/>
+      <c r="C22" s="103"/>
+      <c r="D22" s="103"/>
+      <c r="E22" s="103"/>
+      <c r="F22" s="103"/>
+      <c r="G22" s="103"/>
+      <c r="H22" s="104"/>
+      <c r="L22" s="122"/>
+      <c r="M22" s="123"/>
+      <c r="N22" s="123"/>
+      <c r="O22" s="123"/>
+      <c r="P22" s="123"/>
+      <c r="Q22" s="123"/>
+      <c r="R22" s="124"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B23" s="113" t="s">
+      <c r="B23" s="102" t="s">
         <v>124</v>
       </c>
-      <c r="C23" s="114"/>
-      <c r="D23" s="114"/>
-      <c r="E23" s="114"/>
-      <c r="F23" s="114"/>
-      <c r="G23" s="114"/>
-      <c r="H23" s="115"/>
-      <c r="L23" s="121"/>
-      <c r="M23" s="122"/>
-      <c r="N23" s="122"/>
-      <c r="O23" s="122"/>
-      <c r="P23" s="122"/>
-      <c r="Q23" s="122"/>
-      <c r="R23" s="123"/>
+      <c r="C23" s="103"/>
+      <c r="D23" s="103"/>
+      <c r="E23" s="103"/>
+      <c r="F23" s="103"/>
+      <c r="G23" s="103"/>
+      <c r="H23" s="104"/>
+      <c r="L23" s="122"/>
+      <c r="M23" s="123"/>
+      <c r="N23" s="123"/>
+      <c r="O23" s="123"/>
+      <c r="P23" s="123"/>
+      <c r="Q23" s="123"/>
+      <c r="R23" s="124"/>
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B24" s="113"/>
-      <c r="C24" s="114"/>
-      <c r="D24" s="114"/>
-      <c r="E24" s="114"/>
-      <c r="F24" s="114"/>
-      <c r="G24" s="114"/>
-      <c r="H24" s="115"/>
-      <c r="L24" s="121"/>
-      <c r="M24" s="122"/>
-      <c r="N24" s="122"/>
-      <c r="O24" s="122"/>
-      <c r="P24" s="122"/>
-      <c r="Q24" s="122"/>
-      <c r="R24" s="123"/>
+      <c r="B24" s="102"/>
+      <c r="C24" s="103"/>
+      <c r="D24" s="103"/>
+      <c r="E24" s="103"/>
+      <c r="F24" s="103"/>
+      <c r="G24" s="103"/>
+      <c r="H24" s="104"/>
+      <c r="L24" s="122"/>
+      <c r="M24" s="123"/>
+      <c r="N24" s="123"/>
+      <c r="O24" s="123"/>
+      <c r="P24" s="123"/>
+      <c r="Q24" s="123"/>
+      <c r="R24" s="124"/>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B25" s="113"/>
-      <c r="C25" s="114"/>
-      <c r="D25" s="114"/>
-      <c r="E25" s="114"/>
-      <c r="F25" s="114"/>
-      <c r="G25" s="114"/>
-      <c r="H25" s="115"/>
-      <c r="L25" s="121"/>
-      <c r="M25" s="122"/>
-      <c r="N25" s="122"/>
-      <c r="O25" s="122"/>
-      <c r="P25" s="122"/>
-      <c r="Q25" s="122"/>
-      <c r="R25" s="123"/>
+      <c r="B25" s="102"/>
+      <c r="C25" s="103"/>
+      <c r="D25" s="103"/>
+      <c r="E25" s="103"/>
+      <c r="F25" s="103"/>
+      <c r="G25" s="103"/>
+      <c r="H25" s="104"/>
+      <c r="L25" s="122"/>
+      <c r="M25" s="123"/>
+      <c r="N25" s="123"/>
+      <c r="O25" s="123"/>
+      <c r="P25" s="123"/>
+      <c r="Q25" s="123"/>
+      <c r="R25" s="124"/>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B26" s="113"/>
-      <c r="C26" s="114"/>
-      <c r="D26" s="114"/>
-      <c r="E26" s="114"/>
-      <c r="F26" s="114"/>
-      <c r="G26" s="114"/>
-      <c r="H26" s="115"/>
-      <c r="L26" s="121"/>
-      <c r="M26" s="122"/>
-      <c r="N26" s="122"/>
-      <c r="O26" s="122"/>
-      <c r="P26" s="122"/>
-      <c r="Q26" s="122"/>
-      <c r="R26" s="123"/>
+      <c r="B26" s="102"/>
+      <c r="C26" s="103"/>
+      <c r="D26" s="103"/>
+      <c r="E26" s="103"/>
+      <c r="F26" s="103"/>
+      <c r="G26" s="103"/>
+      <c r="H26" s="104"/>
+      <c r="L26" s="122"/>
+      <c r="M26" s="123"/>
+      <c r="N26" s="123"/>
+      <c r="O26" s="123"/>
+      <c r="P26" s="123"/>
+      <c r="Q26" s="123"/>
+      <c r="R26" s="124"/>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B27" s="113"/>
-      <c r="C27" s="114"/>
-      <c r="D27" s="114"/>
-      <c r="E27" s="114"/>
-      <c r="F27" s="114"/>
-      <c r="G27" s="114"/>
-      <c r="H27" s="115"/>
-      <c r="L27" s="121"/>
-      <c r="M27" s="122"/>
-      <c r="N27" s="122"/>
-      <c r="O27" s="122"/>
-      <c r="P27" s="122"/>
-      <c r="Q27" s="122"/>
-      <c r="R27" s="123"/>
+      <c r="B27" s="102"/>
+      <c r="C27" s="103"/>
+      <c r="D27" s="103"/>
+      <c r="E27" s="103"/>
+      <c r="F27" s="103"/>
+      <c r="G27" s="103"/>
+      <c r="H27" s="104"/>
+      <c r="L27" s="122"/>
+      <c r="M27" s="123"/>
+      <c r="N27" s="123"/>
+      <c r="O27" s="123"/>
+      <c r="P27" s="123"/>
+      <c r="Q27" s="123"/>
+      <c r="R27" s="124"/>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B28" s="113"/>
-      <c r="C28" s="114"/>
-      <c r="D28" s="114"/>
-      <c r="E28" s="114"/>
-      <c r="F28" s="114"/>
-      <c r="G28" s="114"/>
-      <c r="H28" s="115"/>
-      <c r="L28" s="121"/>
-      <c r="M28" s="122"/>
-      <c r="N28" s="122"/>
-      <c r="O28" s="122"/>
-      <c r="P28" s="122"/>
-      <c r="Q28" s="122"/>
-      <c r="R28" s="123"/>
+      <c r="B28" s="102"/>
+      <c r="C28" s="103"/>
+      <c r="D28" s="103"/>
+      <c r="E28" s="103"/>
+      <c r="F28" s="103"/>
+      <c r="G28" s="103"/>
+      <c r="H28" s="104"/>
+      <c r="L28" s="122"/>
+      <c r="M28" s="123"/>
+      <c r="N28" s="123"/>
+      <c r="O28" s="123"/>
+      <c r="P28" s="123"/>
+      <c r="Q28" s="123"/>
+      <c r="R28" s="124"/>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B29" s="113"/>
-      <c r="C29" s="114"/>
-      <c r="D29" s="114"/>
-      <c r="E29" s="114"/>
-      <c r="F29" s="114"/>
-      <c r="G29" s="114"/>
-      <c r="H29" s="115"/>
-      <c r="L29" s="113"/>
-      <c r="M29" s="114"/>
-      <c r="N29" s="114"/>
-      <c r="O29" s="114"/>
-      <c r="P29" s="114"/>
-      <c r="Q29" s="114"/>
-      <c r="R29" s="115"/>
+      <c r="B29" s="102"/>
+      <c r="C29" s="103"/>
+      <c r="D29" s="103"/>
+      <c r="E29" s="103"/>
+      <c r="F29" s="103"/>
+      <c r="G29" s="103"/>
+      <c r="H29" s="104"/>
+      <c r="L29" s="102"/>
+      <c r="M29" s="103"/>
+      <c r="N29" s="103"/>
+      <c r="O29" s="103"/>
+      <c r="P29" s="103"/>
+      <c r="Q29" s="103"/>
+      <c r="R29" s="104"/>
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B30" s="113"/>
-      <c r="C30" s="114"/>
-      <c r="D30" s="114"/>
-      <c r="E30" s="114"/>
-      <c r="F30" s="114"/>
-      <c r="G30" s="114"/>
-      <c r="H30" s="115"/>
-      <c r="L30" s="113"/>
-      <c r="M30" s="114"/>
-      <c r="N30" s="114"/>
-      <c r="O30" s="114"/>
-      <c r="P30" s="114"/>
-      <c r="Q30" s="114"/>
-      <c r="R30" s="115"/>
+      <c r="B30" s="102"/>
+      <c r="C30" s="103"/>
+      <c r="D30" s="103"/>
+      <c r="E30" s="103"/>
+      <c r="F30" s="103"/>
+      <c r="G30" s="103"/>
+      <c r="H30" s="104"/>
+      <c r="L30" s="102"/>
+      <c r="M30" s="103"/>
+      <c r="N30" s="103"/>
+      <c r="O30" s="103"/>
+      <c r="P30" s="103"/>
+      <c r="Q30" s="103"/>
+      <c r="R30" s="104"/>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B31" s="113"/>
-      <c r="C31" s="114"/>
-      <c r="D31" s="114"/>
-      <c r="E31" s="114"/>
-      <c r="F31" s="114"/>
-      <c r="G31" s="114"/>
-      <c r="H31" s="115"/>
-      <c r="L31" s="113" t="s">
+      <c r="B31" s="102"/>
+      <c r="C31" s="103"/>
+      <c r="D31" s="103"/>
+      <c r="E31" s="103"/>
+      <c r="F31" s="103"/>
+      <c r="G31" s="103"/>
+      <c r="H31" s="104"/>
+      <c r="L31" s="102" t="s">
         <v>130</v>
       </c>
-      <c r="M31" s="114"/>
-      <c r="N31" s="114"/>
-      <c r="O31" s="114"/>
-      <c r="P31" s="114"/>
-      <c r="Q31" s="114"/>
-      <c r="R31" s="115"/>
+      <c r="M31" s="103"/>
+      <c r="N31" s="103"/>
+      <c r="O31" s="103"/>
+      <c r="P31" s="103"/>
+      <c r="Q31" s="103"/>
+      <c r="R31" s="104"/>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B32" s="113"/>
-      <c r="C32" s="114"/>
-      <c r="D32" s="114"/>
-      <c r="E32" s="114"/>
-      <c r="F32" s="114"/>
-      <c r="G32" s="114"/>
-      <c r="H32" s="115"/>
-      <c r="L32" s="113" t="s">
+      <c r="B32" s="102"/>
+      <c r="C32" s="103"/>
+      <c r="D32" s="103"/>
+      <c r="E32" s="103"/>
+      <c r="F32" s="103"/>
+      <c r="G32" s="103"/>
+      <c r="H32" s="104"/>
+      <c r="L32" s="102" t="s">
         <v>129</v>
       </c>
-      <c r="M32" s="114"/>
-      <c r="N32" s="114"/>
-      <c r="O32" s="114"/>
-      <c r="P32" s="114"/>
-      <c r="Q32" s="114"/>
-      <c r="R32" s="115"/>
+      <c r="M32" s="103"/>
+      <c r="N32" s="103"/>
+      <c r="O32" s="103"/>
+      <c r="P32" s="103"/>
+      <c r="Q32" s="103"/>
+      <c r="R32" s="104"/>
     </row>
     <row r="33" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B33" s="113"/>
-      <c r="C33" s="114"/>
-      <c r="D33" s="114"/>
-      <c r="E33" s="114"/>
-      <c r="F33" s="114"/>
-      <c r="G33" s="114"/>
-      <c r="H33" s="115"/>
-      <c r="L33" s="113"/>
-      <c r="M33" s="114"/>
-      <c r="N33" s="114"/>
-      <c r="O33" s="114"/>
-      <c r="P33" s="114"/>
-      <c r="Q33" s="114"/>
-      <c r="R33" s="115"/>
+      <c r="B33" s="102"/>
+      <c r="C33" s="103"/>
+      <c r="D33" s="103"/>
+      <c r="E33" s="103"/>
+      <c r="F33" s="103"/>
+      <c r="G33" s="103"/>
+      <c r="H33" s="104"/>
+      <c r="L33" s="102"/>
+      <c r="M33" s="103"/>
+      <c r="N33" s="103"/>
+      <c r="O33" s="103"/>
+      <c r="P33" s="103"/>
+      <c r="Q33" s="103"/>
+      <c r="R33" s="104"/>
     </row>
     <row r="34" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B34" s="113"/>
-      <c r="C34" s="114"/>
-      <c r="D34" s="114"/>
-      <c r="E34" s="114"/>
-      <c r="F34" s="114"/>
-      <c r="G34" s="114"/>
-      <c r="H34" s="115"/>
-      <c r="L34" s="113"/>
-      <c r="M34" s="114"/>
-      <c r="N34" s="114"/>
-      <c r="O34" s="114"/>
-      <c r="P34" s="114"/>
-      <c r="Q34" s="114"/>
-      <c r="R34" s="115"/>
+      <c r="B34" s="102"/>
+      <c r="C34" s="103"/>
+      <c r="D34" s="103"/>
+      <c r="E34" s="103"/>
+      <c r="F34" s="103"/>
+      <c r="G34" s="103"/>
+      <c r="H34" s="104"/>
+      <c r="L34" s="102"/>
+      <c r="M34" s="103"/>
+      <c r="N34" s="103"/>
+      <c r="O34" s="103"/>
+      <c r="P34" s="103"/>
+      <c r="Q34" s="103"/>
+      <c r="R34" s="104"/>
     </row>
     <row r="35" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B35" s="116"/>
-      <c r="C35" s="117"/>
-      <c r="D35" s="117"/>
-      <c r="E35" s="117"/>
-      <c r="F35" s="117"/>
-      <c r="G35" s="117"/>
-      <c r="H35" s="118"/>
-      <c r="L35" s="116"/>
-      <c r="M35" s="117"/>
-      <c r="N35" s="117"/>
-      <c r="O35" s="117"/>
-      <c r="P35" s="117"/>
-      <c r="Q35" s="117"/>
-      <c r="R35" s="118"/>
+      <c r="B35" s="117"/>
+      <c r="C35" s="118"/>
+      <c r="D35" s="118"/>
+      <c r="E35" s="118"/>
+      <c r="F35" s="118"/>
+      <c r="G35" s="118"/>
+      <c r="H35" s="119"/>
+      <c r="L35" s="117"/>
+      <c r="M35" s="118"/>
+      <c r="N35" s="118"/>
+      <c r="O35" s="118"/>
+      <c r="P35" s="118"/>
+      <c r="Q35" s="118"/>
+      <c r="R35" s="119"/>
     </row>
   </sheetData>
   <mergeCells count="48">
@@ -3531,12 +3561,13 @@
     <mergeCell ref="L16:R16"/>
     <mergeCell ref="L17:R18"/>
     <mergeCell ref="L19:R19"/>
+    <mergeCell ref="L12:R12"/>
     <mergeCell ref="B5:H5"/>
     <mergeCell ref="L7:R8"/>
     <mergeCell ref="L9:R9"/>
     <mergeCell ref="L10:R10"/>
     <mergeCell ref="L11:R11"/>
-    <mergeCell ref="L12:R12"/>
+    <mergeCell ref="B11:H11"/>
     <mergeCell ref="B34:H34"/>
     <mergeCell ref="B35:H35"/>
     <mergeCell ref="B28:H28"/>
@@ -3545,18 +3576,17 @@
     <mergeCell ref="B31:H31"/>
     <mergeCell ref="B32:H32"/>
     <mergeCell ref="B33:H33"/>
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="B23:H23"/>
-    <mergeCell ref="B24:H24"/>
-    <mergeCell ref="B25:H25"/>
-    <mergeCell ref="B26:H26"/>
     <mergeCell ref="B27:H27"/>
     <mergeCell ref="B16:H16"/>
     <mergeCell ref="B17:H18"/>
     <mergeCell ref="B19:H19"/>
     <mergeCell ref="B20:H20"/>
     <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="B24:H24"/>
+    <mergeCell ref="B25:H25"/>
+    <mergeCell ref="B26:H26"/>
     <mergeCell ref="B12:H12"/>
     <mergeCell ref="B13:H13"/>
     <mergeCell ref="B14:H14"/>

--- a/GoodAndBetter_Schema.xlsx
+++ b/GoodAndBetter_Schema.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26018"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Wan/Desktop/GoodAndBetter/git/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Good And Better\git\Good-Better\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14560"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14565"/>
   </bookViews>
   <sheets>
     <sheet name="Shema" sheetId="3" r:id="rId1"/>
@@ -17,18 +17,18 @@
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="135">
   <si>
     <t>version</t>
   </si>
@@ -142,9 +142,6 @@
     <t>체크리스트</t>
   </si>
   <si>
-    <t>문의하기</t>
-  </si>
-  <si>
     <t>초기 문서 정리</t>
   </si>
   <si>
@@ -235,63 +232,26 @@
     <t>CHE_Repotting</t>
   </si>
   <si>
+    <t>가능한한 줄임말을 쓰지 않는다. (ex: FAVT (x) -&gt; FAVORITE (o) )            - 단, ID나 NFC 등 약어가 이미 대표말로 쓰일 경우나 테이블 명이 너무 길어질 때는 제외한다.</t>
+  </si>
+  <si>
+    <t>CHE_Indate</t>
+  </si>
+  <si>
+    <t>년월일까지</t>
+  </si>
+  <si>
+    <t>MEM_Isadmin</t>
+  </si>
+  <si>
+    <t>관리자 여부</t>
+  </si>
+  <si>
+    <t>MEM_Code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>PK</t>
-  </si>
-  <si>
-    <t>QUESTION</t>
-  </si>
-  <si>
-    <t>QUE_Code</t>
-  </si>
-  <si>
-    <t>QUE_Content</t>
-  </si>
-  <si>
-    <t>varchar</t>
-  </si>
-  <si>
-    <t>답변</t>
-  </si>
-  <si>
-    <t>REPLY</t>
-  </si>
-  <si>
-    <t>REP_Code</t>
-  </si>
-  <si>
-    <t>REP_Content</t>
-  </si>
-  <si>
-    <t>REP_InDate</t>
-  </si>
-  <si>
-    <t>가능한한 줄임말을 쓰지 않는다. (ex: FAVT (x) -&gt; FAVORITE (o) )            - 단, ID나 NFC 등 약어가 이미 대표말로 쓰일 경우나 테이블 명이 너무 길어질 때는 제외한다.</t>
-  </si>
-  <si>
-    <t>CHE_Indate</t>
-  </si>
-  <si>
-    <t>년월일까지</t>
-  </si>
-  <si>
-    <t>QUE_Indate</t>
-  </si>
-  <si>
-    <t>MEM_Isadmin</t>
-  </si>
-  <si>
-    <t>관리자 여부</t>
-  </si>
-  <si>
-    <t>MEM_Code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -386,10 +346,6 @@
   </si>
   <si>
     <t>굿앤배러 직원.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>v 0.1.2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -494,6 +450,54 @@
   </si>
   <si>
     <t>교체</t>
+  </si>
+  <si>
+    <t>Q&amp;A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TALK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TAL_Code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TAL_Question</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLA_Code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TAL_Questionindate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TAL_Reply</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(1000)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TAL_Replyindate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>timestamp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v 0.3.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>질의응답 테이블 1개로 통합.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -504,14 +508,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -534,7 +538,7 @@
       <b/>
       <sz val="22"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -542,7 +546,7 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -551,7 +555,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -560,7 +564,7 @@
       <u/>
       <sz val="11"/>
       <color theme="11"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -569,7 +573,7 @@
       <b/>
       <sz val="26"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -577,7 +581,7 @@
     <font>
       <sz val="18"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -585,7 +589,7 @@
     <font>
       <sz val="13"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1524,11 +1528,11 @@
     </xf>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="3" builtinId="8" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1851,33 +1855,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="S18" sqref="S18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.1640625" customWidth="1"/>
+    <col min="12" max="12" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.125" customWidth="1"/>
     <col min="16" max="16" width="8" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="G1" s="53" t="s">
         <v>28</v>
       </c>
@@ -1886,14 +1890,14 @@
       <c r="J1" s="54"/>
       <c r="K1" s="55"/>
     </row>
-    <row r="2" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G2" s="56"/>
       <c r="H2" s="57"/>
       <c r="I2" s="57"/>
       <c r="J2" s="57"/>
       <c r="K2" s="58"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="G3" s="59" t="s">
         <v>0</v>
       </c>
@@ -1901,10 +1905,10 @@
       <c r="I3" s="60"/>
       <c r="J3" s="61"/>
       <c r="K3" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="G4" s="62" t="s">
         <v>1</v>
       </c>
@@ -1912,10 +1916,10 @@
       <c r="I4" s="63"/>
       <c r="J4" s="64"/>
       <c r="K4" s="5">
-        <v>42181</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+        <v>42207</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G5" s="65" t="s">
         <v>2</v>
       </c>
@@ -1926,8 +1930,8 @@
         <v>42175</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:19" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:19" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -1947,7 +1951,7 @@
       <c r="P8" s="10"/>
       <c r="Q8" s="10"/>
     </row>
-    <row r="9" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -1971,33 +1975,33 @@
       <c r="R9" s="69"/>
       <c r="S9" s="70"/>
     </row>
-    <row r="10" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="H10" s="1" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="M10" s="11"/>
       <c r="N10" s="11"/>
@@ -2007,7 +2011,7 @@
       <c r="R10" s="72"/>
       <c r="S10" s="73"/>
     </row>
-    <row r="11" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -2018,22 +2022,22 @@
         <v>14</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="M11" s="11"/>
       <c r="N11" s="11"/>
@@ -2049,7 +2053,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -2063,76 +2067,76 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="M12" s="11"/>
       <c r="N12" s="11"/>
       <c r="O12" s="77" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P12" s="45"/>
       <c r="Q12" s="78"/>
       <c r="R12" s="14" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="S12" s="5">
         <v>42175</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="H13" s="1" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="M13" s="11"/>
       <c r="N13" s="11"/>
       <c r="O13" s="50" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="P13" s="48"/>
       <c r="Q13" s="49"/>
       <c r="R13" s="14" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="S13" s="15">
         <v>42177</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M14" s="11"/>
       <c r="N14" s="11"/>
       <c r="O14" s="50" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="P14" s="48"/>
       <c r="Q14" s="49"/>
       <c r="R14" s="14" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="S14" s="5">
         <v>42181</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -2150,23 +2154,23 @@
       <c r="M15" s="12"/>
       <c r="N15" s="12"/>
       <c r="O15" s="47" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="P15" s="48"/>
       <c r="Q15" s="49"/>
       <c r="R15" s="52" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="S15" s="51">
         <v>42192</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>6</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -2184,48 +2188,48 @@
       <c r="R16" s="52"/>
       <c r="S16" s="51"/>
     </row>
-    <row r="17" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>8</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="G17" s="1" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="I17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J17" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="M17" s="13"/>
       <c r="N17" s="13"/>
       <c r="O17" s="82" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="P17" s="83"/>
       <c r="Q17" s="84"/>
       <c r="R17" s="52"/>
       <c r="S17" s="51"/>
     </row>
-    <row r="18" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -2236,35 +2240,41 @@
         <v>18</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M18" s="13"/>
       <c r="N18" s="13"/>
-      <c r="O18" s="79"/>
+      <c r="O18" s="79" t="s">
+        <v>134</v>
+      </c>
       <c r="P18" s="80"/>
       <c r="Q18" s="81"/>
-      <c r="R18" s="14"/>
-      <c r="S18" s="15"/>
-    </row>
-    <row r="19" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R18" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="S18" s="15">
+        <v>42207</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -2272,7 +2282,7 @@
         <v>16</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -2289,34 +2299,34 @@
       <c r="R19" s="14"/>
       <c r="S19" s="15"/>
     </row>
-    <row r="20" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>9</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="I20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J20" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="M20" s="12"/>
       <c r="N20" s="12"/>
@@ -2326,7 +2336,7 @@
       <c r="R20" s="14"/>
       <c r="S20" s="5"/>
     </row>
-    <row r="21" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M21" s="12"/>
       <c r="N21" s="12"/>
       <c r="O21" s="82"/>
@@ -2335,7 +2345,7 @@
       <c r="R21" s="14"/>
       <c r="S21" s="15"/>
     </row>
-    <row r="22" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M22" s="12"/>
       <c r="N22" s="12"/>
       <c r="O22" s="82"/>
@@ -2344,7 +2354,7 @@
       <c r="R22" s="14"/>
       <c r="S22" s="15"/>
     </row>
-    <row r="23" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M23" s="12"/>
       <c r="N23" s="12"/>
       <c r="O23" s="82"/>
@@ -2353,7 +2363,7 @@
       <c r="R23" s="14"/>
       <c r="S23" s="15"/>
     </row>
-    <row r="24" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>3</v>
       </c>
@@ -2376,12 +2386,12 @@
       <c r="R24" s="14"/>
       <c r="S24" s="15"/>
     </row>
-    <row r="25" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>6</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -2399,39 +2409,39 @@
       <c r="R25" s="14"/>
       <c r="S25" s="15"/>
     </row>
-    <row r="26" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>8</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="E26" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="F26" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="G26" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="H26" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="G26" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>61</v>
-      </c>
       <c r="I26" s="3" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N26" s="11"/>
       <c r="O26" s="82"/>
@@ -2440,7 +2450,7 @@
       <c r="R26" s="14"/>
       <c r="S26" s="15"/>
     </row>
-    <row r="27" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>12</v>
       </c>
@@ -2448,28 +2458,28 @@
         <v>18</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K27" s="2" t="s">
         <v>18</v>
@@ -2481,12 +2491,12 @@
       <c r="R27" s="14"/>
       <c r="S27" s="5"/>
     </row>
-    <row r="28" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>15</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -2497,7 +2507,7 @@
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N28" s="11"/>
       <c r="O28" s="85"/>
@@ -2506,36 +2516,36 @@
       <c r="R28" s="14"/>
       <c r="S28" s="5"/>
     </row>
-    <row r="29" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>9</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="K29" s="1"/>
       <c r="N29" s="11"/>
@@ -2545,7 +2555,7 @@
       <c r="R29" s="14"/>
       <c r="S29" s="4"/>
     </row>
-    <row r="30" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M30" s="11"/>
       <c r="N30" s="11"/>
       <c r="O30" s="85"/>
@@ -2554,7 +2564,7 @@
       <c r="R30" s="14"/>
       <c r="S30" s="4"/>
     </row>
-    <row r="31" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M31" s="11"/>
       <c r="N31" s="11"/>
       <c r="O31" s="85"/>
@@ -2563,7 +2573,7 @@
       <c r="R31" s="14"/>
       <c r="S31" s="4"/>
     </row>
-    <row r="32" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M32" s="11"/>
       <c r="N32" s="11"/>
       <c r="O32" s="85"/>
@@ -2572,25 +2582,20 @@
       <c r="R32" s="14"/>
       <c r="S32" s="4"/>
     </row>
-    <row r="33" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>3</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>31</v>
+        <v>123</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
-      <c r="G33" t="s">
-        <v>3</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>67</v>
-      </c>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
       <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
       <c r="M33" s="11"/>
       <c r="N33" s="11"/>
       <c r="O33" s="85"/>
@@ -2599,25 +2604,20 @@
       <c r="R33" s="14"/>
       <c r="S33" s="4"/>
     </row>
-    <row r="34" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>6</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>63</v>
+        <v>124</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
-      <c r="G34" t="s">
-        <v>6</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>68</v>
-      </c>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
       <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
       <c r="M34" s="11"/>
       <c r="N34" s="11"/>
       <c r="O34" s="85"/>
@@ -2626,37 +2626,30 @@
       <c r="R34" s="14"/>
       <c r="S34" s="4"/>
     </row>
-    <row r="35" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>8</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>64</v>
+        <v>125</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>65</v>
+        <v>126</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>44</v>
+        <v>127</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G35" t="s">
-        <v>8</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="K35" s="1" t="s">
-        <v>71</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
       <c r="M35" s="11"/>
       <c r="N35" s="11"/>
       <c r="O35" s="85"/>
@@ -2665,7 +2658,7 @@
       <c r="R35" s="14"/>
       <c r="S35" s="4"/>
     </row>
-    <row r="36" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>12</v>
       </c>
@@ -2673,27 +2666,22 @@
         <v>13</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>66</v>
+        <v>130</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G36" t="s">
-        <v>12</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>80</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="H36" s="2"/>
       <c r="I36" s="2"/>
-      <c r="J36" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="K36" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="M36" s="11"/>
       <c r="N36" s="11"/>
       <c r="O36" s="85"/>
@@ -2702,7 +2690,7 @@
       <c r="R36" s="14"/>
       <c r="S36" s="4"/>
     </row>
-    <row r="37" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>15</v>
       </c>
@@ -2714,17 +2702,10 @@
         <v>17</v>
       </c>
       <c r="E37" s="1"/>
-      <c r="G37" t="s">
-        <v>15</v>
-      </c>
-      <c r="H37" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
       <c r="M37" s="11"/>
       <c r="N37" s="11"/>
       <c r="O37" s="85"/>
@@ -2733,27 +2714,22 @@
       <c r="R37" s="14"/>
       <c r="S37" s="4"/>
     </row>
-    <row r="38" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>9</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
-      <c r="G38" t="s">
-        <v>9</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>81</v>
-      </c>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
       <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
       <c r="M38" s="11"/>
       <c r="N38" s="11"/>
       <c r="O38" s="85"/>
@@ -2762,7 +2738,7 @@
       <c r="R38" s="14"/>
       <c r="S38" s="4"/>
     </row>
-    <row r="39" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="M39" s="11"/>
@@ -2773,7 +2749,7 @@
       <c r="R39" s="14"/>
       <c r="S39" s="4"/>
     </row>
-    <row r="40" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="M40" s="11"/>
@@ -2784,15 +2760,15 @@
       <c r="R40" s="14"/>
       <c r="S40" s="4"/>
     </row>
-    <row r="41" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="O41" s="88"/>
       <c r="P41" s="89"/>
       <c r="Q41" s="90"/>
       <c r="R41" s="16"/>
       <c r="S41" s="17"/>
     </row>
-    <row r="43" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B44" s="31" t="s">
         <v>19</v>
       </c>
@@ -2807,7 +2783,7 @@
       <c r="K44" s="32"/>
       <c r="L44" s="33"/>
     </row>
-    <row r="45" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B45" s="34"/>
       <c r="C45" s="35"/>
       <c r="D45" s="35"/>
@@ -2820,7 +2796,7 @@
       <c r="K45" s="35"/>
       <c r="L45" s="36"/>
     </row>
-    <row r="46" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="37" t="s">
         <v>20</v>
       </c>
@@ -2837,10 +2813,10 @@
       <c r="K46" s="39"/>
       <c r="L46" s="40"/>
     </row>
-    <row r="47" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B47" s="38"/>
       <c r="C47" s="41" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D47" s="42"/>
       <c r="E47" s="42"/>
@@ -2852,7 +2828,7 @@
       <c r="K47" s="42"/>
       <c r="L47" s="43"/>
     </row>
-    <row r="48" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B48" s="38"/>
       <c r="C48" s="44" t="s">
         <v>22</v>
@@ -2867,7 +2843,7 @@
       <c r="K48" s="45"/>
       <c r="L48" s="46"/>
     </row>
-    <row r="49" spans="2:12" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:12" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B49" s="19" t="s">
         <v>23</v>
       </c>
@@ -2884,7 +2860,7 @@
       <c r="K49" s="23"/>
       <c r="L49" s="24"/>
     </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B50" s="20"/>
       <c r="C50" s="25"/>
       <c r="D50" s="25"/>
@@ -2897,7 +2873,7 @@
       <c r="K50" s="25"/>
       <c r="L50" s="26"/>
     </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B51" s="20"/>
       <c r="C51" s="27" t="s">
         <v>25</v>
@@ -2912,7 +2888,7 @@
       <c r="K51" s="27"/>
       <c r="L51" s="28"/>
     </row>
-    <row r="52" spans="2:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B52" s="21"/>
       <c r="C52" s="29" t="s">
         <v>26</v>
@@ -2991,13 +2967,13 @@
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="3" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="K3" s="18"/>
       <c r="L3" s="18"/>
     </row>
-    <row r="4" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="18"/>
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
@@ -3008,9 +2984,9 @@
       <c r="I4" s="18"/>
       <c r="J4" s="18"/>
     </row>
-    <row r="5" spans="2:18" ht="17" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:18" ht="19.5" x14ac:dyDescent="0.3">
       <c r="B5" s="120" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="C5" s="120"/>
       <c r="D5" s="120"/>
@@ -3019,7 +2995,7 @@
       <c r="G5" s="120"/>
       <c r="H5" s="120"/>
       <c r="L5" s="121" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="M5" s="121"/>
       <c r="N5" s="121"/>
@@ -3028,9 +3004,9 @@
       <c r="Q5" s="121"/>
       <c r="R5" s="121"/>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B7" s="93" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="C7" s="94"/>
       <c r="D7" s="94"/>
@@ -3039,7 +3015,7 @@
       <c r="G7" s="94"/>
       <c r="H7" s="95"/>
       <c r="L7" s="93" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="M7" s="94"/>
       <c r="N7" s="94"/>
@@ -3048,7 +3024,7 @@
       <c r="Q7" s="94"/>
       <c r="R7" s="95"/>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B8" s="96"/>
       <c r="C8" s="97"/>
       <c r="D8" s="97"/>
@@ -3064,9 +3040,9 @@
       <c r="Q8" s="97"/>
       <c r="R8" s="98"/>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B9" s="99" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="C9" s="100"/>
       <c r="D9" s="100"/>
@@ -3075,7 +3051,7 @@
       <c r="G9" s="100"/>
       <c r="H9" s="101"/>
       <c r="L9" s="99" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="M9" s="100"/>
       <c r="N9" s="100"/>
@@ -3084,9 +3060,9 @@
       <c r="Q9" s="100"/>
       <c r="R9" s="101"/>
     </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B10" s="91" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="C10" s="86"/>
       <c r="D10" s="86"/>
@@ -3095,7 +3071,7 @@
       <c r="G10" s="86"/>
       <c r="H10" s="87"/>
       <c r="L10" s="91" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="M10" s="86"/>
       <c r="N10" s="86"/>
@@ -3104,9 +3080,9 @@
       <c r="Q10" s="86"/>
       <c r="R10" s="87"/>
     </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B11" s="91" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="C11" s="86"/>
       <c r="D11" s="86"/>
@@ -3115,7 +3091,7 @@
       <c r="G11" s="86"/>
       <c r="H11" s="87"/>
       <c r="L11" s="91" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="M11" s="86"/>
       <c r="N11" s="86"/>
@@ -3124,9 +3100,9 @@
       <c r="Q11" s="86"/>
       <c r="R11" s="87"/>
     </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B12" s="91" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="C12" s="86"/>
       <c r="D12" s="86"/>
@@ -3135,7 +3111,7 @@
       <c r="G12" s="86"/>
       <c r="H12" s="87"/>
       <c r="L12" s="91" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="M12" s="86"/>
       <c r="N12" s="86"/>
@@ -3144,9 +3120,9 @@
       <c r="Q12" s="86"/>
       <c r="R12" s="87"/>
     </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B13" s="92" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="C13" s="48"/>
       <c r="D13" s="48"/>
@@ -3162,9 +3138,9 @@
       <c r="Q13" s="48"/>
       <c r="R13" s="49"/>
     </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B14" s="91" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="C14" s="86"/>
       <c r="D14" s="86"/>
@@ -3173,7 +3149,7 @@
       <c r="G14" s="86"/>
       <c r="H14" s="87"/>
       <c r="L14" s="91" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="M14" s="86"/>
       <c r="N14" s="86"/>
@@ -3182,9 +3158,9 @@
       <c r="Q14" s="86"/>
       <c r="R14" s="87"/>
     </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B15" s="91" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="C15" s="86"/>
       <c r="D15" s="86"/>
@@ -3200,9 +3176,9 @@
       <c r="Q15" s="86"/>
       <c r="R15" s="87"/>
     </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B16" s="105" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="C16" s="106"/>
       <c r="D16" s="106"/>
@@ -3211,7 +3187,7 @@
       <c r="G16" s="106"/>
       <c r="H16" s="107"/>
       <c r="L16" s="105" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="M16" s="106"/>
       <c r="N16" s="106"/>
@@ -3220,9 +3196,9 @@
       <c r="Q16" s="106"/>
       <c r="R16" s="107"/>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B17" s="108" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="C17" s="109"/>
       <c r="D17" s="109"/>
@@ -3231,7 +3207,7 @@
       <c r="G17" s="109"/>
       <c r="H17" s="110"/>
       <c r="L17" s="108" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="M17" s="109"/>
       <c r="N17" s="109"/>
@@ -3240,7 +3216,7 @@
       <c r="Q17" s="109"/>
       <c r="R17" s="110"/>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B18" s="111"/>
       <c r="C18" s="112"/>
       <c r="D18" s="112"/>
@@ -3256,9 +3232,9 @@
       <c r="Q18" s="112"/>
       <c r="R18" s="113"/>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B19" s="114" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="C19" s="115"/>
       <c r="D19" s="115"/>
@@ -3267,7 +3243,7 @@
       <c r="G19" s="115"/>
       <c r="H19" s="116"/>
       <c r="L19" s="114" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="M19" s="115"/>
       <c r="N19" s="115"/>
@@ -3276,9 +3252,9 @@
       <c r="Q19" s="115"/>
       <c r="R19" s="116"/>
     </row>
-    <row r="20" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="102" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="C20" s="103"/>
       <c r="D20" s="103"/>
@@ -3287,7 +3263,7 @@
       <c r="G20" s="103"/>
       <c r="H20" s="104"/>
       <c r="L20" s="122" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="M20" s="123"/>
       <c r="N20" s="123"/>
@@ -3296,7 +3272,7 @@
       <c r="Q20" s="123"/>
       <c r="R20" s="124"/>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B21" s="102"/>
       <c r="C21" s="103"/>
       <c r="D21" s="103"/>
@@ -3312,9 +3288,9 @@
       <c r="Q21" s="123"/>
       <c r="R21" s="124"/>
     </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B22" s="102" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="C22" s="103"/>
       <c r="D22" s="103"/>
@@ -3330,9 +3306,9 @@
       <c r="Q22" s="123"/>
       <c r="R22" s="124"/>
     </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B23" s="102" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="C23" s="103"/>
       <c r="D23" s="103"/>
@@ -3348,7 +3324,7 @@
       <c r="Q23" s="123"/>
       <c r="R23" s="124"/>
     </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B24" s="102"/>
       <c r="C24" s="103"/>
       <c r="D24" s="103"/>
@@ -3364,7 +3340,7 @@
       <c r="Q24" s="123"/>
       <c r="R24" s="124"/>
     </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B25" s="102"/>
       <c r="C25" s="103"/>
       <c r="D25" s="103"/>
@@ -3380,7 +3356,7 @@
       <c r="Q25" s="123"/>
       <c r="R25" s="124"/>
     </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B26" s="102"/>
       <c r="C26" s="103"/>
       <c r="D26" s="103"/>
@@ -3396,7 +3372,7 @@
       <c r="Q26" s="123"/>
       <c r="R26" s="124"/>
     </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B27" s="102"/>
       <c r="C27" s="103"/>
       <c r="D27" s="103"/>
@@ -3412,7 +3388,7 @@
       <c r="Q27" s="123"/>
       <c r="R27" s="124"/>
     </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B28" s="102"/>
       <c r="C28" s="103"/>
       <c r="D28" s="103"/>
@@ -3428,7 +3404,7 @@
       <c r="Q28" s="123"/>
       <c r="R28" s="124"/>
     </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B29" s="102"/>
       <c r="C29" s="103"/>
       <c r="D29" s="103"/>
@@ -3444,7 +3420,7 @@
       <c r="Q29" s="103"/>
       <c r="R29" s="104"/>
     </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B30" s="102"/>
       <c r="C30" s="103"/>
       <c r="D30" s="103"/>
@@ -3460,7 +3436,7 @@
       <c r="Q30" s="103"/>
       <c r="R30" s="104"/>
     </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B31" s="102"/>
       <c r="C31" s="103"/>
       <c r="D31" s="103"/>
@@ -3469,7 +3445,7 @@
       <c r="G31" s="103"/>
       <c r="H31" s="104"/>
       <c r="L31" s="102" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="M31" s="103"/>
       <c r="N31" s="103"/>
@@ -3478,7 +3454,7 @@
       <c r="Q31" s="103"/>
       <c r="R31" s="104"/>
     </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B32" s="102"/>
       <c r="C32" s="103"/>
       <c r="D32" s="103"/>
@@ -3487,7 +3463,7 @@
       <c r="G32" s="103"/>
       <c r="H32" s="104"/>
       <c r="L32" s="102" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="M32" s="103"/>
       <c r="N32" s="103"/>
@@ -3496,7 +3472,7 @@
       <c r="Q32" s="103"/>
       <c r="R32" s="104"/>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B33" s="102"/>
       <c r="C33" s="103"/>
       <c r="D33" s="103"/>
@@ -3512,7 +3488,7 @@
       <c r="Q33" s="103"/>
       <c r="R33" s="104"/>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B34" s="102"/>
       <c r="C34" s="103"/>
       <c r="D34" s="103"/>
@@ -3528,7 +3504,7 @@
       <c r="Q34" s="103"/>
       <c r="R34" s="104"/>
     </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B35" s="117"/>
       <c r="C35" s="118"/>
       <c r="D35" s="118"/>
@@ -3595,6 +3571,7 @@
     <mergeCell ref="B9:H9"/>
     <mergeCell ref="B10:H10"/>
   </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/GoodAndBetter_Schema.xlsx
+++ b/GoodAndBetter_Schema.xlsx
@@ -5,7 +5,7 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Good And Better\git\Good-Better\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wan\DOCUME~1\카카오~1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="141">
   <si>
     <t>version</t>
   </si>
@@ -499,12 +499,36 @@
     <t>질의응답 테이블 1개로 통합.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>CHECKLIST TABLE UPDATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v 0.3.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHE_Text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(1000)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHE_Image</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -594,6 +618,14 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1208,6 +1240,132 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1286,149 +1444,83 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1457,74 +1549,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1855,8 +1887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="S18" sqref="S18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1882,50 +1914,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="G1" s="53" t="s">
+      <c r="G1" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="55"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="36"/>
     </row>
     <row r="2" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G2" s="56"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="58"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="39"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="G3" s="59" t="s">
+      <c r="G3" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="61"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="42"/>
       <c r="K3" s="4" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="G4" s="62" t="s">
+      <c r="G4" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="64"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="45"/>
       <c r="K4" s="5">
-        <v>42207</v>
+        <v>42213</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G5" s="65" t="s">
+      <c r="G5" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="66"/>
-      <c r="I5" s="66"/>
-      <c r="J5" s="67"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="48"/>
       <c r="K5" s="6">
         <v>42175</v>
       </c>
@@ -1967,13 +1999,13 @@
       <c r="I9" s="1"/>
       <c r="M9" s="10"/>
       <c r="N9" s="10"/>
-      <c r="O9" s="68" t="s">
+      <c r="O9" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="P9" s="69"/>
-      <c r="Q9" s="69"/>
-      <c r="R9" s="69"/>
-      <c r="S9" s="70"/>
+      <c r="P9" s="50"/>
+      <c r="Q9" s="50"/>
+      <c r="R9" s="50"/>
+      <c r="S9" s="51"/>
     </row>
     <row r="10" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
@@ -2005,11 +2037,11 @@
       </c>
       <c r="M10" s="11"/>
       <c r="N10" s="11"/>
-      <c r="O10" s="71"/>
-      <c r="P10" s="72"/>
-      <c r="Q10" s="72"/>
-      <c r="R10" s="72"/>
-      <c r="S10" s="73"/>
+      <c r="O10" s="52"/>
+      <c r="P10" s="53"/>
+      <c r="Q10" s="53"/>
+      <c r="R10" s="53"/>
+      <c r="S10" s="54"/>
     </row>
     <row r="11" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -2041,11 +2073,11 @@
       </c>
       <c r="M11" s="11"/>
       <c r="N11" s="11"/>
-      <c r="O11" s="74" t="s">
+      <c r="O11" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="P11" s="75"/>
-      <c r="Q11" s="76"/>
+      <c r="P11" s="56"/>
+      <c r="Q11" s="57"/>
       <c r="R11" s="7" t="s">
         <v>10</v>
       </c>
@@ -2071,11 +2103,11 @@
       </c>
       <c r="M12" s="11"/>
       <c r="N12" s="11"/>
-      <c r="O12" s="77" t="s">
+      <c r="O12" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="P12" s="45"/>
-      <c r="Q12" s="78"/>
+      <c r="P12" s="59"/>
+      <c r="Q12" s="60"/>
       <c r="R12" s="14" t="s">
         <v>70</v>
       </c>
@@ -2109,11 +2141,11 @@
       </c>
       <c r="M13" s="11"/>
       <c r="N13" s="11"/>
-      <c r="O13" s="50" t="s">
+      <c r="O13" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="P13" s="48"/>
-      <c r="Q13" s="49"/>
+      <c r="P13" s="29"/>
+      <c r="Q13" s="30"/>
       <c r="R13" s="14" t="s">
         <v>72</v>
       </c>
@@ -2124,11 +2156,11 @@
     <row r="14" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M14" s="11"/>
       <c r="N14" s="11"/>
-      <c r="O14" s="50" t="s">
+      <c r="O14" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="P14" s="48"/>
-      <c r="Q14" s="49"/>
+      <c r="P14" s="29"/>
+      <c r="Q14" s="30"/>
       <c r="R14" s="14" t="s">
         <v>92</v>
       </c>
@@ -2153,15 +2185,15 @@
       <c r="J15" s="1"/>
       <c r="M15" s="12"/>
       <c r="N15" s="12"/>
-      <c r="O15" s="47" t="s">
+      <c r="O15" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="P15" s="48"/>
-      <c r="Q15" s="49"/>
-      <c r="R15" s="52" t="s">
+      <c r="P15" s="29"/>
+      <c r="Q15" s="30"/>
+      <c r="R15" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="S15" s="51">
+      <c r="S15" s="32">
         <v>42192</v>
       </c>
     </row>
@@ -2182,11 +2214,11 @@
       <c r="J16" s="1"/>
       <c r="M16" s="12"/>
       <c r="N16" s="12"/>
-      <c r="O16" s="50"/>
-      <c r="P16" s="48"/>
-      <c r="Q16" s="49"/>
-      <c r="R16" s="52"/>
-      <c r="S16" s="51"/>
+      <c r="O16" s="31"/>
+      <c r="P16" s="29"/>
+      <c r="Q16" s="30"/>
+      <c r="R16" s="33"/>
+      <c r="S16" s="32"/>
     </row>
     <row r="17" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
@@ -2221,13 +2253,13 @@
       </c>
       <c r="M17" s="13"/>
       <c r="N17" s="13"/>
-      <c r="O17" s="82" t="s">
+      <c r="O17" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="P17" s="83"/>
-      <c r="Q17" s="84"/>
-      <c r="R17" s="52"/>
-      <c r="S17" s="51"/>
+      <c r="P17" s="26"/>
+      <c r="Q17" s="27"/>
+      <c r="R17" s="33"/>
+      <c r="S17" s="32"/>
     </row>
     <row r="18" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
@@ -2262,11 +2294,11 @@
       </c>
       <c r="M18" s="13"/>
       <c r="N18" s="13"/>
-      <c r="O18" s="79" t="s">
+      <c r="O18" s="122" t="s">
         <v>134</v>
       </c>
-      <c r="P18" s="80"/>
-      <c r="Q18" s="81"/>
+      <c r="P18" s="123"/>
+      <c r="Q18" s="124"/>
       <c r="R18" s="14" t="s">
         <v>133</v>
       </c>
@@ -2293,11 +2325,17 @@
       <c r="J19" s="1"/>
       <c r="M19" s="11"/>
       <c r="N19" s="11"/>
-      <c r="O19" s="79"/>
-      <c r="P19" s="80"/>
-      <c r="Q19" s="81"/>
-      <c r="R19" s="14"/>
-      <c r="S19" s="15"/>
+      <c r="O19" s="122" t="s">
+        <v>135</v>
+      </c>
+      <c r="P19" s="123"/>
+      <c r="Q19" s="124"/>
+      <c r="R19" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="S19" s="15">
+        <v>42213</v>
+      </c>
     </row>
     <row r="20" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
@@ -2330,36 +2368,36 @@
       </c>
       <c r="M20" s="12"/>
       <c r="N20" s="12"/>
-      <c r="O20" s="85"/>
-      <c r="P20" s="86"/>
-      <c r="Q20" s="87"/>
+      <c r="O20" s="19"/>
+      <c r="P20" s="20"/>
+      <c r="Q20" s="21"/>
       <c r="R20" s="14"/>
       <c r="S20" s="5"/>
     </row>
     <row r="21" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M21" s="12"/>
       <c r="N21" s="12"/>
-      <c r="O21" s="82"/>
-      <c r="P21" s="83"/>
-      <c r="Q21" s="84"/>
+      <c r="O21" s="25"/>
+      <c r="P21" s="26"/>
+      <c r="Q21" s="27"/>
       <c r="R21" s="14"/>
       <c r="S21" s="15"/>
     </row>
     <row r="22" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M22" s="12"/>
       <c r="N22" s="12"/>
-      <c r="O22" s="82"/>
-      <c r="P22" s="83"/>
-      <c r="Q22" s="84"/>
+      <c r="O22" s="25"/>
+      <c r="P22" s="26"/>
+      <c r="Q22" s="27"/>
       <c r="R22" s="14"/>
       <c r="S22" s="15"/>
     </row>
     <row r="23" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M23" s="12"/>
       <c r="N23" s="12"/>
-      <c r="O23" s="82"/>
-      <c r="P23" s="83"/>
-      <c r="Q23" s="84"/>
+      <c r="O23" s="25"/>
+      <c r="P23" s="26"/>
+      <c r="Q23" s="27"/>
       <c r="R23" s="14"/>
       <c r="S23" s="15"/>
     </row>
@@ -2379,10 +2417,12 @@
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
       <c r="N24" s="12"/>
-      <c r="O24" s="82"/>
-      <c r="P24" s="83"/>
-      <c r="Q24" s="84"/>
+      <c r="O24" s="25"/>
+      <c r="P24" s="26"/>
+      <c r="Q24" s="27"/>
       <c r="R24" s="14"/>
       <c r="S24" s="15"/>
     </row>
@@ -2402,10 +2442,12 @@
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
       <c r="N25" s="12"/>
-      <c r="O25" s="82"/>
-      <c r="P25" s="83"/>
-      <c r="Q25" s="84"/>
+      <c r="O25" s="25"/>
+      <c r="P25" s="26"/>
+      <c r="Q25" s="27"/>
       <c r="R25" s="14"/>
       <c r="S25" s="15"/>
     </row>
@@ -2441,12 +2483,18 @@
         <v>62</v>
       </c>
       <c r="K26" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="M26" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N26" s="11"/>
-      <c r="O26" s="82"/>
-      <c r="P26" s="83"/>
-      <c r="Q26" s="84"/>
+      <c r="O26" s="25"/>
+      <c r="P26" s="26"/>
+      <c r="Q26" s="27"/>
       <c r="R26" s="14"/>
       <c r="S26" s="15"/>
     </row>
@@ -2482,12 +2530,18 @@
         <v>37</v>
       </c>
       <c r="K27" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="M27" s="2" t="s">
         <v>18</v>
       </c>
       <c r="N27" s="11"/>
-      <c r="O27" s="85"/>
-      <c r="P27" s="86"/>
-      <c r="Q27" s="87"/>
+      <c r="O27" s="19"/>
+      <c r="P27" s="20"/>
+      <c r="Q27" s="21"/>
       <c r="R27" s="14"/>
       <c r="S27" s="5"/>
     </row>
@@ -2506,13 +2560,15 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
-      <c r="K28" s="1" t="s">
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1" t="s">
         <v>49</v>
       </c>
       <c r="N28" s="11"/>
-      <c r="O28" s="85"/>
-      <c r="P28" s="86"/>
-      <c r="Q28" s="87"/>
+      <c r="O28" s="19"/>
+      <c r="P28" s="20"/>
+      <c r="Q28" s="21"/>
       <c r="R28" s="14"/>
       <c r="S28" s="5"/>
     </row>
@@ -2548,37 +2604,39 @@
         <v>63</v>
       </c>
       <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
       <c r="N29" s="11"/>
-      <c r="O29" s="85"/>
-      <c r="P29" s="86"/>
-      <c r="Q29" s="87"/>
+      <c r="O29" s="19"/>
+      <c r="P29" s="20"/>
+      <c r="Q29" s="21"/>
       <c r="R29" s="14"/>
       <c r="S29" s="4"/>
     </row>
     <row r="30" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M30" s="11"/>
       <c r="N30" s="11"/>
-      <c r="O30" s="85"/>
-      <c r="P30" s="86"/>
-      <c r="Q30" s="87"/>
+      <c r="O30" s="19"/>
+      <c r="P30" s="20"/>
+      <c r="Q30" s="21"/>
       <c r="R30" s="14"/>
       <c r="S30" s="4"/>
     </row>
     <row r="31" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M31" s="11"/>
       <c r="N31" s="11"/>
-      <c r="O31" s="85"/>
-      <c r="P31" s="86"/>
-      <c r="Q31" s="87"/>
+      <c r="O31" s="19"/>
+      <c r="P31" s="20"/>
+      <c r="Q31" s="21"/>
       <c r="R31" s="14"/>
       <c r="S31" s="4"/>
     </row>
     <row r="32" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M32" s="11"/>
       <c r="N32" s="11"/>
-      <c r="O32" s="85"/>
-      <c r="P32" s="86"/>
-      <c r="Q32" s="87"/>
+      <c r="O32" s="19"/>
+      <c r="P32" s="20"/>
+      <c r="Q32" s="21"/>
       <c r="R32" s="14"/>
       <c r="S32" s="4"/>
     </row>
@@ -2598,9 +2656,9 @@
       <c r="I33" s="1"/>
       <c r="M33" s="11"/>
       <c r="N33" s="11"/>
-      <c r="O33" s="85"/>
-      <c r="P33" s="86"/>
-      <c r="Q33" s="87"/>
+      <c r="O33" s="19"/>
+      <c r="P33" s="20"/>
+      <c r="Q33" s="21"/>
       <c r="R33" s="14"/>
       <c r="S33" s="4"/>
     </row>
@@ -2620,9 +2678,9 @@
       <c r="I34" s="1"/>
       <c r="M34" s="11"/>
       <c r="N34" s="11"/>
-      <c r="O34" s="85"/>
-      <c r="P34" s="86"/>
-      <c r="Q34" s="87"/>
+      <c r="O34" s="19"/>
+      <c r="P34" s="20"/>
+      <c r="Q34" s="21"/>
       <c r="R34" s="14"/>
       <c r="S34" s="4"/>
     </row>
@@ -2652,9 +2710,9 @@
       <c r="I35" s="1"/>
       <c r="M35" s="11"/>
       <c r="N35" s="11"/>
-      <c r="O35" s="85"/>
-      <c r="P35" s="86"/>
-      <c r="Q35" s="87"/>
+      <c r="O35" s="19"/>
+      <c r="P35" s="20"/>
+      <c r="Q35" s="21"/>
       <c r="R35" s="14"/>
       <c r="S35" s="4"/>
     </row>
@@ -2684,9 +2742,9 @@
       <c r="I36" s="2"/>
       <c r="M36" s="11"/>
       <c r="N36" s="11"/>
-      <c r="O36" s="85"/>
-      <c r="P36" s="86"/>
-      <c r="Q36" s="87"/>
+      <c r="O36" s="19"/>
+      <c r="P36" s="20"/>
+      <c r="Q36" s="21"/>
       <c r="R36" s="14"/>
       <c r="S36" s="4"/>
     </row>
@@ -2708,9 +2766,9 @@
       <c r="I37" s="1"/>
       <c r="M37" s="11"/>
       <c r="N37" s="11"/>
-      <c r="O37" s="85"/>
-      <c r="P37" s="86"/>
-      <c r="Q37" s="87"/>
+      <c r="O37" s="19"/>
+      <c r="P37" s="20"/>
+      <c r="Q37" s="21"/>
       <c r="R37" s="14"/>
       <c r="S37" s="4"/>
     </row>
@@ -2732,9 +2790,9 @@
       <c r="I38" s="1"/>
       <c r="M38" s="11"/>
       <c r="N38" s="11"/>
-      <c r="O38" s="85"/>
-      <c r="P38" s="86"/>
-      <c r="Q38" s="87"/>
+      <c r="O38" s="19"/>
+      <c r="P38" s="20"/>
+      <c r="Q38" s="21"/>
       <c r="R38" s="14"/>
       <c r="S38" s="4"/>
     </row>
@@ -2743,9 +2801,9 @@
       <c r="J39" s="9"/>
       <c r="M39" s="11"/>
       <c r="N39" s="11"/>
-      <c r="O39" s="85"/>
-      <c r="P39" s="86"/>
-      <c r="Q39" s="87"/>
+      <c r="O39" s="19"/>
+      <c r="P39" s="20"/>
+      <c r="Q39" s="21"/>
       <c r="R39" s="14"/>
       <c r="S39" s="4"/>
     </row>
@@ -2754,182 +2812,166 @@
       <c r="J40" s="9"/>
       <c r="M40" s="11"/>
       <c r="N40" s="11"/>
-      <c r="O40" s="85"/>
-      <c r="P40" s="86"/>
-      <c r="Q40" s="87"/>
+      <c r="O40" s="19"/>
+      <c r="P40" s="20"/>
+      <c r="Q40" s="21"/>
       <c r="R40" s="14"/>
       <c r="S40" s="4"/>
     </row>
     <row r="41" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="O41" s="88"/>
-      <c r="P41" s="89"/>
-      <c r="Q41" s="90"/>
+      <c r="O41" s="22"/>
+      <c r="P41" s="23"/>
+      <c r="Q41" s="24"/>
       <c r="R41" s="16"/>
       <c r="S41" s="17"/>
     </row>
     <row r="43" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="44" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B44" s="31" t="s">
+      <c r="B44" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="C44" s="32"/>
-      <c r="D44" s="32"/>
-      <c r="E44" s="32"/>
-      <c r="F44" s="32"/>
-      <c r="G44" s="32"/>
-      <c r="H44" s="32"/>
-      <c r="I44" s="32"/>
-      <c r="J44" s="32"/>
-      <c r="K44" s="32"/>
-      <c r="L44" s="33"/>
+      <c r="C44" s="74"/>
+      <c r="D44" s="74"/>
+      <c r="E44" s="74"/>
+      <c r="F44" s="74"/>
+      <c r="G44" s="74"/>
+      <c r="H44" s="74"/>
+      <c r="I44" s="74"/>
+      <c r="J44" s="74"/>
+      <c r="K44" s="74"/>
+      <c r="L44" s="75"/>
     </row>
     <row r="45" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="34"/>
-      <c r="C45" s="35"/>
-      <c r="D45" s="35"/>
-      <c r="E45" s="35"/>
-      <c r="F45" s="35"/>
-      <c r="G45" s="35"/>
-      <c r="H45" s="35"/>
-      <c r="I45" s="35"/>
-      <c r="J45" s="35"/>
-      <c r="K45" s="35"/>
-      <c r="L45" s="36"/>
+      <c r="B45" s="76"/>
+      <c r="C45" s="77"/>
+      <c r="D45" s="77"/>
+      <c r="E45" s="77"/>
+      <c r="F45" s="77"/>
+      <c r="G45" s="77"/>
+      <c r="H45" s="77"/>
+      <c r="I45" s="77"/>
+      <c r="J45" s="77"/>
+      <c r="K45" s="77"/>
+      <c r="L45" s="78"/>
     </row>
     <row r="46" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="37" t="s">
+      <c r="B46" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="C46" s="39" t="s">
+      <c r="C46" s="81" t="s">
         <v>21</v>
       </c>
-      <c r="D46" s="39"/>
-      <c r="E46" s="39"/>
-      <c r="F46" s="39"/>
-      <c r="G46" s="39"/>
-      <c r="H46" s="39"/>
-      <c r="I46" s="39"/>
-      <c r="J46" s="39"/>
-      <c r="K46" s="39"/>
-      <c r="L46" s="40"/>
+      <c r="D46" s="81"/>
+      <c r="E46" s="81"/>
+      <c r="F46" s="81"/>
+      <c r="G46" s="81"/>
+      <c r="H46" s="81"/>
+      <c r="I46" s="81"/>
+      <c r="J46" s="81"/>
+      <c r="K46" s="81"/>
+      <c r="L46" s="82"/>
     </row>
     <row r="47" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="38"/>
-      <c r="C47" s="41" t="s">
+      <c r="B47" s="80"/>
+      <c r="C47" s="83" t="s">
         <v>61</v>
       </c>
-      <c r="D47" s="42"/>
-      <c r="E47" s="42"/>
-      <c r="F47" s="42"/>
-      <c r="G47" s="42"/>
-      <c r="H47" s="42"/>
-      <c r="I47" s="42"/>
-      <c r="J47" s="42"/>
-      <c r="K47" s="42"/>
-      <c r="L47" s="43"/>
+      <c r="D47" s="84"/>
+      <c r="E47" s="84"/>
+      <c r="F47" s="84"/>
+      <c r="G47" s="84"/>
+      <c r="H47" s="84"/>
+      <c r="I47" s="84"/>
+      <c r="J47" s="84"/>
+      <c r="K47" s="84"/>
+      <c r="L47" s="85"/>
     </row>
     <row r="48" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="38"/>
-      <c r="C48" s="44" t="s">
+      <c r="B48" s="80"/>
+      <c r="C48" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="D48" s="45"/>
-      <c r="E48" s="45"/>
-      <c r="F48" s="45"/>
-      <c r="G48" s="45"/>
-      <c r="H48" s="45"/>
-      <c r="I48" s="45"/>
-      <c r="J48" s="45"/>
-      <c r="K48" s="45"/>
-      <c r="L48" s="46"/>
+      <c r="D48" s="59"/>
+      <c r="E48" s="59"/>
+      <c r="F48" s="59"/>
+      <c r="G48" s="59"/>
+      <c r="H48" s="59"/>
+      <c r="I48" s="59"/>
+      <c r="J48" s="59"/>
+      <c r="K48" s="59"/>
+      <c r="L48" s="87"/>
     </row>
     <row r="49" spans="2:12" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="19" t="s">
+      <c r="B49" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="C49" s="22" t="s">
+      <c r="C49" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="D49" s="23"/>
-      <c r="E49" s="23"/>
-      <c r="F49" s="23"/>
-      <c r="G49" s="23"/>
-      <c r="H49" s="23"/>
-      <c r="I49" s="23"/>
-      <c r="J49" s="23"/>
-      <c r="K49" s="23"/>
-      <c r="L49" s="24"/>
+      <c r="D49" s="65"/>
+      <c r="E49" s="65"/>
+      <c r="F49" s="65"/>
+      <c r="G49" s="65"/>
+      <c r="H49" s="65"/>
+      <c r="I49" s="65"/>
+      <c r="J49" s="65"/>
+      <c r="K49" s="65"/>
+      <c r="L49" s="66"/>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B50" s="20"/>
-      <c r="C50" s="25"/>
-      <c r="D50" s="25"/>
-      <c r="E50" s="25"/>
-      <c r="F50" s="25"/>
-      <c r="G50" s="25"/>
-      <c r="H50" s="25"/>
-      <c r="I50" s="25"/>
-      <c r="J50" s="25"/>
-      <c r="K50" s="25"/>
-      <c r="L50" s="26"/>
+      <c r="B50" s="62"/>
+      <c r="C50" s="67"/>
+      <c r="D50" s="67"/>
+      <c r="E50" s="67"/>
+      <c r="F50" s="67"/>
+      <c r="G50" s="67"/>
+      <c r="H50" s="67"/>
+      <c r="I50" s="67"/>
+      <c r="J50" s="67"/>
+      <c r="K50" s="67"/>
+      <c r="L50" s="68"/>
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B51" s="20"/>
-      <c r="C51" s="27" t="s">
+      <c r="B51" s="62"/>
+      <c r="C51" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="D51" s="27"/>
-      <c r="E51" s="27"/>
-      <c r="F51" s="27"/>
-      <c r="G51" s="27"/>
-      <c r="H51" s="27"/>
-      <c r="I51" s="27"/>
-      <c r="J51" s="27"/>
-      <c r="K51" s="27"/>
-      <c r="L51" s="28"/>
+      <c r="D51" s="69"/>
+      <c r="E51" s="69"/>
+      <c r="F51" s="69"/>
+      <c r="G51" s="69"/>
+      <c r="H51" s="69"/>
+      <c r="I51" s="69"/>
+      <c r="J51" s="69"/>
+      <c r="K51" s="69"/>
+      <c r="L51" s="70"/>
     </row>
     <row r="52" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="21"/>
-      <c r="C52" s="29" t="s">
+      <c r="B52" s="63"/>
+      <c r="C52" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="D52" s="29"/>
-      <c r="E52" s="29"/>
-      <c r="F52" s="29"/>
-      <c r="G52" s="29"/>
-      <c r="H52" s="29"/>
-      <c r="I52" s="29"/>
-      <c r="J52" s="29"/>
-      <c r="K52" s="29"/>
-      <c r="L52" s="30"/>
+      <c r="D52" s="71"/>
+      <c r="E52" s="71"/>
+      <c r="F52" s="71"/>
+      <c r="G52" s="71"/>
+      <c r="H52" s="71"/>
+      <c r="I52" s="71"/>
+      <c r="J52" s="71"/>
+      <c r="K52" s="71"/>
+      <c r="L52" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="O37:Q37"/>
-    <mergeCell ref="O38:Q38"/>
-    <mergeCell ref="O39:Q39"/>
-    <mergeCell ref="O40:Q40"/>
-    <mergeCell ref="O41:Q41"/>
-    <mergeCell ref="O32:Q32"/>
-    <mergeCell ref="O33:Q33"/>
-    <mergeCell ref="O34:Q34"/>
-    <mergeCell ref="O35:Q35"/>
-    <mergeCell ref="O36:Q36"/>
-    <mergeCell ref="O27:Q27"/>
-    <mergeCell ref="O28:Q28"/>
-    <mergeCell ref="O29:Q29"/>
-    <mergeCell ref="O30:Q30"/>
-    <mergeCell ref="O31:Q31"/>
-    <mergeCell ref="O23:Q23"/>
-    <mergeCell ref="O24:Q24"/>
-    <mergeCell ref="O25:Q25"/>
-    <mergeCell ref="O26:Q26"/>
-    <mergeCell ref="O20:Q20"/>
-    <mergeCell ref="O18:Q18"/>
-    <mergeCell ref="O19:Q19"/>
-    <mergeCell ref="O21:Q21"/>
-    <mergeCell ref="O22:Q22"/>
-    <mergeCell ref="O17:Q17"/>
+    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="C49:L50"/>
+    <mergeCell ref="C51:L51"/>
+    <mergeCell ref="C52:L52"/>
+    <mergeCell ref="B44:L45"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="C46:L46"/>
+    <mergeCell ref="C47:L47"/>
+    <mergeCell ref="C48:L48"/>
     <mergeCell ref="O15:Q16"/>
     <mergeCell ref="S15:S17"/>
     <mergeCell ref="R15:R17"/>
@@ -2942,15 +2984,31 @@
     <mergeCell ref="O12:Q12"/>
     <mergeCell ref="O13:Q13"/>
     <mergeCell ref="O14:Q14"/>
-    <mergeCell ref="B49:B52"/>
-    <mergeCell ref="C49:L50"/>
-    <mergeCell ref="C51:L51"/>
-    <mergeCell ref="C52:L52"/>
-    <mergeCell ref="B44:L45"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="C46:L46"/>
-    <mergeCell ref="C47:L47"/>
-    <mergeCell ref="C48:L48"/>
+    <mergeCell ref="O18:Q18"/>
+    <mergeCell ref="O19:Q19"/>
+    <mergeCell ref="O21:Q21"/>
+    <mergeCell ref="O22:Q22"/>
+    <mergeCell ref="O17:Q17"/>
+    <mergeCell ref="O23:Q23"/>
+    <mergeCell ref="O24:Q24"/>
+    <mergeCell ref="O25:Q25"/>
+    <mergeCell ref="O26:Q26"/>
+    <mergeCell ref="O20:Q20"/>
+    <mergeCell ref="O27:Q27"/>
+    <mergeCell ref="O28:Q28"/>
+    <mergeCell ref="O29:Q29"/>
+    <mergeCell ref="O30:Q30"/>
+    <mergeCell ref="O31:Q31"/>
+    <mergeCell ref="O32:Q32"/>
+    <mergeCell ref="O33:Q33"/>
+    <mergeCell ref="O34:Q34"/>
+    <mergeCell ref="O35:Q35"/>
+    <mergeCell ref="O36:Q36"/>
+    <mergeCell ref="O37:Q37"/>
+    <mergeCell ref="O38:Q38"/>
+    <mergeCell ref="O39:Q39"/>
+    <mergeCell ref="O40:Q40"/>
+    <mergeCell ref="O41:Q41"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2985,543 +3043,575 @@
       <c r="J4" s="18"/>
     </row>
     <row r="5" spans="2:18" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="B5" s="120" t="s">
+      <c r="B5" s="112" t="s">
         <v>112</v>
       </c>
-      <c r="C5" s="120"/>
-      <c r="D5" s="120"/>
-      <c r="E5" s="120"/>
-      <c r="F5" s="120"/>
-      <c r="G5" s="120"/>
-      <c r="H5" s="120"/>
-      <c r="L5" s="121" t="s">
+      <c r="C5" s="112"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="112"/>
+      <c r="H5" s="112"/>
+      <c r="L5" s="94" t="s">
         <v>118</v>
       </c>
-      <c r="M5" s="121"/>
-      <c r="N5" s="121"/>
-      <c r="O5" s="121"/>
-      <c r="P5" s="121"/>
-      <c r="Q5" s="121"/>
-      <c r="R5" s="121"/>
+      <c r="M5" s="94"/>
+      <c r="N5" s="94"/>
+      <c r="O5" s="94"/>
+      <c r="P5" s="94"/>
+      <c r="Q5" s="94"/>
+      <c r="R5" s="94"/>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B7" s="93" t="s">
+      <c r="B7" s="113" t="s">
         <v>111</v>
       </c>
-      <c r="C7" s="94"/>
-      <c r="D7" s="94"/>
-      <c r="E7" s="94"/>
-      <c r="F7" s="94"/>
-      <c r="G7" s="94"/>
-      <c r="H7" s="95"/>
-      <c r="L7" s="93" t="s">
+      <c r="C7" s="114"/>
+      <c r="D7" s="114"/>
+      <c r="E7" s="114"/>
+      <c r="F7" s="114"/>
+      <c r="G7" s="114"/>
+      <c r="H7" s="115"/>
+      <c r="L7" s="113" t="s">
         <v>113</v>
       </c>
-      <c r="M7" s="94"/>
-      <c r="N7" s="94"/>
-      <c r="O7" s="94"/>
-      <c r="P7" s="94"/>
-      <c r="Q7" s="94"/>
-      <c r="R7" s="95"/>
+      <c r="M7" s="114"/>
+      <c r="N7" s="114"/>
+      <c r="O7" s="114"/>
+      <c r="P7" s="114"/>
+      <c r="Q7" s="114"/>
+      <c r="R7" s="115"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B8" s="96"/>
-      <c r="C8" s="97"/>
-      <c r="D8" s="97"/>
-      <c r="E8" s="97"/>
-      <c r="F8" s="97"/>
-      <c r="G8" s="97"/>
-      <c r="H8" s="98"/>
-      <c r="L8" s="96"/>
-      <c r="M8" s="97"/>
-      <c r="N8" s="97"/>
-      <c r="O8" s="97"/>
-      <c r="P8" s="97"/>
-      <c r="Q8" s="97"/>
-      <c r="R8" s="98"/>
+      <c r="B8" s="116"/>
+      <c r="C8" s="117"/>
+      <c r="D8" s="117"/>
+      <c r="E8" s="117"/>
+      <c r="F8" s="117"/>
+      <c r="G8" s="117"/>
+      <c r="H8" s="118"/>
+      <c r="L8" s="116"/>
+      <c r="M8" s="117"/>
+      <c r="N8" s="117"/>
+      <c r="O8" s="117"/>
+      <c r="P8" s="117"/>
+      <c r="Q8" s="117"/>
+      <c r="R8" s="118"/>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B9" s="99" t="s">
+      <c r="B9" s="119" t="s">
         <v>105</v>
       </c>
-      <c r="C9" s="100"/>
-      <c r="D9" s="100"/>
-      <c r="E9" s="100"/>
-      <c r="F9" s="100"/>
-      <c r="G9" s="100"/>
-      <c r="H9" s="101"/>
-      <c r="L9" s="99" t="s">
+      <c r="C9" s="120"/>
+      <c r="D9" s="120"/>
+      <c r="E9" s="120"/>
+      <c r="F9" s="120"/>
+      <c r="G9" s="120"/>
+      <c r="H9" s="121"/>
+      <c r="L9" s="119" t="s">
         <v>105</v>
       </c>
-      <c r="M9" s="100"/>
-      <c r="N9" s="100"/>
-      <c r="O9" s="100"/>
-      <c r="P9" s="100"/>
-      <c r="Q9" s="100"/>
-      <c r="R9" s="101"/>
+      <c r="M9" s="120"/>
+      <c r="N9" s="120"/>
+      <c r="O9" s="120"/>
+      <c r="P9" s="120"/>
+      <c r="Q9" s="120"/>
+      <c r="R9" s="121"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B10" s="91" t="s">
+      <c r="B10" s="99" t="s">
         <v>106</v>
       </c>
-      <c r="C10" s="86"/>
-      <c r="D10" s="86"/>
-      <c r="E10" s="86"/>
-      <c r="F10" s="86"/>
-      <c r="G10" s="86"/>
-      <c r="H10" s="87"/>
-      <c r="L10" s="91" t="s">
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="21"/>
+      <c r="L10" s="99" t="s">
         <v>106</v>
       </c>
-      <c r="M10" s="86"/>
-      <c r="N10" s="86"/>
-      <c r="O10" s="86"/>
-      <c r="P10" s="86"/>
-      <c r="Q10" s="86"/>
-      <c r="R10" s="87"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="21"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B11" s="91" t="s">
+      <c r="B11" s="99" t="s">
         <v>101</v>
       </c>
-      <c r="C11" s="86"/>
-      <c r="D11" s="86"/>
-      <c r="E11" s="86"/>
-      <c r="F11" s="86"/>
-      <c r="G11" s="86"/>
-      <c r="H11" s="87"/>
-      <c r="L11" s="91" t="s">
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="21"/>
+      <c r="L11" s="99" t="s">
         <v>101</v>
       </c>
-      <c r="M11" s="86"/>
-      <c r="N11" s="86"/>
-      <c r="O11" s="86"/>
-      <c r="P11" s="86"/>
-      <c r="Q11" s="86"/>
-      <c r="R11" s="87"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="21"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B12" s="91" t="s">
+      <c r="B12" s="99" t="s">
         <v>98</v>
       </c>
-      <c r="C12" s="86"/>
-      <c r="D12" s="86"/>
-      <c r="E12" s="86"/>
-      <c r="F12" s="86"/>
-      <c r="G12" s="86"/>
-      <c r="H12" s="87"/>
-      <c r="L12" s="91" t="s">
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="21"/>
+      <c r="L12" s="99" t="s">
         <v>99</v>
       </c>
-      <c r="M12" s="86"/>
-      <c r="N12" s="86"/>
-      <c r="O12" s="86"/>
-      <c r="P12" s="86"/>
-      <c r="Q12" s="86"/>
-      <c r="R12" s="87"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="20"/>
+      <c r="R12" s="21"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B13" s="92" t="s">
+      <c r="B13" s="98" t="s">
         <v>102</v>
       </c>
-      <c r="C13" s="48"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="49"/>
-      <c r="L13" s="92"/>
-      <c r="M13" s="48"/>
-      <c r="N13" s="48"/>
-      <c r="O13" s="48"/>
-      <c r="P13" s="48"/>
-      <c r="Q13" s="48"/>
-      <c r="R13" s="49"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="30"/>
+      <c r="L13" s="98"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="29"/>
+      <c r="P13" s="29"/>
+      <c r="Q13" s="29"/>
+      <c r="R13" s="30"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B14" s="91" t="s">
+      <c r="B14" s="99" t="s">
         <v>103</v>
       </c>
-      <c r="C14" s="86"/>
-      <c r="D14" s="86"/>
-      <c r="E14" s="86"/>
-      <c r="F14" s="86"/>
-      <c r="G14" s="86"/>
-      <c r="H14" s="87"/>
-      <c r="L14" s="91" t="s">
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="21"/>
+      <c r="L14" s="99" t="s">
         <v>114</v>
       </c>
-      <c r="M14" s="86"/>
-      <c r="N14" s="86"/>
-      <c r="O14" s="86"/>
-      <c r="P14" s="86"/>
-      <c r="Q14" s="86"/>
-      <c r="R14" s="87"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="20"/>
+      <c r="R14" s="21"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B15" s="91" t="s">
+      <c r="B15" s="99" t="s">
         <v>104</v>
       </c>
-      <c r="C15" s="86"/>
-      <c r="D15" s="86"/>
-      <c r="E15" s="86"/>
-      <c r="F15" s="86"/>
-      <c r="G15" s="86"/>
-      <c r="H15" s="87"/>
-      <c r="L15" s="91"/>
-      <c r="M15" s="86"/>
-      <c r="N15" s="86"/>
-      <c r="O15" s="86"/>
-      <c r="P15" s="86"/>
-      <c r="Q15" s="86"/>
-      <c r="R15" s="87"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="21"/>
+      <c r="L15" s="99"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="20"/>
+      <c r="P15" s="20"/>
+      <c r="Q15" s="20"/>
+      <c r="R15" s="21"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B16" s="105" t="s">
+      <c r="B16" s="100" t="s">
         <v>100</v>
       </c>
-      <c r="C16" s="106"/>
-      <c r="D16" s="106"/>
-      <c r="E16" s="106"/>
-      <c r="F16" s="106"/>
-      <c r="G16" s="106"/>
-      <c r="H16" s="107"/>
-      <c r="L16" s="105" t="s">
+      <c r="C16" s="101"/>
+      <c r="D16" s="101"/>
+      <c r="E16" s="101"/>
+      <c r="F16" s="101"/>
+      <c r="G16" s="101"/>
+      <c r="H16" s="102"/>
+      <c r="L16" s="100" t="s">
         <v>100</v>
       </c>
-      <c r="M16" s="106"/>
-      <c r="N16" s="106"/>
-      <c r="O16" s="106"/>
-      <c r="P16" s="106"/>
-      <c r="Q16" s="106"/>
-      <c r="R16" s="107"/>
+      <c r="M16" s="101"/>
+      <c r="N16" s="101"/>
+      <c r="O16" s="101"/>
+      <c r="P16" s="101"/>
+      <c r="Q16" s="101"/>
+      <c r="R16" s="102"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B17" s="108" t="s">
+      <c r="B17" s="103" t="s">
         <v>97</v>
       </c>
-      <c r="C17" s="109"/>
-      <c r="D17" s="109"/>
-      <c r="E17" s="109"/>
-      <c r="F17" s="109"/>
-      <c r="G17" s="109"/>
-      <c r="H17" s="110"/>
-      <c r="L17" s="108" t="s">
+      <c r="C17" s="104"/>
+      <c r="D17" s="104"/>
+      <c r="E17" s="104"/>
+      <c r="F17" s="104"/>
+      <c r="G17" s="104"/>
+      <c r="H17" s="105"/>
+      <c r="L17" s="103" t="s">
         <v>97</v>
       </c>
-      <c r="M17" s="109"/>
-      <c r="N17" s="109"/>
-      <c r="O17" s="109"/>
-      <c r="P17" s="109"/>
-      <c r="Q17" s="109"/>
-      <c r="R17" s="110"/>
+      <c r="M17" s="104"/>
+      <c r="N17" s="104"/>
+      <c r="O17" s="104"/>
+      <c r="P17" s="104"/>
+      <c r="Q17" s="104"/>
+      <c r="R17" s="105"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B18" s="111"/>
-      <c r="C18" s="112"/>
-      <c r="D18" s="112"/>
-      <c r="E18" s="112"/>
-      <c r="F18" s="112"/>
-      <c r="G18" s="112"/>
-      <c r="H18" s="113"/>
-      <c r="L18" s="111"/>
-      <c r="M18" s="112"/>
-      <c r="N18" s="112"/>
-      <c r="O18" s="112"/>
-      <c r="P18" s="112"/>
-      <c r="Q18" s="112"/>
-      <c r="R18" s="113"/>
+      <c r="B18" s="106"/>
+      <c r="C18" s="107"/>
+      <c r="D18" s="107"/>
+      <c r="E18" s="107"/>
+      <c r="F18" s="107"/>
+      <c r="G18" s="107"/>
+      <c r="H18" s="108"/>
+      <c r="L18" s="106"/>
+      <c r="M18" s="107"/>
+      <c r="N18" s="107"/>
+      <c r="O18" s="107"/>
+      <c r="P18" s="107"/>
+      <c r="Q18" s="107"/>
+      <c r="R18" s="108"/>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B19" s="114" t="s">
+      <c r="B19" s="109" t="s">
         <v>108</v>
       </c>
-      <c r="C19" s="115"/>
-      <c r="D19" s="115"/>
-      <c r="E19" s="115"/>
-      <c r="F19" s="115"/>
-      <c r="G19" s="115"/>
-      <c r="H19" s="116"/>
-      <c r="L19" s="114" t="s">
+      <c r="C19" s="110"/>
+      <c r="D19" s="110"/>
+      <c r="E19" s="110"/>
+      <c r="F19" s="110"/>
+      <c r="G19" s="110"/>
+      <c r="H19" s="111"/>
+      <c r="L19" s="109" t="s">
         <v>108</v>
       </c>
-      <c r="M19" s="115"/>
-      <c r="N19" s="115"/>
-      <c r="O19" s="115"/>
-      <c r="P19" s="115"/>
-      <c r="Q19" s="115"/>
-      <c r="R19" s="116"/>
+      <c r="M19" s="110"/>
+      <c r="N19" s="110"/>
+      <c r="O19" s="110"/>
+      <c r="P19" s="110"/>
+      <c r="Q19" s="110"/>
+      <c r="R19" s="111"/>
     </row>
     <row r="20" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="102" t="s">
+      <c r="B20" s="88" t="s">
         <v>107</v>
       </c>
-      <c r="C20" s="103"/>
-      <c r="D20" s="103"/>
-      <c r="E20" s="103"/>
-      <c r="F20" s="103"/>
-      <c r="G20" s="103"/>
-      <c r="H20" s="104"/>
-      <c r="L20" s="122" t="s">
+      <c r="C20" s="89"/>
+      <c r="D20" s="89"/>
+      <c r="E20" s="89"/>
+      <c r="F20" s="89"/>
+      <c r="G20" s="89"/>
+      <c r="H20" s="90"/>
+      <c r="L20" s="95" t="s">
         <v>117</v>
       </c>
-      <c r="M20" s="123"/>
-      <c r="N20" s="123"/>
-      <c r="O20" s="123"/>
-      <c r="P20" s="123"/>
-      <c r="Q20" s="123"/>
-      <c r="R20" s="124"/>
+      <c r="M20" s="96"/>
+      <c r="N20" s="96"/>
+      <c r="O20" s="96"/>
+      <c r="P20" s="96"/>
+      <c r="Q20" s="96"/>
+      <c r="R20" s="97"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B21" s="102"/>
-      <c r="C21" s="103"/>
-      <c r="D21" s="103"/>
-      <c r="E21" s="103"/>
-      <c r="F21" s="103"/>
-      <c r="G21" s="103"/>
-      <c r="H21" s="104"/>
-      <c r="L21" s="122"/>
-      <c r="M21" s="123"/>
-      <c r="N21" s="123"/>
-      <c r="O21" s="123"/>
-      <c r="P21" s="123"/>
-      <c r="Q21" s="123"/>
-      <c r="R21" s="124"/>
+      <c r="B21" s="88"/>
+      <c r="C21" s="89"/>
+      <c r="D21" s="89"/>
+      <c r="E21" s="89"/>
+      <c r="F21" s="89"/>
+      <c r="G21" s="89"/>
+      <c r="H21" s="90"/>
+      <c r="L21" s="95"/>
+      <c r="M21" s="96"/>
+      <c r="N21" s="96"/>
+      <c r="O21" s="96"/>
+      <c r="P21" s="96"/>
+      <c r="Q21" s="96"/>
+      <c r="R21" s="97"/>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B22" s="102" t="s">
+      <c r="B22" s="88" t="s">
         <v>109</v>
       </c>
-      <c r="C22" s="103"/>
-      <c r="D22" s="103"/>
-      <c r="E22" s="103"/>
-      <c r="F22" s="103"/>
-      <c r="G22" s="103"/>
-      <c r="H22" s="104"/>
-      <c r="L22" s="122"/>
-      <c r="M22" s="123"/>
-      <c r="N22" s="123"/>
-      <c r="O22" s="123"/>
-      <c r="P22" s="123"/>
-      <c r="Q22" s="123"/>
-      <c r="R22" s="124"/>
+      <c r="C22" s="89"/>
+      <c r="D22" s="89"/>
+      <c r="E22" s="89"/>
+      <c r="F22" s="89"/>
+      <c r="G22" s="89"/>
+      <c r="H22" s="90"/>
+      <c r="L22" s="95"/>
+      <c r="M22" s="96"/>
+      <c r="N22" s="96"/>
+      <c r="O22" s="96"/>
+      <c r="P22" s="96"/>
+      <c r="Q22" s="96"/>
+      <c r="R22" s="97"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B23" s="102" t="s">
+      <c r="B23" s="88" t="s">
         <v>110</v>
       </c>
-      <c r="C23" s="103"/>
-      <c r="D23" s="103"/>
-      <c r="E23" s="103"/>
-      <c r="F23" s="103"/>
-      <c r="G23" s="103"/>
-      <c r="H23" s="104"/>
-      <c r="L23" s="122"/>
-      <c r="M23" s="123"/>
-      <c r="N23" s="123"/>
-      <c r="O23" s="123"/>
-      <c r="P23" s="123"/>
-      <c r="Q23" s="123"/>
-      <c r="R23" s="124"/>
+      <c r="C23" s="89"/>
+      <c r="D23" s="89"/>
+      <c r="E23" s="89"/>
+      <c r="F23" s="89"/>
+      <c r="G23" s="89"/>
+      <c r="H23" s="90"/>
+      <c r="L23" s="95"/>
+      <c r="M23" s="96"/>
+      <c r="N23" s="96"/>
+      <c r="O23" s="96"/>
+      <c r="P23" s="96"/>
+      <c r="Q23" s="96"/>
+      <c r="R23" s="97"/>
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B24" s="102"/>
-      <c r="C24" s="103"/>
-      <c r="D24" s="103"/>
-      <c r="E24" s="103"/>
-      <c r="F24" s="103"/>
-      <c r="G24" s="103"/>
-      <c r="H24" s="104"/>
-      <c r="L24" s="122"/>
-      <c r="M24" s="123"/>
-      <c r="N24" s="123"/>
-      <c r="O24" s="123"/>
-      <c r="P24" s="123"/>
-      <c r="Q24" s="123"/>
-      <c r="R24" s="124"/>
+      <c r="B24" s="88"/>
+      <c r="C24" s="89"/>
+      <c r="D24" s="89"/>
+      <c r="E24" s="89"/>
+      <c r="F24" s="89"/>
+      <c r="G24" s="89"/>
+      <c r="H24" s="90"/>
+      <c r="L24" s="95"/>
+      <c r="M24" s="96"/>
+      <c r="N24" s="96"/>
+      <c r="O24" s="96"/>
+      <c r="P24" s="96"/>
+      <c r="Q24" s="96"/>
+      <c r="R24" s="97"/>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B25" s="102"/>
-      <c r="C25" s="103"/>
-      <c r="D25" s="103"/>
-      <c r="E25" s="103"/>
-      <c r="F25" s="103"/>
-      <c r="G25" s="103"/>
-      <c r="H25" s="104"/>
-      <c r="L25" s="122"/>
-      <c r="M25" s="123"/>
-      <c r="N25" s="123"/>
-      <c r="O25" s="123"/>
-      <c r="P25" s="123"/>
-      <c r="Q25" s="123"/>
-      <c r="R25" s="124"/>
+      <c r="B25" s="88"/>
+      <c r="C25" s="89"/>
+      <c r="D25" s="89"/>
+      <c r="E25" s="89"/>
+      <c r="F25" s="89"/>
+      <c r="G25" s="89"/>
+      <c r="H25" s="90"/>
+      <c r="L25" s="95"/>
+      <c r="M25" s="96"/>
+      <c r="N25" s="96"/>
+      <c r="O25" s="96"/>
+      <c r="P25" s="96"/>
+      <c r="Q25" s="96"/>
+      <c r="R25" s="97"/>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B26" s="102"/>
-      <c r="C26" s="103"/>
-      <c r="D26" s="103"/>
-      <c r="E26" s="103"/>
-      <c r="F26" s="103"/>
-      <c r="G26" s="103"/>
-      <c r="H26" s="104"/>
-      <c r="L26" s="122"/>
-      <c r="M26" s="123"/>
-      <c r="N26" s="123"/>
-      <c r="O26" s="123"/>
-      <c r="P26" s="123"/>
-      <c r="Q26" s="123"/>
-      <c r="R26" s="124"/>
+      <c r="B26" s="88"/>
+      <c r="C26" s="89"/>
+      <c r="D26" s="89"/>
+      <c r="E26" s="89"/>
+      <c r="F26" s="89"/>
+      <c r="G26" s="89"/>
+      <c r="H26" s="90"/>
+      <c r="L26" s="95"/>
+      <c r="M26" s="96"/>
+      <c r="N26" s="96"/>
+      <c r="O26" s="96"/>
+      <c r="P26" s="96"/>
+      <c r="Q26" s="96"/>
+      <c r="R26" s="97"/>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B27" s="102"/>
-      <c r="C27" s="103"/>
-      <c r="D27" s="103"/>
-      <c r="E27" s="103"/>
-      <c r="F27" s="103"/>
-      <c r="G27" s="103"/>
-      <c r="H27" s="104"/>
-      <c r="L27" s="122"/>
-      <c r="M27" s="123"/>
-      <c r="N27" s="123"/>
-      <c r="O27" s="123"/>
-      <c r="P27" s="123"/>
-      <c r="Q27" s="123"/>
-      <c r="R27" s="124"/>
+      <c r="B27" s="88"/>
+      <c r="C27" s="89"/>
+      <c r="D27" s="89"/>
+      <c r="E27" s="89"/>
+      <c r="F27" s="89"/>
+      <c r="G27" s="89"/>
+      <c r="H27" s="90"/>
+      <c r="L27" s="95"/>
+      <c r="M27" s="96"/>
+      <c r="N27" s="96"/>
+      <c r="O27" s="96"/>
+      <c r="P27" s="96"/>
+      <c r="Q27" s="96"/>
+      <c r="R27" s="97"/>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B28" s="102"/>
-      <c r="C28" s="103"/>
-      <c r="D28" s="103"/>
-      <c r="E28" s="103"/>
-      <c r="F28" s="103"/>
-      <c r="G28" s="103"/>
-      <c r="H28" s="104"/>
-      <c r="L28" s="122"/>
-      <c r="M28" s="123"/>
-      <c r="N28" s="123"/>
-      <c r="O28" s="123"/>
-      <c r="P28" s="123"/>
-      <c r="Q28" s="123"/>
-      <c r="R28" s="124"/>
+      <c r="B28" s="88"/>
+      <c r="C28" s="89"/>
+      <c r="D28" s="89"/>
+      <c r="E28" s="89"/>
+      <c r="F28" s="89"/>
+      <c r="G28" s="89"/>
+      <c r="H28" s="90"/>
+      <c r="L28" s="95"/>
+      <c r="M28" s="96"/>
+      <c r="N28" s="96"/>
+      <c r="O28" s="96"/>
+      <c r="P28" s="96"/>
+      <c r="Q28" s="96"/>
+      <c r="R28" s="97"/>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B29" s="102"/>
-      <c r="C29" s="103"/>
-      <c r="D29" s="103"/>
-      <c r="E29" s="103"/>
-      <c r="F29" s="103"/>
-      <c r="G29" s="103"/>
-      <c r="H29" s="104"/>
-      <c r="L29" s="102"/>
-      <c r="M29" s="103"/>
-      <c r="N29" s="103"/>
-      <c r="O29" s="103"/>
-      <c r="P29" s="103"/>
-      <c r="Q29" s="103"/>
-      <c r="R29" s="104"/>
+      <c r="B29" s="88"/>
+      <c r="C29" s="89"/>
+      <c r="D29" s="89"/>
+      <c r="E29" s="89"/>
+      <c r="F29" s="89"/>
+      <c r="G29" s="89"/>
+      <c r="H29" s="90"/>
+      <c r="L29" s="88"/>
+      <c r="M29" s="89"/>
+      <c r="N29" s="89"/>
+      <c r="O29" s="89"/>
+      <c r="P29" s="89"/>
+      <c r="Q29" s="89"/>
+      <c r="R29" s="90"/>
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B30" s="102"/>
-      <c r="C30" s="103"/>
-      <c r="D30" s="103"/>
-      <c r="E30" s="103"/>
-      <c r="F30" s="103"/>
-      <c r="G30" s="103"/>
-      <c r="H30" s="104"/>
-      <c r="L30" s="102"/>
-      <c r="M30" s="103"/>
-      <c r="N30" s="103"/>
-      <c r="O30" s="103"/>
-      <c r="P30" s="103"/>
-      <c r="Q30" s="103"/>
-      <c r="R30" s="104"/>
+      <c r="B30" s="88"/>
+      <c r="C30" s="89"/>
+      <c r="D30" s="89"/>
+      <c r="E30" s="89"/>
+      <c r="F30" s="89"/>
+      <c r="G30" s="89"/>
+      <c r="H30" s="90"/>
+      <c r="L30" s="88"/>
+      <c r="M30" s="89"/>
+      <c r="N30" s="89"/>
+      <c r="O30" s="89"/>
+      <c r="P30" s="89"/>
+      <c r="Q30" s="89"/>
+      <c r="R30" s="90"/>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B31" s="102"/>
-      <c r="C31" s="103"/>
-      <c r="D31" s="103"/>
-      <c r="E31" s="103"/>
-      <c r="F31" s="103"/>
-      <c r="G31" s="103"/>
-      <c r="H31" s="104"/>
-      <c r="L31" s="102" t="s">
+      <c r="B31" s="88"/>
+      <c r="C31" s="89"/>
+      <c r="D31" s="89"/>
+      <c r="E31" s="89"/>
+      <c r="F31" s="89"/>
+      <c r="G31" s="89"/>
+      <c r="H31" s="90"/>
+      <c r="L31" s="88" t="s">
         <v>116</v>
       </c>
-      <c r="M31" s="103"/>
-      <c r="N31" s="103"/>
-      <c r="O31" s="103"/>
-      <c r="P31" s="103"/>
-      <c r="Q31" s="103"/>
-      <c r="R31" s="104"/>
+      <c r="M31" s="89"/>
+      <c r="N31" s="89"/>
+      <c r="O31" s="89"/>
+      <c r="P31" s="89"/>
+      <c r="Q31" s="89"/>
+      <c r="R31" s="90"/>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B32" s="102"/>
-      <c r="C32" s="103"/>
-      <c r="D32" s="103"/>
-      <c r="E32" s="103"/>
-      <c r="F32" s="103"/>
-      <c r="G32" s="103"/>
-      <c r="H32" s="104"/>
-      <c r="L32" s="102" t="s">
+      <c r="B32" s="88"/>
+      <c r="C32" s="89"/>
+      <c r="D32" s="89"/>
+      <c r="E32" s="89"/>
+      <c r="F32" s="89"/>
+      <c r="G32" s="89"/>
+      <c r="H32" s="90"/>
+      <c r="L32" s="88" t="s">
         <v>115</v>
       </c>
-      <c r="M32" s="103"/>
-      <c r="N32" s="103"/>
-      <c r="O32" s="103"/>
-      <c r="P32" s="103"/>
-      <c r="Q32" s="103"/>
-      <c r="R32" s="104"/>
+      <c r="M32" s="89"/>
+      <c r="N32" s="89"/>
+      <c r="O32" s="89"/>
+      <c r="P32" s="89"/>
+      <c r="Q32" s="89"/>
+      <c r="R32" s="90"/>
     </row>
     <row r="33" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B33" s="102"/>
-      <c r="C33" s="103"/>
-      <c r="D33" s="103"/>
-      <c r="E33" s="103"/>
-      <c r="F33" s="103"/>
-      <c r="G33" s="103"/>
-      <c r="H33" s="104"/>
-      <c r="L33" s="102"/>
-      <c r="M33" s="103"/>
-      <c r="N33" s="103"/>
-      <c r="O33" s="103"/>
-      <c r="P33" s="103"/>
-      <c r="Q33" s="103"/>
-      <c r="R33" s="104"/>
+      <c r="B33" s="88"/>
+      <c r="C33" s="89"/>
+      <c r="D33" s="89"/>
+      <c r="E33" s="89"/>
+      <c r="F33" s="89"/>
+      <c r="G33" s="89"/>
+      <c r="H33" s="90"/>
+      <c r="L33" s="88"/>
+      <c r="M33" s="89"/>
+      <c r="N33" s="89"/>
+      <c r="O33" s="89"/>
+      <c r="P33" s="89"/>
+      <c r="Q33" s="89"/>
+      <c r="R33" s="90"/>
     </row>
     <row r="34" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B34" s="102"/>
-      <c r="C34" s="103"/>
-      <c r="D34" s="103"/>
-      <c r="E34" s="103"/>
-      <c r="F34" s="103"/>
-      <c r="G34" s="103"/>
-      <c r="H34" s="104"/>
-      <c r="L34" s="102"/>
-      <c r="M34" s="103"/>
-      <c r="N34" s="103"/>
-      <c r="O34" s="103"/>
-      <c r="P34" s="103"/>
-      <c r="Q34" s="103"/>
-      <c r="R34" s="104"/>
+      <c r="B34" s="88"/>
+      <c r="C34" s="89"/>
+      <c r="D34" s="89"/>
+      <c r="E34" s="89"/>
+      <c r="F34" s="89"/>
+      <c r="G34" s="89"/>
+      <c r="H34" s="90"/>
+      <c r="L34" s="88"/>
+      <c r="M34" s="89"/>
+      <c r="N34" s="89"/>
+      <c r="O34" s="89"/>
+      <c r="P34" s="89"/>
+      <c r="Q34" s="89"/>
+      <c r="R34" s="90"/>
     </row>
     <row r="35" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B35" s="117"/>
-      <c r="C35" s="118"/>
-      <c r="D35" s="118"/>
-      <c r="E35" s="118"/>
-      <c r="F35" s="118"/>
-      <c r="G35" s="118"/>
-      <c r="H35" s="119"/>
-      <c r="L35" s="117"/>
-      <c r="M35" s="118"/>
-      <c r="N35" s="118"/>
-      <c r="O35" s="118"/>
-      <c r="P35" s="118"/>
-      <c r="Q35" s="118"/>
-      <c r="R35" s="119"/>
+      <c r="B35" s="91"/>
+      <c r="C35" s="92"/>
+      <c r="D35" s="92"/>
+      <c r="E35" s="92"/>
+      <c r="F35" s="92"/>
+      <c r="G35" s="92"/>
+      <c r="H35" s="93"/>
+      <c r="L35" s="91"/>
+      <c r="M35" s="92"/>
+      <c r="N35" s="92"/>
+      <c r="O35" s="92"/>
+      <c r="P35" s="92"/>
+      <c r="Q35" s="92"/>
+      <c r="R35" s="93"/>
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B7:H8"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B27:H27"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="B17:H18"/>
+    <mergeCell ref="B19:H19"/>
+    <mergeCell ref="B20:H20"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="B24:H24"/>
+    <mergeCell ref="B25:H25"/>
+    <mergeCell ref="B26:H26"/>
+    <mergeCell ref="B34:H34"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="B28:H28"/>
+    <mergeCell ref="B29:H29"/>
+    <mergeCell ref="B30:H30"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="B33:H33"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="L7:R8"/>
+    <mergeCell ref="L9:R9"/>
+    <mergeCell ref="L10:R10"/>
+    <mergeCell ref="L11:R11"/>
+    <mergeCell ref="B11:H11"/>
     <mergeCell ref="L33:R33"/>
     <mergeCell ref="L34:R34"/>
     <mergeCell ref="L35:R35"/>
@@ -3538,38 +3628,6 @@
     <mergeCell ref="L17:R18"/>
     <mergeCell ref="L19:R19"/>
     <mergeCell ref="L12:R12"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="L7:R8"/>
-    <mergeCell ref="L9:R9"/>
-    <mergeCell ref="L10:R10"/>
-    <mergeCell ref="L11:R11"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="B34:H34"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="B28:H28"/>
-    <mergeCell ref="B29:H29"/>
-    <mergeCell ref="B30:H30"/>
-    <mergeCell ref="B31:H31"/>
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="B33:H33"/>
-    <mergeCell ref="B27:H27"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="B17:H18"/>
-    <mergeCell ref="B19:H19"/>
-    <mergeCell ref="B20:H20"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="B23:H23"/>
-    <mergeCell ref="B24:H24"/>
-    <mergeCell ref="B25:H25"/>
-    <mergeCell ref="B26:H26"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="B7:H8"/>
-    <mergeCell ref="B9:H9"/>
-    <mergeCell ref="B10:H10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/GoodAndBetter_Schema.xlsx
+++ b/GoodAndBetter_Schema.xlsx
@@ -5,7 +5,7 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wan\DOCUME~1\카카오~1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Good And Better\git\Good-Better\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="154">
   <si>
     <t>version</t>
   </si>
@@ -521,6 +521,58 @@
   </si>
   <si>
     <t>varchar(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항 테이블 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> v 0.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOARD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOA_Code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOA_Title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOA_Content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(1000)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOA_Indate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEM_Code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1240,6 +1292,204 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1258,194 +1508,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -1456,6 +1550,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1466,6 +1596,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1476,87 +1609,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1592,7 +1644,7 @@
       <xdr:col>19</xdr:col>
       <xdr:colOff>311149</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:rowOff>158750</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1885,10 +1937,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S52"/>
+  <dimension ref="A1:S64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1914,50 +1966,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="G1" s="34" t="s">
+      <c r="G1" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="36"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="55"/>
     </row>
     <row r="2" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G2" s="37"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="39"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="58"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="G3" s="40" t="s">
+      <c r="G3" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="42"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="61"/>
       <c r="K3" s="4" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="G4" s="43" t="s">
+      <c r="G4" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="45"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="64"/>
       <c r="K4" s="5">
         <v>42213</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G5" s="46" t="s">
+      <c r="G5" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="48"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="67"/>
       <c r="K5" s="6">
         <v>42175</v>
       </c>
@@ -1999,13 +2051,13 @@
       <c r="I9" s="1"/>
       <c r="M9" s="10"/>
       <c r="N9" s="10"/>
-      <c r="O9" s="49" t="s">
+      <c r="O9" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="P9" s="50"/>
-      <c r="Q9" s="50"/>
-      <c r="R9" s="50"/>
-      <c r="S9" s="51"/>
+      <c r="P9" s="69"/>
+      <c r="Q9" s="69"/>
+      <c r="R9" s="69"/>
+      <c r="S9" s="70"/>
     </row>
     <row r="10" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
@@ -2037,11 +2089,11 @@
       </c>
       <c r="M10" s="11"/>
       <c r="N10" s="11"/>
-      <c r="O10" s="52"/>
-      <c r="P10" s="53"/>
-      <c r="Q10" s="53"/>
-      <c r="R10" s="53"/>
-      <c r="S10" s="54"/>
+      <c r="O10" s="71"/>
+      <c r="P10" s="72"/>
+      <c r="Q10" s="72"/>
+      <c r="R10" s="72"/>
+      <c r="S10" s="73"/>
     </row>
     <row r="11" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -2073,11 +2125,11 @@
       </c>
       <c r="M11" s="11"/>
       <c r="N11" s="11"/>
-      <c r="O11" s="55" t="s">
+      <c r="O11" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="P11" s="56"/>
-      <c r="Q11" s="57"/>
+      <c r="P11" s="75"/>
+      <c r="Q11" s="76"/>
       <c r="R11" s="7" t="s">
         <v>10</v>
       </c>
@@ -2103,11 +2155,11 @@
       </c>
       <c r="M12" s="11"/>
       <c r="N12" s="11"/>
-      <c r="O12" s="58" t="s">
+      <c r="O12" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="P12" s="59"/>
-      <c r="Q12" s="60"/>
+      <c r="P12" s="45"/>
+      <c r="Q12" s="78"/>
       <c r="R12" s="14" t="s">
         <v>70</v>
       </c>
@@ -2141,11 +2193,11 @@
       </c>
       <c r="M13" s="11"/>
       <c r="N13" s="11"/>
-      <c r="O13" s="31" t="s">
+      <c r="O13" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="P13" s="29"/>
-      <c r="Q13" s="30"/>
+      <c r="P13" s="48"/>
+      <c r="Q13" s="49"/>
       <c r="R13" s="14" t="s">
         <v>72</v>
       </c>
@@ -2156,11 +2208,11 @@
     <row r="14" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M14" s="11"/>
       <c r="N14" s="11"/>
-      <c r="O14" s="31" t="s">
+      <c r="O14" s="50" t="s">
         <v>93</v>
       </c>
-      <c r="P14" s="29"/>
-      <c r="Q14" s="30"/>
+      <c r="P14" s="48"/>
+      <c r="Q14" s="49"/>
       <c r="R14" s="14" t="s">
         <v>92</v>
       </c>
@@ -2185,15 +2237,15 @@
       <c r="J15" s="1"/>
       <c r="M15" s="12"/>
       <c r="N15" s="12"/>
-      <c r="O15" s="28" t="s">
+      <c r="O15" s="47" t="s">
         <v>94</v>
       </c>
-      <c r="P15" s="29"/>
-      <c r="Q15" s="30"/>
-      <c r="R15" s="33" t="s">
+      <c r="P15" s="48"/>
+      <c r="Q15" s="49"/>
+      <c r="R15" s="52" t="s">
         <v>95</v>
       </c>
-      <c r="S15" s="32">
+      <c r="S15" s="51">
         <v>42192</v>
       </c>
     </row>
@@ -2214,11 +2266,11 @@
       <c r="J16" s="1"/>
       <c r="M16" s="12"/>
       <c r="N16" s="12"/>
-      <c r="O16" s="31"/>
-      <c r="P16" s="29"/>
-      <c r="Q16" s="30"/>
-      <c r="R16" s="33"/>
-      <c r="S16" s="32"/>
+      <c r="O16" s="50"/>
+      <c r="P16" s="48"/>
+      <c r="Q16" s="49"/>
+      <c r="R16" s="52"/>
+      <c r="S16" s="51"/>
     </row>
     <row r="17" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
@@ -2253,13 +2305,13 @@
       </c>
       <c r="M17" s="13"/>
       <c r="N17" s="13"/>
-      <c r="O17" s="25" t="s">
+      <c r="O17" s="82" t="s">
         <v>96</v>
       </c>
-      <c r="P17" s="26"/>
-      <c r="Q17" s="27"/>
-      <c r="R17" s="33"/>
-      <c r="S17" s="32"/>
+      <c r="P17" s="83"/>
+      <c r="Q17" s="84"/>
+      <c r="R17" s="52"/>
+      <c r="S17" s="51"/>
     </row>
     <row r="18" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
@@ -2294,11 +2346,11 @@
       </c>
       <c r="M18" s="13"/>
       <c r="N18" s="13"/>
-      <c r="O18" s="122" t="s">
+      <c r="O18" s="79" t="s">
         <v>134</v>
       </c>
-      <c r="P18" s="123"/>
-      <c r="Q18" s="124"/>
+      <c r="P18" s="80"/>
+      <c r="Q18" s="81"/>
       <c r="R18" s="14" t="s">
         <v>133</v>
       </c>
@@ -2325,11 +2377,11 @@
       <c r="J19" s="1"/>
       <c r="M19" s="11"/>
       <c r="N19" s="11"/>
-      <c r="O19" s="122" t="s">
+      <c r="O19" s="79" t="s">
         <v>135</v>
       </c>
-      <c r="P19" s="123"/>
-      <c r="Q19" s="124"/>
+      <c r="P19" s="80"/>
+      <c r="Q19" s="81"/>
       <c r="R19" s="14" t="s">
         <v>136</v>
       </c>
@@ -2368,36 +2420,42 @@
       </c>
       <c r="M20" s="12"/>
       <c r="N20" s="12"/>
-      <c r="O20" s="19"/>
-      <c r="P20" s="20"/>
-      <c r="Q20" s="21"/>
-      <c r="R20" s="14"/>
-      <c r="S20" s="5"/>
+      <c r="O20" s="85" t="s">
+        <v>141</v>
+      </c>
+      <c r="P20" s="86"/>
+      <c r="Q20" s="87"/>
+      <c r="R20" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="S20" s="5">
+        <v>42240</v>
+      </c>
     </row>
     <row r="21" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M21" s="12"/>
       <c r="N21" s="12"/>
-      <c r="O21" s="25"/>
-      <c r="P21" s="26"/>
-      <c r="Q21" s="27"/>
+      <c r="O21" s="82"/>
+      <c r="P21" s="83"/>
+      <c r="Q21" s="84"/>
       <c r="R21" s="14"/>
       <c r="S21" s="15"/>
     </row>
     <row r="22" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M22" s="12"/>
       <c r="N22" s="12"/>
-      <c r="O22" s="25"/>
-      <c r="P22" s="26"/>
-      <c r="Q22" s="27"/>
+      <c r="O22" s="82"/>
+      <c r="P22" s="83"/>
+      <c r="Q22" s="84"/>
       <c r="R22" s="14"/>
       <c r="S22" s="15"/>
     </row>
     <row r="23" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M23" s="12"/>
       <c r="N23" s="12"/>
-      <c r="O23" s="25"/>
-      <c r="P23" s="26"/>
-      <c r="Q23" s="27"/>
+      <c r="O23" s="82"/>
+      <c r="P23" s="83"/>
+      <c r="Q23" s="84"/>
       <c r="R23" s="14"/>
       <c r="S23" s="15"/>
     </row>
@@ -2420,9 +2478,9 @@
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
       <c r="N24" s="12"/>
-      <c r="O24" s="25"/>
-      <c r="P24" s="26"/>
-      <c r="Q24" s="27"/>
+      <c r="O24" s="82"/>
+      <c r="P24" s="83"/>
+      <c r="Q24" s="84"/>
       <c r="R24" s="14"/>
       <c r="S24" s="15"/>
     </row>
@@ -2445,9 +2503,9 @@
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
       <c r="N25" s="12"/>
-      <c r="O25" s="25"/>
-      <c r="P25" s="26"/>
-      <c r="Q25" s="27"/>
+      <c r="O25" s="82"/>
+      <c r="P25" s="83"/>
+      <c r="Q25" s="84"/>
       <c r="R25" s="14"/>
       <c r="S25" s="15"/>
     </row>
@@ -2492,9 +2550,9 @@
         <v>43</v>
       </c>
       <c r="N26" s="11"/>
-      <c r="O26" s="25"/>
-      <c r="P26" s="26"/>
-      <c r="Q26" s="27"/>
+      <c r="O26" s="82"/>
+      <c r="P26" s="83"/>
+      <c r="Q26" s="84"/>
       <c r="R26" s="14"/>
       <c r="S26" s="15"/>
     </row>
@@ -2539,9 +2597,9 @@
         <v>18</v>
       </c>
       <c r="N27" s="11"/>
-      <c r="O27" s="19"/>
-      <c r="P27" s="20"/>
-      <c r="Q27" s="21"/>
+      <c r="O27" s="85"/>
+      <c r="P27" s="86"/>
+      <c r="Q27" s="87"/>
       <c r="R27" s="14"/>
       <c r="S27" s="5"/>
     </row>
@@ -2566,9 +2624,9 @@
         <v>49</v>
       </c>
       <c r="N28" s="11"/>
-      <c r="O28" s="19"/>
-      <c r="P28" s="20"/>
-      <c r="Q28" s="21"/>
+      <c r="O28" s="85"/>
+      <c r="P28" s="86"/>
+      <c r="Q28" s="87"/>
       <c r="R28" s="14"/>
       <c r="S28" s="5"/>
     </row>
@@ -2607,36 +2665,36 @@
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
       <c r="N29" s="11"/>
-      <c r="O29" s="19"/>
-      <c r="P29" s="20"/>
-      <c r="Q29" s="21"/>
+      <c r="O29" s="85"/>
+      <c r="P29" s="86"/>
+      <c r="Q29" s="87"/>
       <c r="R29" s="14"/>
       <c r="S29" s="4"/>
     </row>
     <row r="30" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M30" s="11"/>
       <c r="N30" s="11"/>
-      <c r="O30" s="19"/>
-      <c r="P30" s="20"/>
-      <c r="Q30" s="21"/>
+      <c r="O30" s="85"/>
+      <c r="P30" s="86"/>
+      <c r="Q30" s="87"/>
       <c r="R30" s="14"/>
       <c r="S30" s="4"/>
     </row>
     <row r="31" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M31" s="11"/>
       <c r="N31" s="11"/>
-      <c r="O31" s="19"/>
-      <c r="P31" s="20"/>
-      <c r="Q31" s="21"/>
+      <c r="O31" s="85"/>
+      <c r="P31" s="86"/>
+      <c r="Q31" s="87"/>
       <c r="R31" s="14"/>
       <c r="S31" s="4"/>
     </row>
     <row r="32" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M32" s="11"/>
       <c r="N32" s="11"/>
-      <c r="O32" s="19"/>
-      <c r="P32" s="20"/>
-      <c r="Q32" s="21"/>
+      <c r="O32" s="85"/>
+      <c r="P32" s="86"/>
+      <c r="Q32" s="87"/>
       <c r="R32" s="14"/>
       <c r="S32" s="4"/>
     </row>
@@ -2656,9 +2714,9 @@
       <c r="I33" s="1"/>
       <c r="M33" s="11"/>
       <c r="N33" s="11"/>
-      <c r="O33" s="19"/>
-      <c r="P33" s="20"/>
-      <c r="Q33" s="21"/>
+      <c r="O33" s="85"/>
+      <c r="P33" s="86"/>
+      <c r="Q33" s="87"/>
       <c r="R33" s="14"/>
       <c r="S33" s="4"/>
     </row>
@@ -2678,9 +2736,9 @@
       <c r="I34" s="1"/>
       <c r="M34" s="11"/>
       <c r="N34" s="11"/>
-      <c r="O34" s="19"/>
-      <c r="P34" s="20"/>
-      <c r="Q34" s="21"/>
+      <c r="O34" s="85"/>
+      <c r="P34" s="86"/>
+      <c r="Q34" s="87"/>
       <c r="R34" s="14"/>
       <c r="S34" s="4"/>
     </row>
@@ -2710,9 +2768,9 @@
       <c r="I35" s="1"/>
       <c r="M35" s="11"/>
       <c r="N35" s="11"/>
-      <c r="O35" s="19"/>
-      <c r="P35" s="20"/>
-      <c r="Q35" s="21"/>
+      <c r="O35" s="85"/>
+      <c r="P35" s="86"/>
+      <c r="Q35" s="87"/>
       <c r="R35" s="14"/>
       <c r="S35" s="4"/>
     </row>
@@ -2742,9 +2800,9 @@
       <c r="I36" s="2"/>
       <c r="M36" s="11"/>
       <c r="N36" s="11"/>
-      <c r="O36" s="19"/>
-      <c r="P36" s="20"/>
-      <c r="Q36" s="21"/>
+      <c r="O36" s="85"/>
+      <c r="P36" s="86"/>
+      <c r="Q36" s="87"/>
       <c r="R36" s="14"/>
       <c r="S36" s="4"/>
     </row>
@@ -2766,9 +2824,9 @@
       <c r="I37" s="1"/>
       <c r="M37" s="11"/>
       <c r="N37" s="11"/>
-      <c r="O37" s="19"/>
-      <c r="P37" s="20"/>
-      <c r="Q37" s="21"/>
+      <c r="O37" s="85"/>
+      <c r="P37" s="86"/>
+      <c r="Q37" s="87"/>
       <c r="R37" s="14"/>
       <c r="S37" s="4"/>
     </row>
@@ -2790,9 +2848,9 @@
       <c r="I38" s="1"/>
       <c r="M38" s="11"/>
       <c r="N38" s="11"/>
-      <c r="O38" s="19"/>
-      <c r="P38" s="20"/>
-      <c r="Q38" s="21"/>
+      <c r="O38" s="85"/>
+      <c r="P38" s="86"/>
+      <c r="Q38" s="87"/>
       <c r="R38" s="14"/>
       <c r="S38" s="4"/>
     </row>
@@ -2801,9 +2859,9 @@
       <c r="J39" s="9"/>
       <c r="M39" s="11"/>
       <c r="N39" s="11"/>
-      <c r="O39" s="19"/>
-      <c r="P39" s="20"/>
-      <c r="Q39" s="21"/>
+      <c r="O39" s="85"/>
+      <c r="P39" s="86"/>
+      <c r="Q39" s="87"/>
       <c r="R39" s="14"/>
       <c r="S39" s="4"/>
     </row>
@@ -2812,166 +2870,291 @@
       <c r="J40" s="9"/>
       <c r="M40" s="11"/>
       <c r="N40" s="11"/>
-      <c r="O40" s="19"/>
-      <c r="P40" s="20"/>
-      <c r="Q40" s="21"/>
+      <c r="O40" s="85"/>
+      <c r="P40" s="86"/>
+      <c r="Q40" s="87"/>
       <c r="R40" s="14"/>
       <c r="S40" s="4"/>
     </row>
     <row r="41" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="O41" s="22"/>
-      <c r="P41" s="23"/>
-      <c r="Q41" s="24"/>
+      <c r="O41" s="88"/>
+      <c r="P41" s="89"/>
+      <c r="Q41" s="90"/>
       <c r="R41" s="16"/>
       <c r="S41" s="17"/>
     </row>
-    <row r="43" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>3</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+    </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B44" s="73" t="s">
+      <c r="A44" t="s">
+        <v>8</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>12</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+    </row>
+    <row r="46" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>15</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+    </row>
+    <row r="47" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>9</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+    </row>
+    <row r="49" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="55" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="56" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B56" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="C44" s="74"/>
-      <c r="D44" s="74"/>
-      <c r="E44" s="74"/>
-      <c r="F44" s="74"/>
-      <c r="G44" s="74"/>
-      <c r="H44" s="74"/>
-      <c r="I44" s="74"/>
-      <c r="J44" s="74"/>
-      <c r="K44" s="74"/>
-      <c r="L44" s="75"/>
-    </row>
-    <row r="45" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="76"/>
-      <c r="C45" s="77"/>
-      <c r="D45" s="77"/>
-      <c r="E45" s="77"/>
-      <c r="F45" s="77"/>
-      <c r="G45" s="77"/>
-      <c r="H45" s="77"/>
-      <c r="I45" s="77"/>
-      <c r="J45" s="77"/>
-      <c r="K45" s="77"/>
-      <c r="L45" s="78"/>
-    </row>
-    <row r="46" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="79" t="s">
+      <c r="C56" s="32"/>
+      <c r="D56" s="32"/>
+      <c r="E56" s="32"/>
+      <c r="F56" s="32"/>
+      <c r="G56" s="32"/>
+      <c r="H56" s="32"/>
+      <c r="I56" s="32"/>
+      <c r="J56" s="32"/>
+      <c r="K56" s="32"/>
+      <c r="L56" s="33"/>
+    </row>
+    <row r="57" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B57" s="34"/>
+      <c r="C57" s="35"/>
+      <c r="D57" s="35"/>
+      <c r="E57" s="35"/>
+      <c r="F57" s="35"/>
+      <c r="G57" s="35"/>
+      <c r="H57" s="35"/>
+      <c r="I57" s="35"/>
+      <c r="J57" s="35"/>
+      <c r="K57" s="35"/>
+      <c r="L57" s="36"/>
+    </row>
+    <row r="58" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B58" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="C46" s="81" t="s">
+      <c r="C58" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="D46" s="81"/>
-      <c r="E46" s="81"/>
-      <c r="F46" s="81"/>
-      <c r="G46" s="81"/>
-      <c r="H46" s="81"/>
-      <c r="I46" s="81"/>
-      <c r="J46" s="81"/>
-      <c r="K46" s="81"/>
-      <c r="L46" s="82"/>
-    </row>
-    <row r="47" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="80"/>
-      <c r="C47" s="83" t="s">
+      <c r="D58" s="39"/>
+      <c r="E58" s="39"/>
+      <c r="F58" s="39"/>
+      <c r="G58" s="39"/>
+      <c r="H58" s="39"/>
+      <c r="I58" s="39"/>
+      <c r="J58" s="39"/>
+      <c r="K58" s="39"/>
+      <c r="L58" s="40"/>
+    </row>
+    <row r="59" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B59" s="38"/>
+      <c r="C59" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="D47" s="84"/>
-      <c r="E47" s="84"/>
-      <c r="F47" s="84"/>
-      <c r="G47" s="84"/>
-      <c r="H47" s="84"/>
-      <c r="I47" s="84"/>
-      <c r="J47" s="84"/>
-      <c r="K47" s="84"/>
-      <c r="L47" s="85"/>
-    </row>
-    <row r="48" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="80"/>
-      <c r="C48" s="86" t="s">
+      <c r="D59" s="42"/>
+      <c r="E59" s="42"/>
+      <c r="F59" s="42"/>
+      <c r="G59" s="42"/>
+      <c r="H59" s="42"/>
+      <c r="I59" s="42"/>
+      <c r="J59" s="42"/>
+      <c r="K59" s="42"/>
+      <c r="L59" s="43"/>
+    </row>
+    <row r="60" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B60" s="38"/>
+      <c r="C60" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="D48" s="59"/>
-      <c r="E48" s="59"/>
-      <c r="F48" s="59"/>
-      <c r="G48" s="59"/>
-      <c r="H48" s="59"/>
-      <c r="I48" s="59"/>
-      <c r="J48" s="59"/>
-      <c r="K48" s="59"/>
-      <c r="L48" s="87"/>
-    </row>
-    <row r="49" spans="2:12" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="61" t="s">
+      <c r="D60" s="45"/>
+      <c r="E60" s="45"/>
+      <c r="F60" s="45"/>
+      <c r="G60" s="45"/>
+      <c r="H60" s="45"/>
+      <c r="I60" s="45"/>
+      <c r="J60" s="45"/>
+      <c r="K60" s="45"/>
+      <c r="L60" s="46"/>
+    </row>
+    <row r="61" spans="2:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C49" s="64" t="s">
+      <c r="C61" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="D49" s="65"/>
-      <c r="E49" s="65"/>
-      <c r="F49" s="65"/>
-      <c r="G49" s="65"/>
-      <c r="H49" s="65"/>
-      <c r="I49" s="65"/>
-      <c r="J49" s="65"/>
-      <c r="K49" s="65"/>
-      <c r="L49" s="66"/>
-    </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B50" s="62"/>
-      <c r="C50" s="67"/>
-      <c r="D50" s="67"/>
-      <c r="E50" s="67"/>
-      <c r="F50" s="67"/>
-      <c r="G50" s="67"/>
-      <c r="H50" s="67"/>
-      <c r="I50" s="67"/>
-      <c r="J50" s="67"/>
-      <c r="K50" s="67"/>
-      <c r="L50" s="68"/>
-    </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B51" s="62"/>
-      <c r="C51" s="69" t="s">
+      <c r="D61" s="23"/>
+      <c r="E61" s="23"/>
+      <c r="F61" s="23"/>
+      <c r="G61" s="23"/>
+      <c r="H61" s="23"/>
+      <c r="I61" s="23"/>
+      <c r="J61" s="23"/>
+      <c r="K61" s="23"/>
+      <c r="L61" s="24"/>
+    </row>
+    <row r="62" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B62" s="20"/>
+      <c r="C62" s="25"/>
+      <c r="D62" s="25"/>
+      <c r="E62" s="25"/>
+      <c r="F62" s="25"/>
+      <c r="G62" s="25"/>
+      <c r="H62" s="25"/>
+      <c r="I62" s="25"/>
+      <c r="J62" s="25"/>
+      <c r="K62" s="25"/>
+      <c r="L62" s="26"/>
+    </row>
+    <row r="63" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B63" s="20"/>
+      <c r="C63" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="D51" s="69"/>
-      <c r="E51" s="69"/>
-      <c r="F51" s="69"/>
-      <c r="G51" s="69"/>
-      <c r="H51" s="69"/>
-      <c r="I51" s="69"/>
-      <c r="J51" s="69"/>
-      <c r="K51" s="69"/>
-      <c r="L51" s="70"/>
-    </row>
-    <row r="52" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="63"/>
-      <c r="C52" s="71" t="s">
+      <c r="D63" s="27"/>
+      <c r="E63" s="27"/>
+      <c r="F63" s="27"/>
+      <c r="G63" s="27"/>
+      <c r="H63" s="27"/>
+      <c r="I63" s="27"/>
+      <c r="J63" s="27"/>
+      <c r="K63" s="27"/>
+      <c r="L63" s="28"/>
+    </row>
+    <row r="64" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B64" s="21"/>
+      <c r="C64" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="D52" s="71"/>
-      <c r="E52" s="71"/>
-      <c r="F52" s="71"/>
-      <c r="G52" s="71"/>
-      <c r="H52" s="71"/>
-      <c r="I52" s="71"/>
-      <c r="J52" s="71"/>
-      <c r="K52" s="71"/>
-      <c r="L52" s="72"/>
+      <c r="D64" s="29"/>
+      <c r="E64" s="29"/>
+      <c r="F64" s="29"/>
+      <c r="G64" s="29"/>
+      <c r="H64" s="29"/>
+      <c r="I64" s="29"/>
+      <c r="J64" s="29"/>
+      <c r="K64" s="29"/>
+      <c r="L64" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="B49:B52"/>
-    <mergeCell ref="C49:L50"/>
-    <mergeCell ref="C51:L51"/>
-    <mergeCell ref="C52:L52"/>
-    <mergeCell ref="B44:L45"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="C46:L46"/>
-    <mergeCell ref="C47:L47"/>
-    <mergeCell ref="C48:L48"/>
+    <mergeCell ref="O37:Q37"/>
+    <mergeCell ref="O38:Q38"/>
+    <mergeCell ref="O39:Q39"/>
+    <mergeCell ref="O40:Q40"/>
+    <mergeCell ref="O41:Q41"/>
+    <mergeCell ref="O32:Q32"/>
+    <mergeCell ref="O33:Q33"/>
+    <mergeCell ref="O34:Q34"/>
+    <mergeCell ref="O35:Q35"/>
+    <mergeCell ref="O36:Q36"/>
+    <mergeCell ref="O27:Q27"/>
+    <mergeCell ref="O28:Q28"/>
+    <mergeCell ref="O29:Q29"/>
+    <mergeCell ref="O30:Q30"/>
+    <mergeCell ref="O31:Q31"/>
+    <mergeCell ref="O23:Q23"/>
+    <mergeCell ref="O24:Q24"/>
+    <mergeCell ref="O25:Q25"/>
+    <mergeCell ref="O26:Q26"/>
+    <mergeCell ref="O20:Q20"/>
+    <mergeCell ref="O18:Q18"/>
+    <mergeCell ref="O19:Q19"/>
+    <mergeCell ref="O21:Q21"/>
+    <mergeCell ref="O22:Q22"/>
+    <mergeCell ref="O17:Q17"/>
     <mergeCell ref="O15:Q16"/>
     <mergeCell ref="S15:S17"/>
     <mergeCell ref="R15:R17"/>
@@ -2984,31 +3167,15 @@
     <mergeCell ref="O12:Q12"/>
     <mergeCell ref="O13:Q13"/>
     <mergeCell ref="O14:Q14"/>
-    <mergeCell ref="O18:Q18"/>
-    <mergeCell ref="O19:Q19"/>
-    <mergeCell ref="O21:Q21"/>
-    <mergeCell ref="O22:Q22"/>
-    <mergeCell ref="O17:Q17"/>
-    <mergeCell ref="O23:Q23"/>
-    <mergeCell ref="O24:Q24"/>
-    <mergeCell ref="O25:Q25"/>
-    <mergeCell ref="O26:Q26"/>
-    <mergeCell ref="O20:Q20"/>
-    <mergeCell ref="O27:Q27"/>
-    <mergeCell ref="O28:Q28"/>
-    <mergeCell ref="O29:Q29"/>
-    <mergeCell ref="O30:Q30"/>
-    <mergeCell ref="O31:Q31"/>
-    <mergeCell ref="O32:Q32"/>
-    <mergeCell ref="O33:Q33"/>
-    <mergeCell ref="O34:Q34"/>
-    <mergeCell ref="O35:Q35"/>
-    <mergeCell ref="O36:Q36"/>
-    <mergeCell ref="O37:Q37"/>
-    <mergeCell ref="O38:Q38"/>
-    <mergeCell ref="O39:Q39"/>
-    <mergeCell ref="O40:Q40"/>
-    <mergeCell ref="O41:Q41"/>
+    <mergeCell ref="B61:B64"/>
+    <mergeCell ref="C61:L62"/>
+    <mergeCell ref="C63:L63"/>
+    <mergeCell ref="C64:L64"/>
+    <mergeCell ref="B56:L57"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="C58:L58"/>
+    <mergeCell ref="C59:L59"/>
+    <mergeCell ref="C60:L60"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3043,575 +3210,543 @@
       <c r="J4" s="18"/>
     </row>
     <row r="5" spans="2:18" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="B5" s="112" t="s">
+      <c r="B5" s="120" t="s">
         <v>112</v>
       </c>
-      <c r="C5" s="112"/>
-      <c r="D5" s="112"/>
-      <c r="E5" s="112"/>
-      <c r="F5" s="112"/>
-      <c r="G5" s="112"/>
-      <c r="H5" s="112"/>
-      <c r="L5" s="94" t="s">
+      <c r="C5" s="120"/>
+      <c r="D5" s="120"/>
+      <c r="E5" s="120"/>
+      <c r="F5" s="120"/>
+      <c r="G5" s="120"/>
+      <c r="H5" s="120"/>
+      <c r="L5" s="121" t="s">
         <v>118</v>
       </c>
-      <c r="M5" s="94"/>
-      <c r="N5" s="94"/>
-      <c r="O5" s="94"/>
-      <c r="P5" s="94"/>
-      <c r="Q5" s="94"/>
-      <c r="R5" s="94"/>
+      <c r="M5" s="121"/>
+      <c r="N5" s="121"/>
+      <c r="O5" s="121"/>
+      <c r="P5" s="121"/>
+      <c r="Q5" s="121"/>
+      <c r="R5" s="121"/>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B7" s="113" t="s">
+      <c r="B7" s="93" t="s">
         <v>111</v>
       </c>
-      <c r="C7" s="114"/>
-      <c r="D7" s="114"/>
-      <c r="E7" s="114"/>
-      <c r="F7" s="114"/>
-      <c r="G7" s="114"/>
-      <c r="H7" s="115"/>
-      <c r="L7" s="113" t="s">
+      <c r="C7" s="94"/>
+      <c r="D7" s="94"/>
+      <c r="E7" s="94"/>
+      <c r="F7" s="94"/>
+      <c r="G7" s="94"/>
+      <c r="H7" s="95"/>
+      <c r="L7" s="93" t="s">
         <v>113</v>
       </c>
-      <c r="M7" s="114"/>
-      <c r="N7" s="114"/>
-      <c r="O7" s="114"/>
-      <c r="P7" s="114"/>
-      <c r="Q7" s="114"/>
-      <c r="R7" s="115"/>
+      <c r="M7" s="94"/>
+      <c r="N7" s="94"/>
+      <c r="O7" s="94"/>
+      <c r="P7" s="94"/>
+      <c r="Q7" s="94"/>
+      <c r="R7" s="95"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B8" s="116"/>
-      <c r="C8" s="117"/>
-      <c r="D8" s="117"/>
-      <c r="E8" s="117"/>
-      <c r="F8" s="117"/>
-      <c r="G8" s="117"/>
-      <c r="H8" s="118"/>
-      <c r="L8" s="116"/>
-      <c r="M8" s="117"/>
-      <c r="N8" s="117"/>
-      <c r="O8" s="117"/>
-      <c r="P8" s="117"/>
-      <c r="Q8" s="117"/>
-      <c r="R8" s="118"/>
+      <c r="B8" s="96"/>
+      <c r="C8" s="97"/>
+      <c r="D8" s="97"/>
+      <c r="E8" s="97"/>
+      <c r="F8" s="97"/>
+      <c r="G8" s="97"/>
+      <c r="H8" s="98"/>
+      <c r="L8" s="96"/>
+      <c r="M8" s="97"/>
+      <c r="N8" s="97"/>
+      <c r="O8" s="97"/>
+      <c r="P8" s="97"/>
+      <c r="Q8" s="97"/>
+      <c r="R8" s="98"/>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B9" s="119" t="s">
+      <c r="B9" s="99" t="s">
         <v>105</v>
       </c>
-      <c r="C9" s="120"/>
-      <c r="D9" s="120"/>
-      <c r="E9" s="120"/>
-      <c r="F9" s="120"/>
-      <c r="G9" s="120"/>
-      <c r="H9" s="121"/>
-      <c r="L9" s="119" t="s">
+      <c r="C9" s="100"/>
+      <c r="D9" s="100"/>
+      <c r="E9" s="100"/>
+      <c r="F9" s="100"/>
+      <c r="G9" s="100"/>
+      <c r="H9" s="101"/>
+      <c r="L9" s="99" t="s">
         <v>105</v>
       </c>
-      <c r="M9" s="120"/>
-      <c r="N9" s="120"/>
-      <c r="O9" s="120"/>
-      <c r="P9" s="120"/>
-      <c r="Q9" s="120"/>
-      <c r="R9" s="121"/>
+      <c r="M9" s="100"/>
+      <c r="N9" s="100"/>
+      <c r="O9" s="100"/>
+      <c r="P9" s="100"/>
+      <c r="Q9" s="100"/>
+      <c r="R9" s="101"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B10" s="99" t="s">
+      <c r="B10" s="91" t="s">
         <v>106</v>
       </c>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="21"/>
-      <c r="L10" s="99" t="s">
+      <c r="C10" s="86"/>
+      <c r="D10" s="86"/>
+      <c r="E10" s="86"/>
+      <c r="F10" s="86"/>
+      <c r="G10" s="86"/>
+      <c r="H10" s="87"/>
+      <c r="L10" s="91" t="s">
         <v>106</v>
       </c>
-      <c r="M10" s="20"/>
-      <c r="N10" s="20"/>
-      <c r="O10" s="20"/>
-      <c r="P10" s="20"/>
-      <c r="Q10" s="20"/>
-      <c r="R10" s="21"/>
+      <c r="M10" s="86"/>
+      <c r="N10" s="86"/>
+      <c r="O10" s="86"/>
+      <c r="P10" s="86"/>
+      <c r="Q10" s="86"/>
+      <c r="R10" s="87"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B11" s="99" t="s">
+      <c r="B11" s="91" t="s">
         <v>101</v>
       </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="21"/>
-      <c r="L11" s="99" t="s">
+      <c r="C11" s="86"/>
+      <c r="D11" s="86"/>
+      <c r="E11" s="86"/>
+      <c r="F11" s="86"/>
+      <c r="G11" s="86"/>
+      <c r="H11" s="87"/>
+      <c r="L11" s="91" t="s">
         <v>101</v>
       </c>
-      <c r="M11" s="20"/>
-      <c r="N11" s="20"/>
-      <c r="O11" s="20"/>
-      <c r="P11" s="20"/>
-      <c r="Q11" s="20"/>
-      <c r="R11" s="21"/>
+      <c r="M11" s="86"/>
+      <c r="N11" s="86"/>
+      <c r="O11" s="86"/>
+      <c r="P11" s="86"/>
+      <c r="Q11" s="86"/>
+      <c r="R11" s="87"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B12" s="99" t="s">
+      <c r="B12" s="91" t="s">
         <v>98</v>
       </c>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="21"/>
-      <c r="L12" s="99" t="s">
+      <c r="C12" s="86"/>
+      <c r="D12" s="86"/>
+      <c r="E12" s="86"/>
+      <c r="F12" s="86"/>
+      <c r="G12" s="86"/>
+      <c r="H12" s="87"/>
+      <c r="L12" s="91" t="s">
         <v>99</v>
       </c>
-      <c r="M12" s="20"/>
-      <c r="N12" s="20"/>
-      <c r="O12" s="20"/>
-      <c r="P12" s="20"/>
-      <c r="Q12" s="20"/>
-      <c r="R12" s="21"/>
+      <c r="M12" s="86"/>
+      <c r="N12" s="86"/>
+      <c r="O12" s="86"/>
+      <c r="P12" s="86"/>
+      <c r="Q12" s="86"/>
+      <c r="R12" s="87"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B13" s="98" t="s">
+      <c r="B13" s="92" t="s">
         <v>102</v>
       </c>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="30"/>
-      <c r="L13" s="98"/>
-      <c r="M13" s="29"/>
-      <c r="N13" s="29"/>
-      <c r="O13" s="29"/>
-      <c r="P13" s="29"/>
-      <c r="Q13" s="29"/>
-      <c r="R13" s="30"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="49"/>
+      <c r="L13" s="92"/>
+      <c r="M13" s="48"/>
+      <c r="N13" s="48"/>
+      <c r="O13" s="48"/>
+      <c r="P13" s="48"/>
+      <c r="Q13" s="48"/>
+      <c r="R13" s="49"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B14" s="99" t="s">
+      <c r="B14" s="91" t="s">
         <v>103</v>
       </c>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="21"/>
-      <c r="L14" s="99" t="s">
+      <c r="C14" s="86"/>
+      <c r="D14" s="86"/>
+      <c r="E14" s="86"/>
+      <c r="F14" s="86"/>
+      <c r="G14" s="86"/>
+      <c r="H14" s="87"/>
+      <c r="L14" s="91" t="s">
         <v>114</v>
       </c>
-      <c r="M14" s="20"/>
-      <c r="N14" s="20"/>
-      <c r="O14" s="20"/>
-      <c r="P14" s="20"/>
-      <c r="Q14" s="20"/>
-      <c r="R14" s="21"/>
+      <c r="M14" s="86"/>
+      <c r="N14" s="86"/>
+      <c r="O14" s="86"/>
+      <c r="P14" s="86"/>
+      <c r="Q14" s="86"/>
+      <c r="R14" s="87"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B15" s="99" t="s">
+      <c r="B15" s="91" t="s">
         <v>104</v>
       </c>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="21"/>
-      <c r="L15" s="99"/>
-      <c r="M15" s="20"/>
-      <c r="N15" s="20"/>
-      <c r="O15" s="20"/>
-      <c r="P15" s="20"/>
-      <c r="Q15" s="20"/>
-      <c r="R15" s="21"/>
+      <c r="C15" s="86"/>
+      <c r="D15" s="86"/>
+      <c r="E15" s="86"/>
+      <c r="F15" s="86"/>
+      <c r="G15" s="86"/>
+      <c r="H15" s="87"/>
+      <c r="L15" s="91"/>
+      <c r="M15" s="86"/>
+      <c r="N15" s="86"/>
+      <c r="O15" s="86"/>
+      <c r="P15" s="86"/>
+      <c r="Q15" s="86"/>
+      <c r="R15" s="87"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B16" s="100" t="s">
+      <c r="B16" s="105" t="s">
         <v>100</v>
       </c>
-      <c r="C16" s="101"/>
-      <c r="D16" s="101"/>
-      <c r="E16" s="101"/>
-      <c r="F16" s="101"/>
-      <c r="G16" s="101"/>
-      <c r="H16" s="102"/>
-      <c r="L16" s="100" t="s">
+      <c r="C16" s="106"/>
+      <c r="D16" s="106"/>
+      <c r="E16" s="106"/>
+      <c r="F16" s="106"/>
+      <c r="G16" s="106"/>
+      <c r="H16" s="107"/>
+      <c r="L16" s="105" t="s">
         <v>100</v>
       </c>
-      <c r="M16" s="101"/>
-      <c r="N16" s="101"/>
-      <c r="O16" s="101"/>
-      <c r="P16" s="101"/>
-      <c r="Q16" s="101"/>
-      <c r="R16" s="102"/>
+      <c r="M16" s="106"/>
+      <c r="N16" s="106"/>
+      <c r="O16" s="106"/>
+      <c r="P16" s="106"/>
+      <c r="Q16" s="106"/>
+      <c r="R16" s="107"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B17" s="103" t="s">
+      <c r="B17" s="108" t="s">
         <v>97</v>
       </c>
-      <c r="C17" s="104"/>
-      <c r="D17" s="104"/>
-      <c r="E17" s="104"/>
-      <c r="F17" s="104"/>
-      <c r="G17" s="104"/>
-      <c r="H17" s="105"/>
-      <c r="L17" s="103" t="s">
+      <c r="C17" s="109"/>
+      <c r="D17" s="109"/>
+      <c r="E17" s="109"/>
+      <c r="F17" s="109"/>
+      <c r="G17" s="109"/>
+      <c r="H17" s="110"/>
+      <c r="L17" s="108" t="s">
         <v>97</v>
       </c>
-      <c r="M17" s="104"/>
-      <c r="N17" s="104"/>
-      <c r="O17" s="104"/>
-      <c r="P17" s="104"/>
-      <c r="Q17" s="104"/>
-      <c r="R17" s="105"/>
+      <c r="M17" s="109"/>
+      <c r="N17" s="109"/>
+      <c r="O17" s="109"/>
+      <c r="P17" s="109"/>
+      <c r="Q17" s="109"/>
+      <c r="R17" s="110"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B18" s="106"/>
-      <c r="C18" s="107"/>
-      <c r="D18" s="107"/>
-      <c r="E18" s="107"/>
-      <c r="F18" s="107"/>
-      <c r="G18" s="107"/>
-      <c r="H18" s="108"/>
-      <c r="L18" s="106"/>
-      <c r="M18" s="107"/>
-      <c r="N18" s="107"/>
-      <c r="O18" s="107"/>
-      <c r="P18" s="107"/>
-      <c r="Q18" s="107"/>
-      <c r="R18" s="108"/>
+      <c r="B18" s="111"/>
+      <c r="C18" s="112"/>
+      <c r="D18" s="112"/>
+      <c r="E18" s="112"/>
+      <c r="F18" s="112"/>
+      <c r="G18" s="112"/>
+      <c r="H18" s="113"/>
+      <c r="L18" s="111"/>
+      <c r="M18" s="112"/>
+      <c r="N18" s="112"/>
+      <c r="O18" s="112"/>
+      <c r="P18" s="112"/>
+      <c r="Q18" s="112"/>
+      <c r="R18" s="113"/>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B19" s="109" t="s">
+      <c r="B19" s="114" t="s">
         <v>108</v>
       </c>
-      <c r="C19" s="110"/>
-      <c r="D19" s="110"/>
-      <c r="E19" s="110"/>
-      <c r="F19" s="110"/>
-      <c r="G19" s="110"/>
-      <c r="H19" s="111"/>
-      <c r="L19" s="109" t="s">
+      <c r="C19" s="115"/>
+      <c r="D19" s="115"/>
+      <c r="E19" s="115"/>
+      <c r="F19" s="115"/>
+      <c r="G19" s="115"/>
+      <c r="H19" s="116"/>
+      <c r="L19" s="114" t="s">
         <v>108</v>
       </c>
-      <c r="M19" s="110"/>
-      <c r="N19" s="110"/>
-      <c r="O19" s="110"/>
-      <c r="P19" s="110"/>
-      <c r="Q19" s="110"/>
-      <c r="R19" s="111"/>
+      <c r="M19" s="115"/>
+      <c r="N19" s="115"/>
+      <c r="O19" s="115"/>
+      <c r="P19" s="115"/>
+      <c r="Q19" s="115"/>
+      <c r="R19" s="116"/>
     </row>
     <row r="20" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="88" t="s">
+      <c r="B20" s="102" t="s">
         <v>107</v>
       </c>
-      <c r="C20" s="89"/>
-      <c r="D20" s="89"/>
-      <c r="E20" s="89"/>
-      <c r="F20" s="89"/>
-      <c r="G20" s="89"/>
-      <c r="H20" s="90"/>
-      <c r="L20" s="95" t="s">
+      <c r="C20" s="103"/>
+      <c r="D20" s="103"/>
+      <c r="E20" s="103"/>
+      <c r="F20" s="103"/>
+      <c r="G20" s="103"/>
+      <c r="H20" s="104"/>
+      <c r="L20" s="122" t="s">
         <v>117</v>
       </c>
-      <c r="M20" s="96"/>
-      <c r="N20" s="96"/>
-      <c r="O20" s="96"/>
-      <c r="P20" s="96"/>
-      <c r="Q20" s="96"/>
-      <c r="R20" s="97"/>
+      <c r="M20" s="123"/>
+      <c r="N20" s="123"/>
+      <c r="O20" s="123"/>
+      <c r="P20" s="123"/>
+      <c r="Q20" s="123"/>
+      <c r="R20" s="124"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B21" s="88"/>
-      <c r="C21" s="89"/>
-      <c r="D21" s="89"/>
-      <c r="E21" s="89"/>
-      <c r="F21" s="89"/>
-      <c r="G21" s="89"/>
-      <c r="H21" s="90"/>
-      <c r="L21" s="95"/>
-      <c r="M21" s="96"/>
-      <c r="N21" s="96"/>
-      <c r="O21" s="96"/>
-      <c r="P21" s="96"/>
-      <c r="Q21" s="96"/>
-      <c r="R21" s="97"/>
+      <c r="B21" s="102"/>
+      <c r="C21" s="103"/>
+      <c r="D21" s="103"/>
+      <c r="E21" s="103"/>
+      <c r="F21" s="103"/>
+      <c r="G21" s="103"/>
+      <c r="H21" s="104"/>
+      <c r="L21" s="122"/>
+      <c r="M21" s="123"/>
+      <c r="N21" s="123"/>
+      <c r="O21" s="123"/>
+      <c r="P21" s="123"/>
+      <c r="Q21" s="123"/>
+      <c r="R21" s="124"/>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B22" s="88" t="s">
+      <c r="B22" s="102" t="s">
         <v>109</v>
       </c>
-      <c r="C22" s="89"/>
-      <c r="D22" s="89"/>
-      <c r="E22" s="89"/>
-      <c r="F22" s="89"/>
-      <c r="G22" s="89"/>
-      <c r="H22" s="90"/>
-      <c r="L22" s="95"/>
-      <c r="M22" s="96"/>
-      <c r="N22" s="96"/>
-      <c r="O22" s="96"/>
-      <c r="P22" s="96"/>
-      <c r="Q22" s="96"/>
-      <c r="R22" s="97"/>
+      <c r="C22" s="103"/>
+      <c r="D22" s="103"/>
+      <c r="E22" s="103"/>
+      <c r="F22" s="103"/>
+      <c r="G22" s="103"/>
+      <c r="H22" s="104"/>
+      <c r="L22" s="122"/>
+      <c r="M22" s="123"/>
+      <c r="N22" s="123"/>
+      <c r="O22" s="123"/>
+      <c r="P22" s="123"/>
+      <c r="Q22" s="123"/>
+      <c r="R22" s="124"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B23" s="88" t="s">
+      <c r="B23" s="102" t="s">
         <v>110</v>
       </c>
-      <c r="C23" s="89"/>
-      <c r="D23" s="89"/>
-      <c r="E23" s="89"/>
-      <c r="F23" s="89"/>
-      <c r="G23" s="89"/>
-      <c r="H23" s="90"/>
-      <c r="L23" s="95"/>
-      <c r="M23" s="96"/>
-      <c r="N23" s="96"/>
-      <c r="O23" s="96"/>
-      <c r="P23" s="96"/>
-      <c r="Q23" s="96"/>
-      <c r="R23" s="97"/>
+      <c r="C23" s="103"/>
+      <c r="D23" s="103"/>
+      <c r="E23" s="103"/>
+      <c r="F23" s="103"/>
+      <c r="G23" s="103"/>
+      <c r="H23" s="104"/>
+      <c r="L23" s="122"/>
+      <c r="M23" s="123"/>
+      <c r="N23" s="123"/>
+      <c r="O23" s="123"/>
+      <c r="P23" s="123"/>
+      <c r="Q23" s="123"/>
+      <c r="R23" s="124"/>
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B24" s="88"/>
-      <c r="C24" s="89"/>
-      <c r="D24" s="89"/>
-      <c r="E24" s="89"/>
-      <c r="F24" s="89"/>
-      <c r="G24" s="89"/>
-      <c r="H24" s="90"/>
-      <c r="L24" s="95"/>
-      <c r="M24" s="96"/>
-      <c r="N24" s="96"/>
-      <c r="O24" s="96"/>
-      <c r="P24" s="96"/>
-      <c r="Q24" s="96"/>
-      <c r="R24" s="97"/>
+      <c r="B24" s="102"/>
+      <c r="C24" s="103"/>
+      <c r="D24" s="103"/>
+      <c r="E24" s="103"/>
+      <c r="F24" s="103"/>
+      <c r="G24" s="103"/>
+      <c r="H24" s="104"/>
+      <c r="L24" s="122"/>
+      <c r="M24" s="123"/>
+      <c r="N24" s="123"/>
+      <c r="O24" s="123"/>
+      <c r="P24" s="123"/>
+      <c r="Q24" s="123"/>
+      <c r="R24" s="124"/>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B25" s="88"/>
-      <c r="C25" s="89"/>
-      <c r="D25" s="89"/>
-      <c r="E25" s="89"/>
-      <c r="F25" s="89"/>
-      <c r="G25" s="89"/>
-      <c r="H25" s="90"/>
-      <c r="L25" s="95"/>
-      <c r="M25" s="96"/>
-      <c r="N25" s="96"/>
-      <c r="O25" s="96"/>
-      <c r="P25" s="96"/>
-      <c r="Q25" s="96"/>
-      <c r="R25" s="97"/>
+      <c r="B25" s="102"/>
+      <c r="C25" s="103"/>
+      <c r="D25" s="103"/>
+      <c r="E25" s="103"/>
+      <c r="F25" s="103"/>
+      <c r="G25" s="103"/>
+      <c r="H25" s="104"/>
+      <c r="L25" s="122"/>
+      <c r="M25" s="123"/>
+      <c r="N25" s="123"/>
+      <c r="O25" s="123"/>
+      <c r="P25" s="123"/>
+      <c r="Q25" s="123"/>
+      <c r="R25" s="124"/>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B26" s="88"/>
-      <c r="C26" s="89"/>
-      <c r="D26" s="89"/>
-      <c r="E26" s="89"/>
-      <c r="F26" s="89"/>
-      <c r="G26" s="89"/>
-      <c r="H26" s="90"/>
-      <c r="L26" s="95"/>
-      <c r="M26" s="96"/>
-      <c r="N26" s="96"/>
-      <c r="O26" s="96"/>
-      <c r="P26" s="96"/>
-      <c r="Q26" s="96"/>
-      <c r="R26" s="97"/>
+      <c r="B26" s="102"/>
+      <c r="C26" s="103"/>
+      <c r="D26" s="103"/>
+      <c r="E26" s="103"/>
+      <c r="F26" s="103"/>
+      <c r="G26" s="103"/>
+      <c r="H26" s="104"/>
+      <c r="L26" s="122"/>
+      <c r="M26" s="123"/>
+      <c r="N26" s="123"/>
+      <c r="O26" s="123"/>
+      <c r="P26" s="123"/>
+      <c r="Q26" s="123"/>
+      <c r="R26" s="124"/>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B27" s="88"/>
-      <c r="C27" s="89"/>
-      <c r="D27" s="89"/>
-      <c r="E27" s="89"/>
-      <c r="F27" s="89"/>
-      <c r="G27" s="89"/>
-      <c r="H27" s="90"/>
-      <c r="L27" s="95"/>
-      <c r="M27" s="96"/>
-      <c r="N27" s="96"/>
-      <c r="O27" s="96"/>
-      <c r="P27" s="96"/>
-      <c r="Q27" s="96"/>
-      <c r="R27" s="97"/>
+      <c r="B27" s="102"/>
+      <c r="C27" s="103"/>
+      <c r="D27" s="103"/>
+      <c r="E27" s="103"/>
+      <c r="F27" s="103"/>
+      <c r="G27" s="103"/>
+      <c r="H27" s="104"/>
+      <c r="L27" s="122"/>
+      <c r="M27" s="123"/>
+      <c r="N27" s="123"/>
+      <c r="O27" s="123"/>
+      <c r="P27" s="123"/>
+      <c r="Q27" s="123"/>
+      <c r="R27" s="124"/>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B28" s="88"/>
-      <c r="C28" s="89"/>
-      <c r="D28" s="89"/>
-      <c r="E28" s="89"/>
-      <c r="F28" s="89"/>
-      <c r="G28" s="89"/>
-      <c r="H28" s="90"/>
-      <c r="L28" s="95"/>
-      <c r="M28" s="96"/>
-      <c r="N28" s="96"/>
-      <c r="O28" s="96"/>
-      <c r="P28" s="96"/>
-      <c r="Q28" s="96"/>
-      <c r="R28" s="97"/>
+      <c r="B28" s="102"/>
+      <c r="C28" s="103"/>
+      <c r="D28" s="103"/>
+      <c r="E28" s="103"/>
+      <c r="F28" s="103"/>
+      <c r="G28" s="103"/>
+      <c r="H28" s="104"/>
+      <c r="L28" s="122"/>
+      <c r="M28" s="123"/>
+      <c r="N28" s="123"/>
+      <c r="O28" s="123"/>
+      <c r="P28" s="123"/>
+      <c r="Q28" s="123"/>
+      <c r="R28" s="124"/>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B29" s="88"/>
-      <c r="C29" s="89"/>
-      <c r="D29" s="89"/>
-      <c r="E29" s="89"/>
-      <c r="F29" s="89"/>
-      <c r="G29" s="89"/>
-      <c r="H29" s="90"/>
-      <c r="L29" s="88"/>
-      <c r="M29" s="89"/>
-      <c r="N29" s="89"/>
-      <c r="O29" s="89"/>
-      <c r="P29" s="89"/>
-      <c r="Q29" s="89"/>
-      <c r="R29" s="90"/>
+      <c r="B29" s="102"/>
+      <c r="C29" s="103"/>
+      <c r="D29" s="103"/>
+      <c r="E29" s="103"/>
+      <c r="F29" s="103"/>
+      <c r="G29" s="103"/>
+      <c r="H29" s="104"/>
+      <c r="L29" s="102"/>
+      <c r="M29" s="103"/>
+      <c r="N29" s="103"/>
+      <c r="O29" s="103"/>
+      <c r="P29" s="103"/>
+      <c r="Q29" s="103"/>
+      <c r="R29" s="104"/>
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B30" s="88"/>
-      <c r="C30" s="89"/>
-      <c r="D30" s="89"/>
-      <c r="E30" s="89"/>
-      <c r="F30" s="89"/>
-      <c r="G30" s="89"/>
-      <c r="H30" s="90"/>
-      <c r="L30" s="88"/>
-      <c r="M30" s="89"/>
-      <c r="N30" s="89"/>
-      <c r="O30" s="89"/>
-      <c r="P30" s="89"/>
-      <c r="Q30" s="89"/>
-      <c r="R30" s="90"/>
+      <c r="B30" s="102"/>
+      <c r="C30" s="103"/>
+      <c r="D30" s="103"/>
+      <c r="E30" s="103"/>
+      <c r="F30" s="103"/>
+      <c r="G30" s="103"/>
+      <c r="H30" s="104"/>
+      <c r="L30" s="102"/>
+      <c r="M30" s="103"/>
+      <c r="N30" s="103"/>
+      <c r="O30" s="103"/>
+      <c r="P30" s="103"/>
+      <c r="Q30" s="103"/>
+      <c r="R30" s="104"/>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B31" s="88"/>
-      <c r="C31" s="89"/>
-      <c r="D31" s="89"/>
-      <c r="E31" s="89"/>
-      <c r="F31" s="89"/>
-      <c r="G31" s="89"/>
-      <c r="H31" s="90"/>
-      <c r="L31" s="88" t="s">
+      <c r="B31" s="102"/>
+      <c r="C31" s="103"/>
+      <c r="D31" s="103"/>
+      <c r="E31" s="103"/>
+      <c r="F31" s="103"/>
+      <c r="G31" s="103"/>
+      <c r="H31" s="104"/>
+      <c r="L31" s="102" t="s">
         <v>116</v>
       </c>
-      <c r="M31" s="89"/>
-      <c r="N31" s="89"/>
-      <c r="O31" s="89"/>
-      <c r="P31" s="89"/>
-      <c r="Q31" s="89"/>
-      <c r="R31" s="90"/>
+      <c r="M31" s="103"/>
+      <c r="N31" s="103"/>
+      <c r="O31" s="103"/>
+      <c r="P31" s="103"/>
+      <c r="Q31" s="103"/>
+      <c r="R31" s="104"/>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B32" s="88"/>
-      <c r="C32" s="89"/>
-      <c r="D32" s="89"/>
-      <c r="E32" s="89"/>
-      <c r="F32" s="89"/>
-      <c r="G32" s="89"/>
-      <c r="H32" s="90"/>
-      <c r="L32" s="88" t="s">
+      <c r="B32" s="102"/>
+      <c r="C32" s="103"/>
+      <c r="D32" s="103"/>
+      <c r="E32" s="103"/>
+      <c r="F32" s="103"/>
+      <c r="G32" s="103"/>
+      <c r="H32" s="104"/>
+      <c r="L32" s="102" t="s">
         <v>115</v>
       </c>
-      <c r="M32" s="89"/>
-      <c r="N32" s="89"/>
-      <c r="O32" s="89"/>
-      <c r="P32" s="89"/>
-      <c r="Q32" s="89"/>
-      <c r="R32" s="90"/>
+      <c r="M32" s="103"/>
+      <c r="N32" s="103"/>
+      <c r="O32" s="103"/>
+      <c r="P32" s="103"/>
+      <c r="Q32" s="103"/>
+      <c r="R32" s="104"/>
     </row>
     <row r="33" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B33" s="88"/>
-      <c r="C33" s="89"/>
-      <c r="D33" s="89"/>
-      <c r="E33" s="89"/>
-      <c r="F33" s="89"/>
-      <c r="G33" s="89"/>
-      <c r="H33" s="90"/>
-      <c r="L33" s="88"/>
-      <c r="M33" s="89"/>
-      <c r="N33" s="89"/>
-      <c r="O33" s="89"/>
-      <c r="P33" s="89"/>
-      <c r="Q33" s="89"/>
-      <c r="R33" s="90"/>
+      <c r="B33" s="102"/>
+      <c r="C33" s="103"/>
+      <c r="D33" s="103"/>
+      <c r="E33" s="103"/>
+      <c r="F33" s="103"/>
+      <c r="G33" s="103"/>
+      <c r="H33" s="104"/>
+      <c r="L33" s="102"/>
+      <c r="M33" s="103"/>
+      <c r="N33" s="103"/>
+      <c r="O33" s="103"/>
+      <c r="P33" s="103"/>
+      <c r="Q33" s="103"/>
+      <c r="R33" s="104"/>
     </row>
     <row r="34" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B34" s="88"/>
-      <c r="C34" s="89"/>
-      <c r="D34" s="89"/>
-      <c r="E34" s="89"/>
-      <c r="F34" s="89"/>
-      <c r="G34" s="89"/>
-      <c r="H34" s="90"/>
-      <c r="L34" s="88"/>
-      <c r="M34" s="89"/>
-      <c r="N34" s="89"/>
-      <c r="O34" s="89"/>
-      <c r="P34" s="89"/>
-      <c r="Q34" s="89"/>
-      <c r="R34" s="90"/>
+      <c r="B34" s="102"/>
+      <c r="C34" s="103"/>
+      <c r="D34" s="103"/>
+      <c r="E34" s="103"/>
+      <c r="F34" s="103"/>
+      <c r="G34" s="103"/>
+      <c r="H34" s="104"/>
+      <c r="L34" s="102"/>
+      <c r="M34" s="103"/>
+      <c r="N34" s="103"/>
+      <c r="O34" s="103"/>
+      <c r="P34" s="103"/>
+      <c r="Q34" s="103"/>
+      <c r="R34" s="104"/>
     </row>
     <row r="35" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B35" s="91"/>
-      <c r="C35" s="92"/>
-      <c r="D35" s="92"/>
-      <c r="E35" s="92"/>
-      <c r="F35" s="92"/>
-      <c r="G35" s="92"/>
-      <c r="H35" s="93"/>
-      <c r="L35" s="91"/>
-      <c r="M35" s="92"/>
-      <c r="N35" s="92"/>
-      <c r="O35" s="92"/>
-      <c r="P35" s="92"/>
-      <c r="Q35" s="92"/>
-      <c r="R35" s="93"/>
+      <c r="B35" s="117"/>
+      <c r="C35" s="118"/>
+      <c r="D35" s="118"/>
+      <c r="E35" s="118"/>
+      <c r="F35" s="118"/>
+      <c r="G35" s="118"/>
+      <c r="H35" s="119"/>
+      <c r="L35" s="117"/>
+      <c r="M35" s="118"/>
+      <c r="N35" s="118"/>
+      <c r="O35" s="118"/>
+      <c r="P35" s="118"/>
+      <c r="Q35" s="118"/>
+      <c r="R35" s="119"/>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="B7:H8"/>
-    <mergeCell ref="B9:H9"/>
-    <mergeCell ref="B10:H10"/>
-    <mergeCell ref="B27:H27"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="B17:H18"/>
-    <mergeCell ref="B19:H19"/>
-    <mergeCell ref="B20:H20"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="B23:H23"/>
-    <mergeCell ref="B24:H24"/>
-    <mergeCell ref="B25:H25"/>
-    <mergeCell ref="B26:H26"/>
-    <mergeCell ref="B34:H34"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="B28:H28"/>
-    <mergeCell ref="B29:H29"/>
-    <mergeCell ref="B30:H30"/>
-    <mergeCell ref="B31:H31"/>
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="B33:H33"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="L7:R8"/>
-    <mergeCell ref="L9:R9"/>
-    <mergeCell ref="L10:R10"/>
-    <mergeCell ref="L11:R11"/>
-    <mergeCell ref="B11:H11"/>
     <mergeCell ref="L33:R33"/>
     <mergeCell ref="L34:R34"/>
     <mergeCell ref="L35:R35"/>
@@ -3628,6 +3763,38 @@
     <mergeCell ref="L17:R18"/>
     <mergeCell ref="L19:R19"/>
     <mergeCell ref="L12:R12"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="L7:R8"/>
+    <mergeCell ref="L9:R9"/>
+    <mergeCell ref="L10:R10"/>
+    <mergeCell ref="L11:R11"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B34:H34"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="B28:H28"/>
+    <mergeCell ref="B29:H29"/>
+    <mergeCell ref="B30:H30"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="B33:H33"/>
+    <mergeCell ref="B27:H27"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="B17:H18"/>
+    <mergeCell ref="B19:H19"/>
+    <mergeCell ref="B20:H20"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="B24:H24"/>
+    <mergeCell ref="B25:H25"/>
+    <mergeCell ref="B26:H26"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B7:H8"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="B10:H10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
